--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC5154AD-8BF8-934A-8EF1-EFBDFA911AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC354E-8D4D-DA48-988B-776C71F772AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="9" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
-    <sheet name="Red Sites" sheetId="18" r:id="rId2"/>
-    <sheet name="Blue Sites" sheetId="17" r:id="rId3"/>
-    <sheet name="Purple Sites" sheetId="19" r:id="rId4"/>
-    <sheet name="Polls and Opinion" sheetId="32" r:id="rId5"/>
-    <sheet name="Analysis and Data" sheetId="31" r:id="rId6"/>
-    <sheet name="Regional and local" sheetId="33" r:id="rId7"/>
-    <sheet name="College and University" sheetId="34" r:id="rId8"/>
-    <sheet name="World" sheetId="27" r:id="rId9"/>
-    <sheet name="Extra" sheetId="35" r:id="rId10"/>
-    <sheet name="AzLinks" sheetId="36" r:id="rId11"/>
+    <sheet name="AzLinks" sheetId="36" r:id="rId2"/>
+    <sheet name="Red Sites" sheetId="18" r:id="rId3"/>
+    <sheet name="Blue Sites" sheetId="17" r:id="rId4"/>
+    <sheet name="Purple Sites" sheetId="19" r:id="rId5"/>
+    <sheet name="Polls and Opinion" sheetId="32" r:id="rId6"/>
+    <sheet name="Analysis and Data" sheetId="31" r:id="rId7"/>
+    <sheet name="Regional and local" sheetId="33" r:id="rId8"/>
+    <sheet name="College and University" sheetId="34" r:id="rId9"/>
+    <sheet name="World" sheetId="27" r:id="rId10"/>
+    <sheet name="Extra" sheetId="35" r:id="rId11"/>
     <sheet name="Talkers" sheetId="28" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1093">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -506,9 +506,6 @@
     <t>https://www.startribune.com/opinion/</t>
   </si>
   <si>
-    <t>https://www.latimes.com/opinion</t>
-  </si>
-  <si>
     <t>https://www.inquirer.com/opinion/</t>
   </si>
   <si>
@@ -908,9 +905,6 @@
     <t>Los Angeles Times</t>
   </si>
   <si>
-    <t>Minneapolis Star Tribune</t>
-  </si>
-  <si>
     <t>https://theintercept.com/politics/</t>
   </si>
   <si>
@@ -3240,6 +3234,96 @@
   </si>
   <si>
     <t>https://dailycaller.com/</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Trending Google Search</t>
+  </si>
+  <si>
+    <t>Woke Spy</t>
+  </si>
+  <si>
+    <t>https://wokespy.com/</t>
+  </si>
+  <si>
+    <t>LifeZette</t>
+  </si>
+  <si>
+    <t>https://www.lifezette.com/</t>
+  </si>
+  <si>
+    <t>https://newsbusters.org/</t>
+  </si>
+  <si>
+    <t>NewsBusters</t>
+  </si>
+  <si>
+    <t>https://www.dailyfetched.com/</t>
+  </si>
+  <si>
+    <t>DailyFetched</t>
+  </si>
+  <si>
+    <t>The National Pulse</t>
+  </si>
+  <si>
+    <t>https://thenationalpulse.com/analysis/</t>
+  </si>
+  <si>
+    <t>https://www.commondef.com/</t>
+  </si>
+  <si>
+    <t>Common Defense</t>
+  </si>
+  <si>
+    <t>American Military News</t>
+  </si>
+  <si>
+    <t>https://americanmilitarynews.com/</t>
+  </si>
+  <si>
+    <t>Global Security Review</t>
+  </si>
+  <si>
+    <t>https://globalsecurityreview.com/</t>
+  </si>
+  <si>
+    <t>Creators</t>
+  </si>
+  <si>
+    <t>https://www.creators.com/categories/opinion</t>
+  </si>
+  <si>
+    <t>Democracy</t>
+  </si>
+  <si>
+    <t>https://democracyjournal.org/category/arguments/</t>
+  </si>
+  <si>
+    <t>A journal of ideas</t>
+  </si>
+  <si>
+    <t>Bongino Report</t>
+  </si>
+  <si>
+    <t>https://bonginoreport.com/</t>
+  </si>
+  <si>
+    <t>Conservative news aggregation</t>
+  </si>
+  <si>
+    <t>World of Woke</t>
+  </si>
+  <si>
+    <t>Constitutionally-based news</t>
+  </si>
+  <si>
+    <t>National Pulse</t>
+  </si>
+  <si>
+    <t>Radically independent</t>
   </si>
 </sst>
 </file>
@@ -3645,10 +3729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239E30EE-7419-BE4E-98F9-88415CDDF3D9}">
-  <dimension ref="C3:K17"/>
+  <dimension ref="C3:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3665,65 +3749,92 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>1063</v>
+      </c>
       <c r="F17" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" display="https://www.feedspot.com/" xr:uid="{EB501201-7C5A-744B-AEF3-9619BA422275}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{E1593B7B-86E6-D74A-ABD7-AE0EFFAF69D7}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{9AFE801E-E646-7F40-9A52-E773BEBFB5A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3731,11 +3842,586 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4E983-9DDC-5C42-A8DE-575FA41D9D39}">
+  <dimension ref="B2:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" t="s">
+        <v>930</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D6" t="s">
+        <v>935</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" t="s">
+        <v>937</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D8" t="s">
+        <v>939</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D9" t="s">
+        <v>941</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D10" t="s">
+        <v>933</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D12" t="s">
+        <v>944</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D13" t="s">
+        <v>945</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D14" t="s">
+        <v>947</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D15" t="s">
+        <v>944</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D16" t="s">
+        <v>933</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D18" t="s">
+        <v>953</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19" t="s">
+        <v>932</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D20" t="s">
+        <v>945</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D21" t="s">
+        <v>944</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" t="s">
+        <v>943</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D23" t="s">
+        <v>955</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D24" t="s">
+        <v>945</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" t="s">
+        <v>953</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D26" t="s">
+        <v>956</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D27" t="s">
+        <v>957</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D28" t="s">
+        <v>957</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D29" t="s">
+        <v>951</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D30" t="s">
+        <v>944</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D31" t="s">
+        <v>957</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C32">
+    <sortCondition ref="B3:B32"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1" xr:uid="{FB871221-D2EE-DC4E-885A-97F7A5E466D0}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{F988DF3C-D983-064B-BDEE-03A941DD92E6}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{DB559658-5387-2B45-AE26-D756F4FC6B4C}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{CE05D816-A511-EC4D-AE5A-A36A056E6362}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{9D9E4709-2359-6C41-B481-F95160AC508C}"/>
+    <hyperlink ref="F26" r:id="rId6" xr:uid="{090621C6-718C-0742-AA8C-D8C5B71858E0}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{F4B912B0-8AE6-D640-8BB5-EDF4AA5A0880}"/>
+    <hyperlink ref="F19" r:id="rId8" xr:uid="{E4C5FBEE-C08A-A24A-BB76-835BF0C25FFD}"/>
+    <hyperlink ref="F22" r:id="rId9" xr:uid="{AEB1B8B7-12D6-FF4E-849D-F0BE36A98E1F}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{ED18E0B9-EB23-8B4C-9285-086F96DF6633}"/>
+    <hyperlink ref="F25" r:id="rId11" xr:uid="{99423943-2A1B-AF4B-BEF1-06E2211BC638}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{F08764AA-76C2-164C-9E6A-CD7570D5CEE8}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{F5CBBAB3-A1D2-914A-9E3B-3A3075F3E8F7}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{8D89D47F-ABF2-8743-9F4C-07F1E84783DD}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{EC826CD3-1A26-7240-B115-9EED90079776}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{FF8FCBB9-2EBF-BB41-953E-7ECD2DE15CCE}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
+    <hyperlink ref="F5" r:id="rId18" xr:uid="{EE260883-24A8-904F-9C48-183314CF8077}"/>
+    <hyperlink ref="F15" r:id="rId19" xr:uid="{1FB44300-AD01-2941-B9C6-24AAFBBC25C7}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{7E3B384F-ACEB-1346-946E-EF021356C7F5}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{67BBD83A-E330-034A-B1F1-B159A7245968}"/>
+    <hyperlink ref="F11" r:id="rId22" xr:uid="{D6D12C11-C8E7-2743-BAB4-7D0D793F8C41}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{B6796569-2AC1-8041-886E-7DBCB9439DC3}"/>
+    <hyperlink ref="F16" r:id="rId24" xr:uid="{2287B03B-CC26-924F-84B6-EC17F03FD8F8}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{AB4F95C0-ACA1-314A-8F94-655B04525262}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
+    <hyperlink ref="F10" r:id="rId29" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B7790-4070-1D49-9CFA-16B9FB7BBEBD}">
-  <dimension ref="C3:L34"/>
+  <dimension ref="C3:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3746,16 +4432,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -3766,24 +4452,24 @@
         <v>76</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
@@ -3794,10 +4480,10 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
@@ -3808,10 +4494,10 @@
         <v>105</v>
       </c>
       <c r="K7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
@@ -3822,10 +4508,10 @@
         <v>93</v>
       </c>
       <c r="K8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
@@ -3836,260 +4522,250 @@
         <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="K18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="K20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="K21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K22" t="s">
-        <v>287</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K23" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="K24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="K25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
@@ -4108,32 +4784,54 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1075</v>
+      </c>
       <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>278</v>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -4179,318 +4877,22 @@
     <hyperlink ref="L18" r:id="rId39" xr:uid="{667DFF61-129E-5245-90C4-8D83D85CC4B7}"/>
     <hyperlink ref="L17" r:id="rId40" xr:uid="{27D81FFA-A11F-4B4D-9986-C7E06B3E5BEA}"/>
     <hyperlink ref="L21" r:id="rId41" xr:uid="{9FD754D5-8F4B-2F45-B853-9215748265D3}"/>
-    <hyperlink ref="L23" r:id="rId42" xr:uid="{006D7786-CF9A-B044-B4E5-03B9A019C50D}"/>
-    <hyperlink ref="L22" r:id="rId43" xr:uid="{7E4B5874-FA3B-2D43-AFEB-6147B8996490}"/>
-    <hyperlink ref="L24" r:id="rId44" location="politics" xr:uid="{59D55099-C26E-4348-923C-D6BE5A13C451}"/>
-    <hyperlink ref="L20" r:id="rId45" xr:uid="{05D428DE-5D28-9741-A4C8-D49D1B99A30F}"/>
-    <hyperlink ref="L25" r:id="rId46" xr:uid="{7192F838-7E75-DB4D-8E4C-22652EE645B4}"/>
-    <hyperlink ref="L27" r:id="rId47" xr:uid="{7C0A5563-5617-7646-985D-01E86954DCB0}"/>
-    <hyperlink ref="L34" r:id="rId48" xr:uid="{1E3A4E54-E0EE-2540-BC05-F73D93437115}"/>
-    <hyperlink ref="L33" r:id="rId49" location="politics" xr:uid="{3BE2DE24-DB41-C94E-8592-B6C0ACD61C09}"/>
-    <hyperlink ref="L30" r:id="rId50" xr:uid="{1DF273F4-BA09-F944-81AD-A5FC5F9ECC0F}"/>
-    <hyperlink ref="L32" r:id="rId51" xr:uid="{DFBF9D39-FFF1-7B47-A2B3-F37FF64C7622}"/>
-    <hyperlink ref="L31" r:id="rId52" xr:uid="{725D878B-1AE6-EF49-81F6-FC958B35DB11}"/>
-    <hyperlink ref="D31" r:id="rId53" xr:uid="{1FAAEDDB-FC7D-B840-93A4-828248E97345}"/>
-    <hyperlink ref="D32" r:id="rId54" xr:uid="{297D0383-1198-0B43-A3AB-00D53C1A426F}"/>
+    <hyperlink ref="L24" r:id="rId42" location="politics" xr:uid="{59D55099-C26E-4348-923C-D6BE5A13C451}"/>
+    <hyperlink ref="L20" r:id="rId43" xr:uid="{05D428DE-5D28-9741-A4C8-D49D1B99A30F}"/>
+    <hyperlink ref="L25" r:id="rId44" xr:uid="{7192F838-7E75-DB4D-8E4C-22652EE645B4}"/>
+    <hyperlink ref="L27" r:id="rId45" xr:uid="{7C0A5563-5617-7646-985D-01E86954DCB0}"/>
+    <hyperlink ref="L34" r:id="rId46" xr:uid="{1E3A4E54-E0EE-2540-BC05-F73D93437115}"/>
+    <hyperlink ref="L33" r:id="rId47" location="politics" xr:uid="{3BE2DE24-DB41-C94E-8592-B6C0ACD61C09}"/>
+    <hyperlink ref="L30" r:id="rId48" xr:uid="{1DF273F4-BA09-F944-81AD-A5FC5F9ECC0F}"/>
+    <hyperlink ref="L32" r:id="rId49" xr:uid="{DFBF9D39-FFF1-7B47-A2B3-F37FF64C7622}"/>
+    <hyperlink ref="L31" r:id="rId50" xr:uid="{725D878B-1AE6-EF49-81F6-FC958B35DB11}"/>
+    <hyperlink ref="D31" r:id="rId51" xr:uid="{1FAAEDDB-FC7D-B840-93A4-828248E97345}"/>
+    <hyperlink ref="D32" r:id="rId52" xr:uid="{297D0383-1198-0B43-A3AB-00D53C1A426F}"/>
+    <hyperlink ref="D34" r:id="rId53" xr:uid="{24516360-6419-5342-8CB1-A2E2166ABAFE}"/>
+    <hyperlink ref="D35" r:id="rId54" xr:uid="{234D7995-DD2A-C841-8860-2E3A3BDCA68B}"/>
+    <hyperlink ref="D36" r:id="rId55" xr:uid="{7B8EA1B7-B39B-C448-84CC-D5E9C7F83C90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42335FE5-EDE1-D149-93FE-A9683AFC9CDA}">
-  <dimension ref="A2:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{22DA252F-1794-1545-B706-2C8D3C4C282F}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{C3DDD1EC-F2BB-2B42-8DE0-4330DF27427C}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{7A2D0204-6D98-BE4B-8F04-EA987BDF38C1}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{F52419E0-C694-3148-9551-C283EBE4A5DE}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{5507EC54-C942-0340-A2C3-26BAB9748832}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{49364787-6AC3-EB48-82ED-BACCE0F4C626}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{8EDEF185-38CB-5946-9FA4-818B82CE89E9}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{FEDB3986-63E0-394A-A755-B58718703A47}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4511,10 +4913,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -4523,1014 +4925,1014 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D35" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D40" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D42" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D44" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D46" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D50" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D53" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D54" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D57" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D58" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D59" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D61" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D62" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D63" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D65" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D66" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D67" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D68" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D69" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D70" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D71" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D74" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D75" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D76" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D78" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D79" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D80" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D81" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D82" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D83" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D84" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D85" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D86" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D87" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D88" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D90" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D91" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D92" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D93" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D94" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D95" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -5635,11 +6037,308 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42335FE5-EDE1-D149-93FE-A9683AFC9CDA}">
+  <dimension ref="A2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{22DA252F-1794-1545-B706-2C8D3C4C282F}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{C3DDD1EC-F2BB-2B42-8DE0-4330DF27427C}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{7A2D0204-6D98-BE4B-8F04-EA987BDF38C1}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{F52419E0-C694-3148-9551-C283EBE4A5DE}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{5507EC54-C942-0340-A2C3-26BAB9748832}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{49364787-6AC3-EB48-82ED-BACCE0F4C626}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{8EDEF185-38CB-5946-9FA4-818B82CE89E9}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{FEDB3986-63E0-394A-A755-B58718703A47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5659,90 +6358,111 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" t="s">
-        <v>839</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="M3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="N4" s="1"/>
+        <v>636</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>644</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -5750,13 +6470,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -5764,36 +6484,36 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5805,19 +6525,19 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -5829,30 +6549,30 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>91</v>
@@ -5860,87 +6580,87 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D17" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -5948,13 +6668,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -5965,64 +6685,64 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D22" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>56</v>
@@ -6030,19 +6750,19 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -6050,13 +6770,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -6064,19 +6784,19 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -6084,13 +6804,13 @@
         <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D26" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>80</v>
@@ -6098,19 +6818,19 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D27" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -6118,33 +6838,33 @@
         <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D28" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -6152,13 +6872,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>90</v>
@@ -6166,19 +6886,19 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D31" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -6186,64 +6906,64 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D32" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D33" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D34" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -6251,53 +6971,121 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D36" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D37" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D38" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -6341,13 +7129,21 @@
     <hyperlink ref="F36" r:id="rId34" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
     <hyperlink ref="F37" r:id="rId35" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
     <hyperlink ref="F38" r:id="rId36" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
+    <hyperlink ref="N6" r:id="rId37" xr:uid="{7B4B98CD-BF01-0C45-97B7-4C4D84BD14F8}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
+    <hyperlink ref="N3" r:id="rId39" xr:uid="{0E295B17-6DEB-6D49-94C6-95FB012EB7E2}"/>
+    <hyperlink ref="F40" r:id="rId40" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
+    <hyperlink ref="N4" r:id="rId41" xr:uid="{70418398-A89D-FC42-A6FF-EBBB808E3F8C}"/>
+    <hyperlink ref="F41" r:id="rId42" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
+    <hyperlink ref="N5" r:id="rId43" xr:uid="{328A36ED-66DB-F042-A7D1-F751F52C04C1}"/>
+    <hyperlink ref="F42" r:id="rId44" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
   <dimension ref="B3:M38"/>
   <sheetViews>
@@ -6371,19 +7167,19 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -6395,19 +7191,19 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -6415,13 +7211,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -6429,16 +7225,16 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -6449,13 +7245,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -6463,16 +7259,16 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -6480,19 +7276,19 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -6500,16 +7296,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -6517,13 +7313,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -6534,13 +7330,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -6551,13 +7347,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -6568,13 +7364,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -6583,36 +7379,36 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -6620,30 +7416,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -6651,104 +7447,104 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -6756,13 +7552,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -6773,30 +7569,30 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>82</v>
@@ -6807,13 +7603,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -6824,13 +7620,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -6841,13 +7637,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -6858,13 +7654,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -6872,16 +7668,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>106</v>
@@ -6889,19 +7685,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -6909,13 +7705,13 @@
         <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D34" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -6923,16 +7719,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -6943,50 +7739,50 @@
         <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D37" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -7026,12 +7822,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7043,8 +7839,8 @@
     <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -7056,19 +7852,19 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7083,68 +7879,74 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7152,13 +7954,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -7169,13 +7971,13 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>107</v>
@@ -7186,13 +7988,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
@@ -7203,13 +8005,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D10" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -7217,67 +8019,67 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>29</v>
@@ -7285,19 +8087,19 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -7305,101 +8107,101 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>675</v>
+      </c>
+      <c r="D20" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C20" t="s">
-        <v>677</v>
-      </c>
-      <c r="D20" t="s">
-        <v>705</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D21" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -7407,13 +8209,13 @@
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D22" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>111</v>
@@ -7424,13 +8226,13 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>48</v>
@@ -7438,19 +8240,19 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C24" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -7458,16 +8260,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -7475,13 +8277,13 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D26" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
@@ -7489,24 +8291,37 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D27" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C28" t="s">
+        <v>675</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
@@ -7547,13 +8362,14 @@
     <hyperlink ref="F23" r:id="rId21" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
     <hyperlink ref="F13" r:id="rId22" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
     <hyperlink ref="F18" r:id="rId23" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADF352-5B5A-244B-A5F9-4FFB164F2F83}">
   <dimension ref="B3:F23"/>
   <sheetViews>
@@ -7572,291 +8388,291 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>677</v>
-      </c>
-      <c r="D9" t="s">
-        <v>781</v>
-      </c>
-      <c r="E9" t="s">
-        <v>677</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D17" t="s">
+        <v>784</v>
+      </c>
+      <c r="E17" t="s">
+        <v>675</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C17" t="s">
-        <v>677</v>
-      </c>
-      <c r="D17" t="s">
-        <v>786</v>
-      </c>
-      <c r="E17" t="s">
-        <v>677</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19" t="s">
+        <v>786</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D19" t="s">
-        <v>788</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -7886,7 +8702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A60BEE-556A-8141-853B-FECA0E5B23E1}">
   <dimension ref="B2:F25"/>
   <sheetViews>
@@ -7906,53 +8722,53 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" t="s">
-        <v>749</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -7960,13 +8776,13 @@
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
@@ -7974,16 +8790,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
@@ -7991,70 +8807,70 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" t="s">
+        <v>856</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D7" t="s">
-        <v>858</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D10" t="s">
-        <v>739</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -8062,115 +8878,115 @@
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>66</v>
@@ -8178,84 +8994,84 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D21" t="s">
         <v>751</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D21" t="s">
-        <v>753</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>109</v>
@@ -8263,16 +9079,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>89</v>
@@ -8280,36 +9096,36 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -8343,7 +9159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E831FF66-86B1-2349-BECB-F369CF82C677}">
   <dimension ref="B3:F33"/>
   <sheetViews>
@@ -8363,237 +9179,237 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4" t="s">
+        <v>877</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D4" t="s">
-        <v>879</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>97</v>
@@ -8601,50 +9417,50 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D17" t="s">
-        <v>884</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>152</v>
@@ -8652,220 +9468,220 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D21" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D26" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D27" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D28" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D31" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D32" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -8873,19 +9689,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D33" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -8926,7 +9742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C72759F-4821-214E-8EDE-D2ED0F5B49AA}">
   <dimension ref="B3:F30"/>
   <sheetViews>
@@ -8945,19 +9761,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -8965,13 +9781,13 @@
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
@@ -8979,16 +9795,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
@@ -8999,13 +9815,13 @@
         <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>118</v>
@@ -9013,33 +9829,33 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -9047,16 +9863,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>144</v>
@@ -9067,13 +9883,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>125</v>
@@ -9081,16 +9897,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>145</v>
@@ -9098,16 +9914,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>146</v>
@@ -9115,16 +9931,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D13" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>127</v>
@@ -9132,16 +9948,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>147</v>
@@ -9152,13 +9968,13 @@
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>133</v>
@@ -9166,16 +9982,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>135</v>
@@ -9186,13 +10002,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -9200,16 +10016,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -9217,16 +10033,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>136</v>
@@ -9234,16 +10050,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>137</v>
@@ -9251,16 +10067,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D21" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>141</v>
@@ -9268,16 +10084,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D22" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -9288,13 +10104,13 @@
         <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>148</v>
@@ -9305,13 +10121,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
@@ -9319,16 +10135,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D25" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
@@ -9336,16 +10152,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D26" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>142</v>
@@ -9356,13 +10172,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D27" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>123</v>
@@ -9373,13 +10189,13 @@
         <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D28" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>150</v>
@@ -9390,13 +10206,13 @@
         <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -9407,13 +10223,13 @@
         <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D30" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>
@@ -9452,579 +10268,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4E983-9DDC-5C42-A8DE-575FA41D9D39}">
-  <dimension ref="B2:I31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" t="s">
-        <v>932</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D4" t="s">
-        <v>934</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D5" t="s">
-        <v>935</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D6" t="s">
-        <v>937</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D7" t="s">
-        <v>939</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D8" t="s">
-        <v>941</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D9" t="s">
-        <v>943</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D10" t="s">
-        <v>935</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D11" t="s">
-        <v>945</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D12" t="s">
-        <v>946</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D13" t="s">
-        <v>947</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" t="s">
-        <v>949</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D15" t="s">
-        <v>946</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D16" t="s">
-        <v>935</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D17" t="s">
-        <v>953</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D18" t="s">
-        <v>955</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D19" t="s">
-        <v>934</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D20" t="s">
-        <v>947</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D21" t="s">
-        <v>946</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D22" t="s">
-        <v>945</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D23" t="s">
-        <v>957</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D24" t="s">
-        <v>947</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D25" t="s">
-        <v>955</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D26" t="s">
-        <v>958</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D27" t="s">
-        <v>959</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D28" t="s">
-        <v>959</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D29" t="s">
-        <v>953</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D30" t="s">
-        <v>946</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D31" t="s">
-        <v>959</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C32">
-    <sortCondition ref="B3:B32"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" xr:uid="{FB871221-D2EE-DC4E-885A-97F7A5E466D0}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{F988DF3C-D983-064B-BDEE-03A941DD92E6}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{DB559658-5387-2B45-AE26-D756F4FC6B4C}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{CE05D816-A511-EC4D-AE5A-A36A056E6362}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{9D9E4709-2359-6C41-B481-F95160AC508C}"/>
-    <hyperlink ref="F26" r:id="rId6" xr:uid="{090621C6-718C-0742-AA8C-D8C5B71858E0}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{F4B912B0-8AE6-D640-8BB5-EDF4AA5A0880}"/>
-    <hyperlink ref="F19" r:id="rId8" xr:uid="{E4C5FBEE-C08A-A24A-BB76-835BF0C25FFD}"/>
-    <hyperlink ref="F22" r:id="rId9" xr:uid="{AEB1B8B7-12D6-FF4E-849D-F0BE36A98E1F}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{ED18E0B9-EB23-8B4C-9285-086F96DF6633}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{99423943-2A1B-AF4B-BEF1-06E2211BC638}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{F08764AA-76C2-164C-9E6A-CD7570D5CEE8}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{F5CBBAB3-A1D2-914A-9E3B-3A3075F3E8F7}"/>
-    <hyperlink ref="F6" r:id="rId14" xr:uid="{8D89D47F-ABF2-8743-9F4C-07F1E84783DD}"/>
-    <hyperlink ref="F8" r:id="rId15" xr:uid="{EC826CD3-1A26-7240-B115-9EED90079776}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{FF8FCBB9-2EBF-BB41-953E-7ECD2DE15CCE}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
-    <hyperlink ref="F5" r:id="rId18" xr:uid="{EE260883-24A8-904F-9C48-183314CF8077}"/>
-    <hyperlink ref="F15" r:id="rId19" xr:uid="{1FB44300-AD01-2941-B9C6-24AAFBBC25C7}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{7E3B384F-ACEB-1346-946E-EF021356C7F5}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{67BBD83A-E330-034A-B1F1-B159A7245968}"/>
-    <hyperlink ref="F11" r:id="rId22" xr:uid="{D6D12C11-C8E7-2743-BAB4-7D0D793F8C41}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{B6796569-2AC1-8041-886E-7DBCB9439DC3}"/>
-    <hyperlink ref="F16" r:id="rId24" xr:uid="{2287B03B-CC26-924F-84B6-EC17F03FD8F8}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{AB4F95C0-ACA1-314A-8F94-655B04525262}"/>
-    <hyperlink ref="F30" r:id="rId26" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
-    <hyperlink ref="F21" r:id="rId27" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
-    <hyperlink ref="F10" r:id="rId29" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC354E-8D4D-DA48-988B-776C71F772AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CF8EB-B17E-964F-B205-50C45212AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="3" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1096">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -1868,9 +1868,6 @@
     <t>https://www.nytimes.com/section/opinion</t>
   </si>
   <si>
-    <t>https://www.newyorker.com/latest</t>
-  </si>
-  <si>
     <t>https://slate.com/news-and-politics</t>
   </si>
   <si>
@@ -2057,9 +2054,6 @@
     <t>Local</t>
   </si>
   <si>
-    <t>Inspire action and advocacy</t>
-  </si>
-  <si>
     <t>Perspective on global events</t>
   </si>
   <si>
@@ -2087,9 +2081,6 @@
     <t>Founded by abolitionists in 1865</t>
   </si>
   <si>
-    <t>Rigor, fairness, and excellence</t>
-  </si>
-  <si>
     <t>Witty take on current events</t>
   </si>
   <si>
@@ -3324,6 +3315,24 @@
   </si>
   <si>
     <t>Radically independent</t>
+  </si>
+  <si>
+    <t>https://www.newyorker.com/</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Politics latest headlines</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/politics</t>
+  </si>
+  <si>
+    <t>Inspire action, advocacy</t>
+  </si>
+  <si>
+    <t>Rigor, fairness, excellence</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3782,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K6" t="s">
         <v>194</v>
@@ -3781,7 +3790,7 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
@@ -3791,7 +3800,7 @@
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
@@ -3801,7 +3810,7 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3809,16 +3818,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3861,33 +3870,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>95</v>
@@ -3898,13 +3907,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>78</v>
@@ -3912,33 +3921,33 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>88</v>
@@ -3946,16 +3955,16 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -3964,16 +3973,16 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -3981,16 +3990,16 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
@@ -3999,37 +4008,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4038,13 +4047,13 @@
         <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>162</v>
@@ -4056,13 +4065,13 @@
         <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -4071,16 +4080,16 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>84</v>
@@ -4089,70 +4098,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4160,13 +4169,13 @@
         <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>101</v>
@@ -4174,16 +4183,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>62</v>
@@ -4191,33 +4200,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>59</v>
@@ -4225,16 +4234,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>64</v>
@@ -4242,33 +4251,33 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -4276,16 +4285,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
@@ -4293,16 +4302,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>60</v>
@@ -4310,53 +4319,53 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4364,13 +4373,13 @@
         <v>295</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
@@ -4435,7 +4444,7 @@
         <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K3" t="s">
         <v>299</v>
@@ -4463,7 +4472,7 @@
         <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K5" t="s">
         <v>269</v>
@@ -4592,10 +4601,10 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4741,7 +4750,7 @@
         <v>262</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
@@ -4806,10 +4815,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="K34" t="s">
         <v>276</v>
@@ -4820,18 +4829,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -6058,263 +6067,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E3" t="s">
         <v>1007</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1010</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G4" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C6" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E6" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C8" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E8" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -6337,7 +6346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -6358,19 +6367,19 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6378,45 +6387,45 @@
         <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6424,45 +6433,45 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6470,13 +6479,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -6484,19 +6493,19 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17" x14ac:dyDescent="0.2">
@@ -6504,13 +6513,13 @@
         <v>323</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>324</v>
@@ -6525,16 +6534,16 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>311</v>
@@ -6549,30 +6558,30 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>91</v>
@@ -6580,53 +6589,53 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D13" t="s">
+        <v>833</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D13" t="s">
-        <v>836</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -6634,13 +6643,13 @@
         <v>300</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>301</v>
@@ -6648,19 +6657,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -6668,13 +6677,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -6685,13 +6694,13 @@
         <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>198</v>
@@ -6702,13 +6711,13 @@
         <v>250</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>249</v>
@@ -6716,33 +6725,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>56</v>
@@ -6750,16 +6759,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>310</v>
@@ -6770,13 +6779,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -6784,19 +6793,19 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -6804,13 +6813,13 @@
         <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>80</v>
@@ -6821,13 +6830,13 @@
         <v>303</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>304</v>
@@ -6838,13 +6847,13 @@
         <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>217</v>
@@ -6852,19 +6861,19 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -6872,13 +6881,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>90</v>
@@ -6889,16 +6898,16 @@
         <v>596</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -6906,33 +6915,33 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -6940,13 +6949,13 @@
         <v>600</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D34" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>312</v>
@@ -6954,16 +6963,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D35" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -6971,121 +6980,121 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D36" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D37" t="s">
         <v>1039</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1042</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D38" t="s">
         <v>1041</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1044</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D39" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D40" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D41" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D42" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -7145,10 +7154,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
-  <dimension ref="B3:M38"/>
+  <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7167,19 +7176,19 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7194,16 +7203,16 @@
         <v>602</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>1094</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -7211,13 +7220,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -7228,13 +7237,13 @@
         <v>603</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -7245,13 +7254,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7262,13 +7271,13 @@
         <v>294</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -7279,13 +7288,13 @@
         <v>604</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>605</v>
@@ -7296,13 +7305,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>286</v>
@@ -7313,13 +7322,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -7330,13 +7339,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7347,13 +7356,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7364,13 +7373,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -7379,16 +7388,16 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>606</v>
@@ -7396,19 +7405,19 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>680</v>
+        <v>1095</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>607</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7416,30 +7425,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7447,33 +7456,33 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>592</v>
@@ -7481,19 +7490,19 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -7501,13 +7510,13 @@
         <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>190</v>
@@ -7515,36 +7524,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7552,13 +7561,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -7569,30 +7578,30 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>82</v>
@@ -7603,13 +7612,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7620,13 +7629,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7637,13 +7646,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7654,13 +7663,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -7668,16 +7677,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>106</v>
@@ -7685,16 +7694,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>282</v>
@@ -7705,13 +7714,13 @@
         <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D34" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -7719,16 +7728,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -7739,30 +7748,30 @@
         <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D37" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>590</v>
@@ -7770,19 +7779,36 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>623</v>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -7816,6 +7842,7 @@
     <hyperlink ref="F15" r:id="rId27" xr:uid="{90A337E4-19D2-B04C-B269-2BBB386C9D5D}"/>
     <hyperlink ref="F16" r:id="rId28" xr:uid="{7F1731E8-6995-7D47-97C7-A595FF9F5B94}"/>
     <hyperlink ref="F17" r:id="rId29" xr:uid="{669CC7E9-2526-A54D-974D-57644945DB51}"/>
+    <hyperlink ref="F39" r:id="rId30" xr:uid="{97487D2F-3D58-1E43-8B75-706DA9B31CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7852,19 +7879,19 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7879,74 +7906,74 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7954,13 +7981,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -7971,13 +7998,13 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>107</v>
@@ -7988,13 +8015,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
@@ -8005,13 +8032,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -8019,33 +8046,33 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
         <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>169</v>
@@ -8053,33 +8080,33 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>29</v>
@@ -8087,19 +8114,19 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
+        <v>640</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -8107,16 +8134,16 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -8124,13 +8151,13 @@
         <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>240</v>
@@ -8141,13 +8168,13 @@
         <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>273</v>
@@ -8155,19 +8182,19 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>648</v>
+      </c>
+      <c r="C19" t="s">
+        <v>673</v>
+      </c>
+      <c r="D19" t="s">
+        <v>849</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C19" t="s">
-        <v>675</v>
-      </c>
-      <c r="D19" t="s">
-        <v>852</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -8175,13 +8202,13 @@
         <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>165</v>
@@ -8189,19 +8216,19 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D21" t="s">
+        <v>850</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="C21" t="s">
-        <v>675</v>
-      </c>
-      <c r="D21" t="s">
-        <v>853</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -8209,13 +8236,13 @@
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>111</v>
@@ -8226,13 +8253,13 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>48</v>
@@ -8240,19 +8267,19 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C24" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -8260,13 +8287,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>242</v>
@@ -8277,13 +8304,13 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
@@ -8291,16 +8318,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C27" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>302</v>
@@ -8308,19 +8335,19 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -8388,33 +8415,33 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>288</v>
@@ -8422,16 +8449,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>289</v>
@@ -8442,13 +8469,13 @@
         <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>166</v>
@@ -8459,13 +8486,13 @@
         <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>291</v>
@@ -8476,13 +8503,13 @@
         <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>167</v>
@@ -8493,13 +8520,13 @@
         <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>247</v>
@@ -8507,16 +8534,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>293</v>
@@ -8524,16 +8551,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>292</v>
@@ -8541,33 +8568,33 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>307</v>
@@ -8575,16 +8602,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>306</v>
@@ -8592,16 +8619,16 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>314</v>
@@ -8612,16 +8639,16 @@
         <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E16" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -8629,13 +8656,13 @@
         <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>258</v>
@@ -8646,13 +8673,13 @@
         <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>168</v>
@@ -8663,13 +8690,13 @@
         <v>271</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>272</v>
@@ -8722,19 +8749,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -8742,13 +8769,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>197</v>
@@ -8759,13 +8786,13 @@
         <v>319</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>320</v>
@@ -8776,13 +8803,13 @@
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
@@ -8793,13 +8820,13 @@
         <v>231</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
@@ -8810,13 +8837,13 @@
         <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>214</v>
@@ -8824,16 +8851,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>275</v>
@@ -8844,13 +8871,13 @@
         <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>593</v>
@@ -8861,13 +8888,13 @@
         <v>232</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>233</v>
@@ -8878,13 +8905,13 @@
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>253</v>
@@ -8895,13 +8922,13 @@
         <v>255</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>254</v>
@@ -8912,13 +8939,13 @@
         <v>308</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>309</v>
@@ -8929,13 +8956,13 @@
         <v>315</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>316</v>
@@ -8946,13 +8973,13 @@
         <v>317</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>318</v>
@@ -8960,16 +8987,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>261</v>
@@ -8977,16 +9004,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>66</v>
@@ -8994,36 +9021,36 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D18" t="s">
+        <v>742</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D18" t="s">
-        <v>745</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D19" t="s">
-        <v>746</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -9031,13 +9058,13 @@
         <v>244</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>243</v>
@@ -9045,33 +9072,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>109</v>
@@ -9079,16 +9106,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>89</v>
@@ -9096,36 +9123,36 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D24" t="s">
+        <v>750</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D24" t="s">
-        <v>753</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -9179,19 +9206,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9199,13 +9226,13 @@
         <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>180</v>
@@ -9216,30 +9243,30 @@
         <v>285</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>173</v>
@@ -9247,16 +9274,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>176</v>
@@ -9264,84 +9291,84 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>153</v>
@@ -9349,16 +9376,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>183</v>
@@ -9366,50 +9393,50 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>97</v>
@@ -9420,13 +9447,13 @@
         <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
@@ -9434,33 +9461,33 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>152</v>
@@ -9468,50 +9495,50 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>154</v>
@@ -9519,169 +9546,169 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -9689,19 +9716,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -9761,19 +9788,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9781,13 +9808,13 @@
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
@@ -9795,16 +9822,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
@@ -9815,13 +9842,13 @@
         <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>118</v>
@@ -9829,16 +9856,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>170</v>
@@ -9846,16 +9873,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -9863,16 +9890,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>144</v>
@@ -9883,13 +9910,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>125</v>
@@ -9897,16 +9924,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>145</v>
@@ -9914,16 +9941,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>146</v>
@@ -9931,16 +9958,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>127</v>
@@ -9948,16 +9975,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>147</v>
@@ -9968,13 +9995,13 @@
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>133</v>
@@ -9982,16 +10009,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>135</v>
@@ -10002,13 +10029,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -10016,16 +10043,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -10033,16 +10060,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>136</v>
@@ -10050,16 +10077,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>137</v>
@@ -10067,16 +10094,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>141</v>
@@ -10084,16 +10111,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -10104,13 +10131,13 @@
         <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>148</v>
@@ -10121,13 +10148,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
@@ -10135,16 +10162,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
@@ -10152,16 +10179,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>142</v>
@@ -10172,13 +10199,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>123</v>
@@ -10189,13 +10216,13 @@
         <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>150</v>
@@ -10206,13 +10233,13 @@
         <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -10223,13 +10250,13 @@
         <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CF8EB-B17E-964F-B205-50C45212AA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4A800-5E6A-AE4D-9031-A4D97606E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="3" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="6" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
     <sheet name="AzLinks" sheetId="36" r:id="rId2"/>
-    <sheet name="Red Sites" sheetId="18" r:id="rId3"/>
-    <sheet name="Blue Sites" sheetId="17" r:id="rId4"/>
-    <sheet name="Purple Sites" sheetId="19" r:id="rId5"/>
+    <sheet name="Republican" sheetId="18" r:id="rId3"/>
+    <sheet name="Democratic" sheetId="17" r:id="rId4"/>
+    <sheet name="Independent" sheetId="19" r:id="rId5"/>
     <sheet name="Polls and Opinion" sheetId="32" r:id="rId6"/>
     <sheet name="Analysis and Data" sheetId="31" r:id="rId7"/>
     <sheet name="Regional and local" sheetId="33" r:id="rId8"/>
@@ -2147,12 +2147,6 @@
     <t>Comprehensive Congressional news</t>
   </si>
   <si>
-    <t>Fair, independent, and transparent</t>
-  </si>
-  <si>
-    <t>Velocity, frequency and consistency</t>
-  </si>
-  <si>
     <t>A new political center</t>
   </si>
   <si>
@@ -3333,6 +3327,12 @@
   </si>
   <si>
     <t>Rigor, fairness, excellence</t>
+  </si>
+  <si>
+    <t>Velocity, frequency, consistency</t>
+  </si>
+  <si>
+    <t>Fair, independent, transparent</t>
   </si>
 </sst>
 </file>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3818,16 +3818,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3887,13 +3887,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>673</v>
@@ -3910,7 +3910,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>673</v>
@@ -3921,30 +3921,30 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>673</v>
@@ -3955,13 +3955,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>673</v>
@@ -3973,13 +3973,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>673</v>
@@ -3990,13 +3990,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>673</v>
@@ -4008,37 +4008,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4050,7 +4050,7 @@
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>673</v>
@@ -4068,7 +4068,7 @@
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>673</v>
@@ -4080,13 +4080,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>673</v>
@@ -4098,70 +4098,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4172,7 +4172,7 @@
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>673</v>
@@ -4183,13 +4183,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>673</v>
@@ -4200,30 +4200,30 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>673</v>
@@ -4234,13 +4234,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>673</v>
@@ -4251,30 +4251,30 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>673</v>
@@ -4285,13 +4285,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>673</v>
@@ -4302,13 +4302,13 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>673</v>
@@ -4319,53 +4319,53 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>673</v>
@@ -4601,10 +4601,10 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4815,10 +4815,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="K34" t="s">
         <v>276</v>
@@ -4829,18 +4829,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +6067,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>673</v>
@@ -6085,7 +6085,7 @@
         <v>673</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>673</v>
@@ -6096,234 +6096,234 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>673</v>
       </c>
       <c r="E3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>673</v>
       </c>
       <c r="G3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>673</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>673</v>
       </c>
       <c r="E5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>673</v>
       </c>
       <c r="G5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>673</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>673</v>
       </c>
       <c r="E6" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>673</v>
       </c>
       <c r="G6" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>673</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" t="s">
         <v>1027</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G10" t="s">
         <v>1031</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -6347,7 +6347,7 @@
   <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6390,7 +6390,7 @@
         <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>673</v>
@@ -6399,21 +6399,21 @@
         <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>673</v>
@@ -6422,10 +6422,10 @@
         <v>635</v>
       </c>
       <c r="M4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
         <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>673</v>
@@ -6445,21 +6445,21 @@
         <v>643</v>
       </c>
       <c r="M5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>673</v>
@@ -6468,10 +6468,10 @@
         <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -6482,7 +6482,7 @@
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>673</v>
@@ -6499,13 +6499,13 @@
         <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="17" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>673</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>673</v>
@@ -6534,13 +6534,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>673</v>
@@ -6561,24 +6561,24 @@
         <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>673</v>
@@ -6595,7 +6595,7 @@
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>673</v>
@@ -6606,13 +6606,13 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>673</v>
@@ -6623,13 +6623,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>673</v>
@@ -6646,7 +6646,7 @@
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>673</v>
@@ -6657,19 +6657,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -6680,7 +6680,7 @@
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>673</v>
@@ -6697,7 +6697,7 @@
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>673</v>
@@ -6714,7 +6714,7 @@
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>673</v>
@@ -6731,24 +6731,24 @@
         <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>673</v>
@@ -6765,7 +6765,7 @@
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>673</v>
@@ -6782,7 +6782,7 @@
         <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>673</v>
@@ -6793,13 +6793,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>673</v>
@@ -6816,7 +6816,7 @@
         <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>673</v>
@@ -6833,7 +6833,7 @@
         <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>673</v>
@@ -6850,7 +6850,7 @@
         <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>673</v>
@@ -6861,19 +6861,19 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>673</v>
@@ -6918,7 +6918,7 @@
         <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>673</v>
@@ -6929,13 +6929,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>673</v>
@@ -6952,7 +6952,7 @@
         <v>673</v>
       </c>
       <c r="D34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>673</v>
@@ -6969,7 +6969,7 @@
         <v>673</v>
       </c>
       <c r="D35" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>673</v>
@@ -6980,121 +6980,121 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D36" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D37" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D38" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D39" t="s">
         <v>1083</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1085</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D40" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D41" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D42" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -7156,7 +7156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
   <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -7206,7 +7206,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>673</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>673</v>
@@ -7405,19 +7405,19 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7541,7 +7541,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>673</v>
@@ -7564,7 +7564,7 @@
         <v>673</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>673</v>
@@ -7649,7 +7649,7 @@
         <v>673</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>673</v>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>673</v>
@@ -7694,13 +7694,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>673</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>673</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>673</v>
@@ -7796,19 +7796,19 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -7854,7 +7854,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7909,13 +7909,13 @@
         <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>673</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -7926,7 +7926,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>673</v>
@@ -7935,45 +7935,45 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="J4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C5" t="s">
         <v>673</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>701</v>
+        <v>1094</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C6" t="s">
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7984,7 +7984,7 @@
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>673</v>
@@ -8001,7 +8001,7 @@
         <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>673</v>
@@ -8018,7 +8018,7 @@
         <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>673</v>
@@ -8035,7 +8035,7 @@
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>673</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C11" t="s">
         <v>673</v>
@@ -8063,13 +8063,13 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C12" t="s">
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>673</v>
@@ -8080,30 +8080,30 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C13" t="s">
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>673</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C14" t="s">
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>673</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>673</v>
@@ -8137,13 +8137,13 @@
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>673</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -8154,7 +8154,7 @@
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>673</v>
@@ -8171,7 +8171,7 @@
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>673</v>
@@ -8188,7 +8188,7 @@
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>673</v>
@@ -8205,7 +8205,7 @@
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>700</v>
+        <v>1095</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>673</v>
@@ -8222,7 +8222,7 @@
         <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>673</v>
@@ -8239,7 +8239,7 @@
         <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>673</v>
@@ -8256,7 +8256,7 @@
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>673</v>
@@ -8267,13 +8267,13 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C24" t="s">
         <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>673</v>
@@ -8290,7 +8290,7 @@
         <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>673</v>
@@ -8318,13 +8318,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C27" t="s">
         <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>673</v>
@@ -8335,19 +8335,19 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C28" t="s">
+        <v>673</v>
+      </c>
+      <c r="D28" t="s">
         <v>1080</v>
       </c>
-      <c r="C28" t="s">
-        <v>673</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1082</v>
-      </c>
       <c r="E28" s="1" t="s">
         <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -8401,7 +8401,7 @@
   <dimension ref="B3:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8432,13 +8432,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C4" t="s">
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E4" t="s">
         <v>673</v>
@@ -8449,13 +8449,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C5" t="s">
         <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E5" t="s">
         <v>673</v>
@@ -8472,7 +8472,7 @@
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E6" t="s">
         <v>673</v>
@@ -8489,7 +8489,7 @@
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E7" t="s">
         <v>673</v>
@@ -8506,7 +8506,7 @@
         <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E8" t="s">
         <v>673</v>
@@ -8523,7 +8523,7 @@
         <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E9" t="s">
         <v>673</v>
@@ -8534,13 +8534,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C10" t="s">
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E10" t="s">
         <v>673</v>
@@ -8551,13 +8551,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C11" t="s">
         <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E11" t="s">
         <v>673</v>
@@ -8568,13 +8568,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C12" t="s">
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E12" t="s">
         <v>673</v>
@@ -8585,13 +8585,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C13" t="s">
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E13" t="s">
         <v>673</v>
@@ -8602,13 +8602,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C14" t="s">
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E14" t="s">
         <v>673</v>
@@ -8619,13 +8619,13 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C15" t="s">
         <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E15" t="s">
         <v>673</v>
@@ -8642,7 +8642,7 @@
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E16" t="s">
         <v>673</v>
@@ -8659,7 +8659,7 @@
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E17" t="s">
         <v>673</v>
@@ -8676,7 +8676,7 @@
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E18" t="s">
         <v>673</v>
@@ -8693,7 +8693,7 @@
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>673</v>
@@ -8733,13 +8733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A60BEE-556A-8141-853B-FECA0E5B23E1}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
@@ -8772,7 +8772,7 @@
         <v>673</v>
       </c>
       <c r="D3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>673</v>
@@ -8789,7 +8789,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>673</v>
@@ -8806,7 +8806,7 @@
         <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>673</v>
@@ -8823,7 +8823,7 @@
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>673</v>
@@ -8840,7 +8840,7 @@
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>673</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>673</v>
@@ -8874,7 +8874,7 @@
         <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>673</v>
@@ -8891,7 +8891,7 @@
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>673</v>
@@ -8908,7 +8908,7 @@
         <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>673</v>
@@ -8925,7 +8925,7 @@
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>673</v>
@@ -8942,7 +8942,7 @@
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>673</v>
@@ -8959,7 +8959,7 @@
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>673</v>
@@ -8976,7 +8976,7 @@
         <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>673</v>
@@ -8987,13 +8987,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>673</v>
@@ -9010,7 +9010,7 @@
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>673</v>
@@ -9027,7 +9027,7 @@
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>673</v>
@@ -9044,7 +9044,7 @@
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>673</v>
@@ -9061,7 +9061,7 @@
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>673</v>
@@ -9072,19 +9072,19 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D21" t="s">
         <v>746</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D21" t="s">
-        <v>748</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -9095,7 +9095,7 @@
         <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>673</v>
@@ -9106,13 +9106,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>673</v>
@@ -9129,7 +9129,7 @@
         <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>673</v>
@@ -9140,13 +9140,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>673</v>
@@ -9229,7 +9229,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>673</v>
@@ -9246,24 +9246,24 @@
         <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>673</v>
@@ -9274,13 +9274,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>673</v>
@@ -9291,81 +9291,81 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>673</v>
@@ -9376,13 +9376,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>673</v>
@@ -9393,47 +9393,47 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>673</v>
@@ -9450,7 +9450,7 @@
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>673</v>
@@ -9461,30 +9461,30 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>673</v>
@@ -9495,47 +9495,47 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>673</v>
@@ -9546,166 +9546,166 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D32" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>673</v>
@@ -9716,19 +9716,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D33" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>673</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -9811,7 +9811,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>673</v>
@@ -9822,13 +9822,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>673</v>
@@ -9845,7 +9845,7 @@
         <v>673</v>
       </c>
       <c r="D6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>673</v>
@@ -9856,13 +9856,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>673</v>
@@ -9873,13 +9873,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>673</v>
@@ -9890,13 +9890,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>673</v>
@@ -9913,7 +9913,7 @@
         <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>673</v>
@@ -9924,13 +9924,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>673</v>
@@ -9941,13 +9941,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>673</v>
@@ -9958,13 +9958,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>673</v>
@@ -9975,13 +9975,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D14" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>673</v>
@@ -9998,7 +9998,7 @@
         <v>673</v>
       </c>
       <c r="D15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>673</v>
@@ -10009,13 +10009,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>673</v>
@@ -10032,7 +10032,7 @@
         <v>673</v>
       </c>
       <c r="D17" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>673</v>
@@ -10043,13 +10043,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>673</v>
@@ -10060,13 +10060,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D19" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>673</v>
@@ -10077,13 +10077,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>673</v>
@@ -10094,13 +10094,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D21" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>673</v>
@@ -10111,13 +10111,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D22" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>673</v>
@@ -10134,7 +10134,7 @@
         <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>673</v>
@@ -10151,7 +10151,7 @@
         <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>673</v>
@@ -10162,13 +10162,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D25" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>673</v>
@@ -10179,13 +10179,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>673</v>
@@ -10202,7 +10202,7 @@
         <v>673</v>
       </c>
       <c r="D27" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>673</v>
@@ -10219,7 +10219,7 @@
         <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>673</v>
@@ -10236,7 +10236,7 @@
         <v>673</v>
       </c>
       <c r="D29" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>673</v>
@@ -10253,7 +10253,7 @@
         <v>673</v>
       </c>
       <c r="D30" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>673</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4A800-5E6A-AE4D-9031-A4D97606E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698B43C-448E-384F-831F-10FB281151C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="6" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="3" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1093">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -3312,15 +3312,6 @@
   </si>
   <si>
     <t>https://www.newyorker.com/</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>Politics latest headlines</t>
-  </si>
-  <si>
-    <t>https://www.cnn.com/politics</t>
   </si>
   <si>
     <t>Inspire action, advocacy</t>
@@ -3741,7 +3732,7 @@
   <dimension ref="C3:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4430,7 +4421,7 @@
   <dimension ref="C3:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6050,7 +6041,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7156,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
   <dimension ref="B3:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7206,7 +7197,7 @@
         <v>673</v>
       </c>
       <c r="D4" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>673</v>
@@ -7411,7 +7402,7 @@
         <v>673</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>673</v>
@@ -7795,21 +7786,10 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1091</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7842,7 +7822,6 @@
     <hyperlink ref="F15" r:id="rId27" xr:uid="{90A337E4-19D2-B04C-B269-2BBB386C9D5D}"/>
     <hyperlink ref="F16" r:id="rId28" xr:uid="{7F1731E8-6995-7D47-97C7-A595FF9F5B94}"/>
     <hyperlink ref="F17" r:id="rId29" xr:uid="{669CC7E9-2526-A54D-974D-57644945DB51}"/>
-    <hyperlink ref="F39" r:id="rId30" xr:uid="{97487D2F-3D58-1E43-8B75-706DA9B31CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7854,7 +7833,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7949,7 +7928,7 @@
         <v>673</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>673</v>
@@ -8205,7 +8184,7 @@
         <v>673</v>
       </c>
       <c r="D20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>673</v>
@@ -8733,7 +8712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A60BEE-556A-8141-853B-FECA0E5B23E1}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F698B43C-448E-384F-831F-10FB281151C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8B518-BA37-7645-9D5B-D54F2957ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="3" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1093">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -641,9 +641,6 @@
     <t>https://phys.org/science-news/political-science/</t>
   </si>
   <si>
-    <t>https://humanevents.com/opinion</t>
-  </si>
-  <si>
     <t>IL Chicago</t>
   </si>
   <si>
@@ -1964,9 +1961,6 @@
     <t>https://www.dailywire.com/</t>
   </si>
   <si>
-    <t>https://thefederalist.com/</t>
-  </si>
-  <si>
     <t>Independent Journal Review</t>
   </si>
   <si>
@@ -2219,9 +2213,6 @@
     <t>Grounded in facts and biblical truth</t>
   </si>
   <si>
-    <t>Promoting civil and religious liberty</t>
-  </si>
-  <si>
     <t>Respect your time and intelligence</t>
   </si>
   <si>
@@ -2543,9 +2534,6 @@
     <t>We’re noisy, we’re having a good time</t>
   </si>
   <si>
-    <t>Family, community, industry</t>
-  </si>
-  <si>
     <t>Main Street conservative</t>
   </si>
   <si>
@@ -3245,15 +3233,6 @@
     <t>NewsBusters</t>
   </si>
   <si>
-    <t>https://www.dailyfetched.com/</t>
-  </si>
-  <si>
-    <t>DailyFetched</t>
-  </si>
-  <si>
-    <t>The National Pulse</t>
-  </si>
-  <si>
     <t>https://thenationalpulse.com/analysis/</t>
   </si>
   <si>
@@ -3324,6 +3303,27 @@
   </si>
   <si>
     <t>Fair, independent, transparent</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>https://humanevents.com/</t>
+  </si>
+  <si>
+    <t>https://thefederalist.com/popular/</t>
+  </si>
+  <si>
+    <t>https://thedailyeconomy.org/</t>
+  </si>
+  <si>
+    <t>The Daily Economy</t>
+  </si>
+  <si>
+    <t>The Onion</t>
+  </si>
+  <si>
+    <t>https://theonion.com/</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3749,7 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K3" t="s">
         <v>191</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>192</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K5" t="s">
         <v>193</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K6" t="s">
         <v>194</v>
@@ -3781,27 +3781,27 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3809,24 +3809,24 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -3861,33 +3861,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>95</v>
@@ -3898,13 +3898,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>78</v>
@@ -3912,33 +3912,33 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>88</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -3964,16 +3964,16 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -3981,16 +3981,16 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
@@ -3999,37 +3999,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4038,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>162</v>
@@ -4056,13 +4056,13 @@
         <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -4071,16 +4071,16 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>84</v>
@@ -4089,70 +4089,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4160,13 +4160,13 @@
         <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>101</v>
@@ -4174,16 +4174,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>62</v>
@@ -4191,33 +4191,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>59</v>
@@ -4225,16 +4225,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>64</v>
@@ -4242,33 +4242,33 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -4276,16 +4276,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
@@ -4293,16 +4293,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>60</v>
@@ -4310,67 +4310,67 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D29" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D31" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
@@ -4432,16 +4432,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -4460,16 +4460,16 @@
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
@@ -4480,10 +4480,10 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
@@ -4494,10 +4494,10 @@
         <v>105</v>
       </c>
       <c r="K7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
@@ -4508,10 +4508,10 @@
         <v>93</v>
       </c>
       <c r="K8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
@@ -4522,18 +4522,18 @@
         <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="K10" t="s">
         <v>156</v>
@@ -4544,41 +4544,41 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>188</v>
@@ -4586,21 +4586,21 @@
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>154</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>172</v>
@@ -4622,16 +4622,16 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="K18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -4642,10 +4642,10 @@
         <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
@@ -4656,10 +4656,10 @@
         <v>182</v>
       </c>
       <c r="K20" t="s">
+        <v>590</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -4670,10 +4670,10 @@
         <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
@@ -4687,85 +4687,85 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="K24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="K25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
@@ -4784,54 +4784,54 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="K32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -4913,10 +4913,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -4925,1014 +4925,1014 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" t="s">
         <v>430</v>
-      </c>
-      <c r="D11" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" t="s">
         <v>432</v>
-      </c>
-      <c r="D12" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" t="s">
         <v>434</v>
-      </c>
-      <c r="D13" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" t="s">
         <v>436</v>
-      </c>
-      <c r="D14" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" t="s">
         <v>438</v>
-      </c>
-      <c r="D15" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" t="s">
         <v>440</v>
-      </c>
-      <c r="D16" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D17" t="s">
         <v>442</v>
-      </c>
-      <c r="D17" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" t="s">
         <v>444</v>
-      </c>
-      <c r="D18" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19" t="s">
         <v>446</v>
-      </c>
-      <c r="D19" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21" t="s">
         <v>450</v>
-      </c>
-      <c r="D21" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" t="s">
         <v>452</v>
-      </c>
-      <c r="D22" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D23" t="s">
         <v>454</v>
-      </c>
-      <c r="D23" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" t="s">
         <v>456</v>
-      </c>
-      <c r="D24" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D25" t="s">
         <v>458</v>
-      </c>
-      <c r="D25" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" t="s">
         <v>461</v>
-      </c>
-      <c r="D27" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D28" t="s">
         <v>463</v>
-      </c>
-      <c r="D28" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D29" t="s">
         <v>465</v>
-      </c>
-      <c r="D29" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" t="s">
         <v>467</v>
-      </c>
-      <c r="D30" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D31" t="s">
         <v>469</v>
-      </c>
-      <c r="D31" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" t="s">
         <v>471</v>
-      </c>
-      <c r="D32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33" t="s">
         <v>473</v>
-      </c>
-      <c r="D33" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D34" t="s">
         <v>475</v>
-      </c>
-      <c r="D34" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D35" t="s">
         <v>477</v>
-      </c>
-      <c r="D35" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D36" t="s">
         <v>479</v>
-      </c>
-      <c r="D36" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D37" t="s">
         <v>481</v>
-      </c>
-      <c r="D37" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D38" t="s">
         <v>483</v>
-      </c>
-      <c r="D38" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D39" t="s">
         <v>485</v>
-      </c>
-      <c r="D39" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D40" t="s">
         <v>487</v>
-      </c>
-      <c r="D40" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D42" t="s">
         <v>490</v>
-      </c>
-      <c r="D42" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D43" t="s">
         <v>492</v>
-      </c>
-      <c r="D43" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D44" t="s">
         <v>494</v>
-      </c>
-      <c r="D44" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D46" t="s">
         <v>497</v>
-      </c>
-      <c r="D46" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D49" t="s">
         <v>501</v>
-      </c>
-      <c r="D49" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D51" t="s">
         <v>504</v>
-      </c>
-      <c r="D51" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D52" t="s">
         <v>506</v>
-      </c>
-      <c r="D52" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D53" t="s">
         <v>508</v>
-      </c>
-      <c r="D53" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D54" t="s">
         <v>510</v>
-      </c>
-      <c r="D54" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D55" t="s">
         <v>512</v>
-      </c>
-      <c r="D55" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D56" t="s">
         <v>514</v>
-      </c>
-      <c r="D56" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D57" t="s">
         <v>516</v>
-      </c>
-      <c r="D57" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D58" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D59" t="s">
         <v>519</v>
-      </c>
-      <c r="D59" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D61" t="s">
         <v>522</v>
-      </c>
-      <c r="D61" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D62" t="s">
         <v>524</v>
-      </c>
-      <c r="D62" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D63" t="s">
         <v>526</v>
-      </c>
-      <c r="D63" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D64" t="s">
         <v>528</v>
-      </c>
-      <c r="D64" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D65" t="s">
         <v>530</v>
-      </c>
-      <c r="D65" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D66" t="s">
         <v>532</v>
-      </c>
-      <c r="D66" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" t="s">
         <v>534</v>
-      </c>
-      <c r="D67" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D68" t="s">
         <v>536</v>
-      </c>
-      <c r="D68" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D69" t="s">
         <v>538</v>
-      </c>
-      <c r="D69" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D70" t="s">
         <v>540</v>
-      </c>
-      <c r="D70" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" t="s">
         <v>542</v>
-      </c>
-      <c r="D71" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D72" t="s">
         <v>544</v>
-      </c>
-      <c r="D72" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D74" t="s">
         <v>549</v>
-      </c>
-      <c r="D74" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D75" t="s">
         <v>547</v>
-      </c>
-      <c r="D75" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D76" t="s">
         <v>551</v>
-      </c>
-      <c r="D76" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D77" t="s">
         <v>553</v>
-      </c>
-      <c r="D77" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D78" t="s">
         <v>555</v>
-      </c>
-      <c r="D78" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D79" t="s">
         <v>557</v>
-      </c>
-      <c r="D79" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D81" t="s">
         <v>560</v>
-      </c>
-      <c r="D81" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D82" t="s">
         <v>562</v>
-      </c>
-      <c r="D82" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D83" t="s">
         <v>564</v>
-      </c>
-      <c r="D83" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D84" t="s">
         <v>566</v>
-      </c>
-      <c r="D84" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D85" t="s">
         <v>568</v>
-      </c>
-      <c r="D85" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D86" t="s">
         <v>570</v>
-      </c>
-      <c r="D86" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D87" t="s">
         <v>572</v>
-      </c>
-      <c r="D87" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D88" t="s">
         <v>574</v>
-      </c>
-      <c r="D88" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D89" t="s">
         <v>576</v>
-      </c>
-      <c r="D89" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D90" t="s">
         <v>578</v>
-      </c>
-      <c r="D90" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D91" t="s">
         <v>580</v>
-      </c>
-      <c r="D91" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D92" t="s">
         <v>582</v>
-      </c>
-      <c r="D92" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D93" t="s">
         <v>584</v>
-      </c>
-      <c r="D93" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D94" t="s">
         <v>586</v>
-      </c>
-      <c r="D94" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D95" t="s">
         <v>588</v>
-      </c>
-      <c r="D95" t="s">
-        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6058,263 +6058,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G5" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" t="s">
         <v>1012</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1016</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C7" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E7" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G7" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C8" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E8" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G8" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C9" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E9" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G9" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C10" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E10" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G10" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -6335,10 +6335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
-  <dimension ref="B2:N42"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6356,164 +6356,149 @@
     <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>263</v>
+        <v>747</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>264</v>
+        <v>634</v>
       </c>
       <c r="M3" t="s">
-        <v>1060</v>
+        <v>1090</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>750</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D6" t="s">
+        <v>857</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>635</v>
       </c>
-      <c r="M4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>751</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D7" t="s">
-        <v>861</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D8" t="s">
-        <v>711</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="17" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>323</v>
+        <v>830</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>712</v>
+        <v>671</v>
+      </c>
+      <c r="D9" t="s">
+        <v>720</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6523,195 +6508,213 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>722</v>
+        <v>831</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>311</v>
+        <v>1053</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>0</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>753</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>835</v>
+        <v>722</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>756</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>636</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>725</v>
+        <v>828</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>637</v>
+        <v>750</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>831</v>
+        <v>705</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>754</v>
+        <v>1088</v>
+      </c>
+      <c r="M14" t="s">
+        <v>262</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>713</v>
+        <v>827</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
         <v>300</v>
       </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>824</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>301</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>827</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>860</v>
+        <v>717</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1055</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>9</v>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>719</v>
+        <v>826</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>53</v>
+      <c r="B19" t="s">
+        <v>629</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>829</v>
+        <v>707</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>198</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>250</v>
+        <v>752</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>724</v>
+        <v>825</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -6719,424 +6722,387 @@
         <v>630</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>709</v>
+        <v>787</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>708</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>755</v>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>828</v>
+        <v>712</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>631</v>
+        <v>823</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>790</v>
+        <v>713</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>310</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>19</v>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>826</v>
+        <v>302</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>715</v>
+        <v>832</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>642</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
+        <v>723</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D27" t="s">
+        <v>786</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D28" t="s">
         <v>718</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D27" t="s">
-        <v>836</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D28" t="s">
-        <v>726</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
-        <v>788</v>
+      <c r="B29" t="s">
+        <v>595</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D29" t="s">
-        <v>789</v>
+        <v>670</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1056</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>720</v>
+        <v>833</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>596</v>
+        <v>749</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D31" t="s">
-        <v>672</v>
+        <v>834</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>2</v>
+      <c r="B32" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D32" t="s">
-        <v>837</v>
+        <v>721</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>633</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>752</v>
+        <v>642</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D33" t="s">
-        <v>838</v>
+        <v>719</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>634</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>600</v>
+      <c r="B34" t="s">
+        <v>994</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D34" t="s">
-        <v>723</v>
+        <v>1034</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>312</v>
+        <v>993</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>644</v>
+        <v>1030</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D35" t="s">
-        <v>721</v>
+        <v>1033</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>998</v>
+        <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D36" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>997</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1034</v>
+        <v>1074</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D37" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1033</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D38" t="s">
-        <v>1039</v>
+        <v>1077</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1081</v>
+        <v>1058</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D39" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D40" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
         <v>1062</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>1069</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F35">
-    <sortCondition ref="B3:B35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F33">
+    <sortCondition ref="B3:B33"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
-    <hyperlink ref="F32" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
-    <hyperlink ref="F19" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
-    <hyperlink ref="F28" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
-    <hyperlink ref="F34" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
-    <hyperlink ref="F20" r:id="rId8" xr:uid="{966F256B-8863-514A-8F24-A2CCCCAA8169}"/>
-    <hyperlink ref="F3" r:id="rId9" xr:uid="{5C71A646-0C34-7446-BD83-87F7E8001227}"/>
-    <hyperlink ref="F27" r:id="rId10" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{8BA99F8F-8BCD-B846-866B-66C064CD1CB4}"/>
-    <hyperlink ref="F30" r:id="rId14" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
-    <hyperlink ref="F22" r:id="rId15" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
-    <hyperlink ref="F15" r:id="rId17" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
-    <hyperlink ref="F24" r:id="rId18" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
-    <hyperlink ref="F11" r:id="rId19" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
-    <hyperlink ref="F9" r:id="rId20" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
-    <hyperlink ref="F29" r:id="rId21" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
-    <hyperlink ref="F14" r:id="rId22" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
-    <hyperlink ref="F31" r:id="rId23" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
-    <hyperlink ref="F33" r:id="rId24" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
-    <hyperlink ref="F4" r:id="rId25" xr:uid="{C0AF8236-E274-D24E-B8EE-D74B81281D4F}"/>
-    <hyperlink ref="F8" r:id="rId26" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
-    <hyperlink ref="F13" r:id="rId27" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
-    <hyperlink ref="F25" r:id="rId28" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
-    <hyperlink ref="F17" r:id="rId29" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
-    <hyperlink ref="F5" r:id="rId30" xr:uid="{19B0417A-8CE3-744D-A35A-06E087CBA02C}"/>
-    <hyperlink ref="F35" r:id="rId31" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
-    <hyperlink ref="F10" r:id="rId32" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
-    <hyperlink ref="F21" r:id="rId33" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
-    <hyperlink ref="F36" r:id="rId34" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
-    <hyperlink ref="F37" r:id="rId35" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
-    <hyperlink ref="F38" r:id="rId36" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
-    <hyperlink ref="N6" r:id="rId37" xr:uid="{7B4B98CD-BF01-0C45-97B7-4C4D84BD14F8}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
-    <hyperlink ref="N3" r:id="rId39" xr:uid="{0E295B17-6DEB-6D49-94C6-95FB012EB7E2}"/>
-    <hyperlink ref="F40" r:id="rId40" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
-    <hyperlink ref="N4" r:id="rId41" xr:uid="{70418398-A89D-FC42-A6FF-EBBB808E3F8C}"/>
-    <hyperlink ref="F41" r:id="rId42" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
-    <hyperlink ref="N5" r:id="rId43" xr:uid="{328A36ED-66DB-F042-A7D1-F751F52C04C1}"/>
-    <hyperlink ref="F42" r:id="rId44" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
+    <hyperlink ref="F24" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
+    <hyperlink ref="F32" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
+    <hyperlink ref="N14" r:id="rId8" xr:uid="{5C71A646-0C34-7446-BD83-87F7E8001227}"/>
+    <hyperlink ref="F25" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{8BA99F8F-8BCD-B846-866B-66C064CD1CB4}"/>
+    <hyperlink ref="F28" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
+    <hyperlink ref="F22" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
+    <hyperlink ref="F8" r:id="rId19" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
+    <hyperlink ref="F27" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
+    <hyperlink ref="F13" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
+    <hyperlink ref="F29" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
+    <hyperlink ref="F31" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
+    <hyperlink ref="F3" r:id="rId24" xr:uid="{C0AF8236-E274-D24E-B8EE-D74B81281D4F}"/>
+    <hyperlink ref="F7" r:id="rId25" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
+    <hyperlink ref="F12" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
+    <hyperlink ref="F23" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
+    <hyperlink ref="F16" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
+    <hyperlink ref="F4" r:id="rId29" xr:uid="{19B0417A-8CE3-744D-A35A-06E087CBA02C}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
+    <hyperlink ref="F9" r:id="rId31" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
+    <hyperlink ref="F19" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
+    <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
+    <hyperlink ref="N3" r:id="rId41" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7145,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
-  <dimension ref="B3:M39"/>
+  <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7165,21 +7131,21 @@
     <col min="12" max="12" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7189,226 +7155,232 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7416,30 +7388,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7447,53 +7419,53 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -7501,13 +7473,13 @@
         <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>190</v>
@@ -7515,36 +7487,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7552,13 +7524,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -7569,30 +7541,30 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>82</v>
@@ -7603,13 +7575,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7620,13 +7592,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7637,13 +7609,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7654,13 +7626,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -7668,16 +7640,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>106</v>
@@ -7685,19 +7657,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -7705,13 +7677,13 @@
         <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D34" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -7719,16 +7691,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -7739,50 +7711,50 @@
         <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D37" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -7858,19 +7830,19 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7885,74 +7857,74 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="J4" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -7960,13 +7932,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -7977,13 +7949,13 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>107</v>
@@ -7994,13 +7966,13 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
@@ -8011,13 +7983,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -8025,33 +7997,33 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
         <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>169</v>
@@ -8059,33 +8031,33 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>29</v>
@@ -8093,19 +8065,19 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -8113,67 +8085,67 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -8181,13 +8153,13 @@
         <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>165</v>
@@ -8195,19 +8167,19 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -8215,13 +8187,13 @@
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>111</v>
@@ -8232,13 +8204,13 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>48</v>
@@ -8246,19 +8218,19 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C24" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -8266,16 +8238,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -8283,13 +8255,13 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
@@ -8297,36 +8269,36 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C28" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -8394,67 +8366,67 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>166</v>
@@ -8462,33 +8434,33 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" t="s">
+        <v>849</v>
+      </c>
+      <c r="E7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C7" t="s">
-        <v>673</v>
-      </c>
-      <c r="D7" t="s">
-        <v>853</v>
-      </c>
-      <c r="E7" t="s">
-        <v>673</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>167</v>
@@ -8496,169 +8468,169 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D9" t="s">
+        <v>771</v>
+      </c>
+      <c r="E9" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C9" t="s">
-        <v>673</v>
-      </c>
-      <c r="D9" t="s">
-        <v>774</v>
-      </c>
-      <c r="E9" t="s">
-        <v>673</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="E14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D17" t="s">
+        <v>776</v>
+      </c>
+      <c r="E17" t="s">
+        <v>671</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C17" t="s">
-        <v>673</v>
-      </c>
-      <c r="D17" t="s">
-        <v>779</v>
-      </c>
-      <c r="E17" t="s">
-        <v>673</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>168</v>
@@ -8666,19 +8638,19 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D19" t="s">
+        <v>778</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D19" t="s">
-        <v>781</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -8728,19 +8700,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -8748,13 +8720,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>197</v>
@@ -8762,19 +8734,19 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D4" t="s">
-        <v>727</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -8782,13 +8754,13 @@
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
@@ -8796,16 +8768,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
@@ -8813,70 +8785,70 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D7" t="s">
-        <v>851</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D10" t="s">
+        <v>729</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D10" t="s">
-        <v>732</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -8884,115 +8856,115 @@
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D13" t="s">
+        <v>732</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D14" t="s">
-        <v>736</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="D15" t="s">
-        <v>737</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>66</v>
@@ -9000,84 +8972,84 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>109</v>
@@ -9085,16 +9057,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>89</v>
@@ -9102,36 +9074,36 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -9185,19 +9157,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9205,13 +9177,13 @@
         <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>180</v>
@@ -9219,33 +9191,33 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>173</v>
@@ -9253,16 +9225,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>176</v>
@@ -9270,84 +9242,84 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>153</v>
@@ -9355,16 +9327,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>183</v>
@@ -9372,50 +9344,50 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>97</v>
@@ -9426,13 +9398,13 @@
         <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
@@ -9440,33 +9412,33 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>152</v>
@@ -9474,50 +9446,50 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>154</v>
@@ -9525,169 +9497,169 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D31" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D32" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -9695,19 +9667,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D33" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -9767,19 +9739,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9787,13 +9759,13 @@
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
@@ -9801,16 +9773,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
@@ -9821,13 +9793,13 @@
         <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>118</v>
@@ -9835,16 +9807,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>170</v>
@@ -9852,16 +9824,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -9869,16 +9841,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>144</v>
@@ -9889,13 +9861,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>125</v>
@@ -9903,16 +9875,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>145</v>
@@ -9920,16 +9892,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>146</v>
@@ -9937,16 +9909,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>127</v>
@@ -9954,16 +9926,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>147</v>
@@ -9974,13 +9946,13 @@
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>133</v>
@@ -9988,16 +9960,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>135</v>
@@ -10008,13 +9980,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -10022,16 +9994,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -10039,16 +10011,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>136</v>
@@ -10056,16 +10028,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>137</v>
@@ -10073,16 +10045,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>141</v>
@@ -10090,16 +10062,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -10110,13 +10082,13 @@
         <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>148</v>
@@ -10127,13 +10099,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
@@ -10141,16 +10113,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
@@ -10158,16 +10130,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>142</v>
@@ -10178,13 +10150,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>123</v>
@@ -10195,13 +10167,13 @@
         <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>150</v>
@@ -10212,13 +10184,13 @@
         <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D29" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -10229,13 +10201,13 @@
         <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8B518-BA37-7645-9D5B-D54F2957ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4842312-D4B1-BB42-B361-8A7CE9C94CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="3" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="1093">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -2150,9 +2150,6 @@
     <t>Experts for the public good</t>
   </si>
   <si>
-    <t>Prosperity and meaning in peace</t>
-  </si>
-  <si>
     <t>Congress, inside and out</t>
   </si>
   <si>
@@ -2570,9 +2567,6 @@
     <t>Honesty, doggedness, independence</t>
   </si>
   <si>
-    <t>The American experiment</t>
-  </si>
-  <si>
     <t>independent-minded</t>
   </si>
   <si>
@@ -3176,24 +3170,15 @@
     <t>Nation's leading libertarian magazine</t>
   </si>
   <si>
-    <t>https://www.allsides.com/</t>
-  </si>
-  <si>
     <t>https://www.thecentersquare.com/</t>
   </si>
   <si>
-    <t>https://www.csmonitor.com/</t>
-  </si>
-  <si>
     <t>Bible of the new urbanism</t>
   </si>
   <si>
     <t>https://heartland.org/opinion/</t>
   </si>
   <si>
-    <t>https://www.independent.org/news/commentary.asp</t>
-  </si>
-  <si>
     <t>Alternative media selection</t>
   </si>
   <si>
@@ -3324,6 +3309,21 @@
   </si>
   <si>
     <t>https://theonion.com/</t>
+  </si>
+  <si>
+    <t>America’s Finest News Source</t>
+  </si>
+  <si>
+    <t>https://www.independent.org/</t>
+  </si>
+  <si>
+    <t>https://www.csmonitor.com/USA/Politics</t>
+  </si>
+  <si>
+    <t>https://www.allsides.com/blog</t>
+  </si>
+  <si>
+    <t>American Institute for Economic Research</t>
   </si>
 </sst>
 </file>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3809,16 +3809,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3878,13 +3878,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>671</v>
@@ -3901,7 +3901,7 @@
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>671</v>
@@ -3912,30 +3912,30 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>671</v>
@@ -3946,13 +3946,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>671</v>
@@ -3964,13 +3964,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>671</v>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>671</v>
@@ -3999,37 +3999,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4041,7 +4041,7 @@
         <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>671</v>
@@ -4059,7 +4059,7 @@
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>671</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>671</v>
@@ -4089,70 +4089,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4163,7 +4163,7 @@
         <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>671</v>
@@ -4174,13 +4174,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>671</v>
@@ -4191,30 +4191,30 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>671</v>
@@ -4225,13 +4225,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>671</v>
@@ -4242,30 +4242,30 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>671</v>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>671</v>
@@ -4293,13 +4293,13 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>671</v>
@@ -4310,53 +4310,53 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D29" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>671</v>
       </c>
       <c r="D31" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>671</v>
@@ -4592,10 +4592,10 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
+        <v>787</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4806,10 +4806,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="K34" t="s">
         <v>275</v>
@@ -4820,18 +4820,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -6058,7 +6058,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>671</v>
@@ -6076,7 +6076,7 @@
         <v>671</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>671</v>
@@ -6087,234 +6087,234 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="E3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="G3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" t="s">
+        <v>997</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E4" t="s">
-        <v>999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="E5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="G5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>671</v>
       </c>
       <c r="E6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>671</v>
       </c>
       <c r="G6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>671</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" t="s">
-        <v>998</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>996</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C8" t="s">
-        <v>998</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" t="s">
+        <v>996</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G9" t="s">
         <v>1021</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C9" t="s">
-        <v>998</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>996</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G10" t="s">
         <v>1025</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C10" t="s">
-        <v>998</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -6338,7 +6338,7 @@
   <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6375,25 +6375,19 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -6404,7 +6398,7 @@
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>671</v>
@@ -6416,13 +6410,13 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>671</v>
@@ -6440,7 +6434,7 @@
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>671</v>
@@ -6458,13 +6452,13 @@
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
@@ -6475,7 +6469,7 @@
         <v>671</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>671</v>
@@ -6486,13 +6480,13 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>671</v>
@@ -6516,13 +6510,13 @@
         <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6531,13 +6525,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>671</v>
@@ -6554,7 +6548,7 @@
         <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>671</v>
@@ -6563,18 +6557,18 @@
         <v>637</v>
       </c>
       <c r="M12" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>671</v>
@@ -6593,19 +6587,19 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M14" t="s">
         <v>262</v>
@@ -6623,7 +6617,7 @@
         <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>671</v>
@@ -6634,19 +6628,19 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -6657,7 +6651,7 @@
         <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>671</v>
@@ -6674,13 +6668,13 @@
         <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -6691,24 +6685,24 @@
         <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>671</v>
@@ -6725,7 +6719,7 @@
         <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>671</v>
@@ -6742,7 +6736,7 @@
         <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>671</v>
@@ -6753,13 +6747,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>671</v>
@@ -6776,7 +6770,7 @@
         <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>671</v>
@@ -6793,7 +6787,7 @@
         <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>671</v>
@@ -6810,7 +6804,7 @@
         <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>671</v>
@@ -6821,19 +6815,19 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D27" t="s">
         <v>785</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D27" t="s">
-        <v>786</v>
-      </c>
       <c r="E27" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -6844,7 +6838,7 @@
         <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>671</v>
@@ -6878,7 +6872,7 @@
         <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>671</v>
@@ -6889,13 +6883,13 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>671</v>
@@ -6912,7 +6906,7 @@
         <v>671</v>
       </c>
       <c r="D32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>671</v>
@@ -6929,7 +6923,7 @@
         <v>671</v>
       </c>
       <c r="D33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>671</v>
@@ -6940,121 +6934,121 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D35" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D36" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D37" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D38" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D39" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D40" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -7102,7 +7096,6 @@
     <hyperlink ref="F39" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
     <hyperlink ref="F40" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
-    <hyperlink ref="N3" r:id="rId41" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7113,13 +7106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
   <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
@@ -7163,7 +7156,7 @@
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>671</v>
@@ -7171,12 +7164,7 @@
       <c r="F4" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="N4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1092</v>
-      </c>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -7351,7 +7339,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>671</v>
@@ -7368,19 +7356,19 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7504,7 +7492,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>671</v>
@@ -7527,7 +7515,7 @@
         <v>671</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>671</v>
@@ -7612,7 +7600,7 @@
         <v>671</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>671</v>
@@ -7640,7 +7628,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>671</v>
@@ -7657,13 +7645,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>671</v>
@@ -7691,7 +7679,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>671</v>
@@ -7725,7 +7713,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>671</v>
@@ -7758,10 +7746,21 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1087</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7794,6 +7793,7 @@
     <hyperlink ref="F15" r:id="rId27" xr:uid="{90A337E4-19D2-B04C-B269-2BBB386C9D5D}"/>
     <hyperlink ref="F16" r:id="rId28" xr:uid="{7F1731E8-6995-7D47-97C7-A595FF9F5B94}"/>
     <hyperlink ref="F17" r:id="rId29" xr:uid="{669CC7E9-2526-A54D-974D-57644945DB51}"/>
+    <hyperlink ref="F39" r:id="rId30" xr:uid="{9CAB2650-37F5-7344-BB3F-5AB3A8A2B4AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7802,10 +7802,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
-  <dimension ref="B1:M31"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7816,19 +7816,17 @@
     <col min="5" max="5" width="2.1640625" customWidth="1"/>
     <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>623</v>
       </c>
@@ -7849,10 +7847,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
@@ -7866,104 +7862,119 @@
         <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C5" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>754</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>648</v>
       </c>
-      <c r="C4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D4" t="s">
-        <v>701</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C6" t="s">
-        <v>671</v>
-      </c>
-      <c r="D6" t="s">
-        <v>714</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>1046</v>
+        <v>698</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>671</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>698</v>
+        <v>837</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>671</v>
@@ -7975,372 +7986,353 @@
         <v>671</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>789</v>
       </c>
       <c r="C10" t="s">
         <v>671</v>
       </c>
       <c r="D10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>757</v>
+      </c>
+      <c r="C11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D11" t="s">
         <v>839</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C12" t="s">
+        <v>671</v>
+      </c>
+      <c r="D12" t="s">
+        <v>702</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>790</v>
       </c>
-      <c r="C11" t="s">
-        <v>671</v>
-      </c>
-      <c r="D11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>758</v>
-      </c>
-      <c r="C12" t="s">
-        <v>671</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D13" t="s">
+        <v>638</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>671</v>
+      </c>
+      <c r="D14" t="s">
+        <v>856</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" t="s">
         <v>840</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="E15" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>671</v>
+      </c>
+      <c r="D16" t="s">
+        <v>703</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D17" t="s">
+        <v>841</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C19" t="s">
+        <v>671</v>
+      </c>
+      <c r="D19" t="s">
+        <v>842</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>671</v>
+      </c>
+      <c r="D21" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>843</v>
+      </c>
+      <c r="C22" t="s">
+        <v>671</v>
+      </c>
+      <c r="D22" t="s">
+        <v>714</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>671</v>
+      </c>
+      <c r="D23" t="s">
+        <v>700</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>671</v>
+      </c>
+      <c r="D24" t="s">
+        <v>697</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>756</v>
       </c>
-      <c r="C13" t="s">
-        <v>671</v>
-      </c>
-      <c r="D13" t="s">
-        <v>703</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>755</v>
-      </c>
-      <c r="C14" t="s">
-        <v>671</v>
-      </c>
-      <c r="D14" t="s">
-        <v>841</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>791</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" t="s">
-        <v>638</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>671</v>
-      </c>
-      <c r="D16" t="s">
-        <v>858</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" t="s">
-        <v>671</v>
-      </c>
-      <c r="D17" t="s">
-        <v>842</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" t="s">
-        <v>671</v>
-      </c>
-      <c r="D18" t="s">
-        <v>704</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>646</v>
-      </c>
-      <c r="C19" t="s">
-        <v>671</v>
-      </c>
-      <c r="D19" t="s">
-        <v>843</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>671</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C25" t="s">
+        <v>671</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C26" t="s">
+        <v>671</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>1085</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>643</v>
-      </c>
-      <c r="C21" t="s">
-        <v>671</v>
-      </c>
-      <c r="D21" t="s">
-        <v>844</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s">
-        <v>671</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>671</v>
-      </c>
-      <c r="D23" t="s">
-        <v>702</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>845</v>
-      </c>
-      <c r="C24" t="s">
-        <v>671</v>
-      </c>
-      <c r="D24" t="s">
-        <v>715</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>671</v>
-      </c>
-      <c r="D25" t="s">
-        <v>700</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>671</v>
-      </c>
-      <c r="D26" t="s">
-        <v>697</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>757</v>
-      </c>
       <c r="C27" t="s">
         <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E27" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C28" t="s">
-        <v>671</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="1"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F27">
-    <sortCondition ref="B3:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F25">
+    <sortCondition ref="B3:B25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{3DD5642C-C03C-104A-96E7-AE32D3932C14}"/>
-    <hyperlink ref="F22" r:id="rId3" xr:uid="{F3718FA7-6F9A-E54B-ABA3-ADAD5E633EAD}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{B98D6F15-C769-B547-8C74-2493F5F46DD2}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
-    <hyperlink ref="F25" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
-    <hyperlink ref="F26" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{79A29913-7B85-E846-9805-EC638B38D8D4}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{3531E744-B160-7549-B699-BB8BF2A74D65}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{A2A98C27-3AC4-EB44-A124-C372FE09D524}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
-    <hyperlink ref="F17" r:id="rId13" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
-    <hyperlink ref="F27" r:id="rId14" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
-    <hyperlink ref="F3" r:id="rId15" xr:uid="{F26E00DE-ECA6-8043-B1DB-DB2216F23D99}"/>
-    <hyperlink ref="F6" r:id="rId16" xr:uid="{071110DE-3804-284A-9F93-25D210B3452F}"/>
-    <hyperlink ref="F24" r:id="rId17" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
-    <hyperlink ref="F5" r:id="rId18" xr:uid="{EB4339D4-1686-2C4D-BAB6-B358FA57F088}"/>
-    <hyperlink ref="F19" r:id="rId19" xr:uid="{C38AA58C-0C3A-EE4A-9637-553CFF7AEC42}"/>
-    <hyperlink ref="F11" r:id="rId20" xr:uid="{ABB09738-BAC9-BA45-8231-5AEB3FC90100}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
-    <hyperlink ref="F13" r:id="rId22" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
-    <hyperlink ref="F18" r:id="rId23" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
-    <hyperlink ref="F28" r:id="rId24" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{3DD5642C-C03C-104A-96E7-AE32D3932C14}"/>
+    <hyperlink ref="F20" r:id="rId3" xr:uid="{F3718FA7-6F9A-E54B-ABA3-ADAD5E633EAD}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{B98D6F15-C769-B547-8C74-2493F5F46DD2}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
+    <hyperlink ref="F23" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
+    <hyperlink ref="F24" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{3531E744-B160-7549-B699-BB8BF2A74D65}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
+    <hyperlink ref="F25" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{F26E00DE-ECA6-8043-B1DB-DB2216F23D99}"/>
+    <hyperlink ref="F5" r:id="rId14" xr:uid="{071110DE-3804-284A-9F93-25D210B3452F}"/>
+    <hyperlink ref="F22" r:id="rId15" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
+    <hyperlink ref="F4" r:id="rId16" xr:uid="{EB4339D4-1686-2C4D-BAB6-B358FA57F088}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{C38AA58C-0C3A-EE4A-9637-553CFF7AEC42}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{ABB09738-BAC9-BA45-8231-5AEB3FC90100}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
+    <hyperlink ref="F12" r:id="rId20" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
+    <hyperlink ref="F16" r:id="rId21" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
+    <hyperlink ref="I5" r:id="rId23" xr:uid="{93F1E579-860B-AF4C-9E05-9DD29B6A4D6F}"/>
+    <hyperlink ref="I4" r:id="rId24" xr:uid="{18242E23-68BC-1D43-9DAC-5784E2B871DD}"/>
+    <hyperlink ref="I6" r:id="rId25" xr:uid="{ED3DE6B4-5A73-5A4D-81DF-B9D5205BF560}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8383,13 +8375,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C4" t="s">
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E4" t="s">
         <v>671</v>
@@ -8400,13 +8392,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C5" t="s">
         <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E5" t="s">
         <v>671</v>
@@ -8423,7 +8415,7 @@
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E6" t="s">
         <v>671</v>
@@ -8440,7 +8432,7 @@
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E7" t="s">
         <v>671</v>
@@ -8457,7 +8449,7 @@
         <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E8" t="s">
         <v>671</v>
@@ -8474,7 +8466,7 @@
         <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E9" t="s">
         <v>671</v>
@@ -8485,13 +8477,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C10" t="s">
         <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E10" t="s">
         <v>671</v>
@@ -8502,13 +8494,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C11" t="s">
         <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E11" t="s">
         <v>671</v>
@@ -8519,13 +8511,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C12" t="s">
         <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E12" t="s">
         <v>671</v>
@@ -8536,13 +8528,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C13" t="s">
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E13" t="s">
         <v>671</v>
@@ -8553,13 +8545,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C14" t="s">
         <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E14" t="s">
         <v>671</v>
@@ -8570,13 +8562,13 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C15" t="s">
         <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E15" t="s">
         <v>671</v>
@@ -8593,7 +8585,7 @@
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E16" t="s">
         <v>671</v>
@@ -8610,7 +8602,7 @@
         <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E17" t="s">
         <v>671</v>
@@ -8627,7 +8619,7 @@
         <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E18" t="s">
         <v>671</v>
@@ -8644,7 +8636,7 @@
         <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>671</v>
@@ -8723,7 +8715,7 @@
         <v>671</v>
       </c>
       <c r="D3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>671</v>
@@ -8740,7 +8732,7 @@
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>671</v>
@@ -8757,7 +8749,7 @@
         <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>671</v>
@@ -8774,7 +8766,7 @@
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>671</v>
@@ -8791,7 +8783,7 @@
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>671</v>
@@ -8802,7 +8794,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>671</v>
@@ -8825,7 +8817,7 @@
         <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>671</v>
@@ -8842,7 +8834,7 @@
         <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>671</v>
@@ -8859,7 +8851,7 @@
         <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>671</v>
@@ -8876,7 +8868,7 @@
         <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>671</v>
@@ -8893,7 +8885,7 @@
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>671</v>
@@ -8910,7 +8902,7 @@
         <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>671</v>
@@ -8927,7 +8919,7 @@
         <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>671</v>
@@ -8938,13 +8930,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>671</v>
@@ -8961,7 +8953,7 @@
         <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>671</v>
@@ -8978,7 +8970,7 @@
         <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>671</v>
@@ -8995,7 +8987,7 @@
         <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>671</v>
@@ -9012,7 +9004,7 @@
         <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>671</v>
@@ -9023,19 +9015,19 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D21" t="s">
+        <v>742</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D21" t="s">
-        <v>743</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -9046,7 +9038,7 @@
         <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>671</v>
@@ -9057,13 +9049,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>671</v>
@@ -9080,7 +9072,7 @@
         <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>671</v>
@@ -9091,13 +9083,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>671</v>
@@ -9180,7 +9172,7 @@
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>671</v>
@@ -9197,24 +9189,24 @@
         <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>671</v>
@@ -9225,13 +9217,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>671</v>
@@ -9242,81 +9234,81 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>671</v>
@@ -9327,13 +9319,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>671</v>
@@ -9344,47 +9336,47 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D14" t="s">
-        <v>871</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>671</v>
@@ -9401,7 +9393,7 @@
         <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>671</v>
@@ -9412,30 +9404,30 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>671</v>
@@ -9446,47 +9438,47 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>819</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D21" t="s">
+        <v>875</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D21" t="s">
-        <v>877</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>671</v>
@@ -9497,166 +9489,166 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D24" t="s">
+        <v>805</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D26" t="s">
+        <v>799</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D29" t="s">
+        <v>807</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D30" t="s">
+        <v>809</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D31" t="s">
+        <v>796</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>671</v>
@@ -9667,19 +9659,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D33" t="s">
+        <v>801</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -9762,7 +9754,7 @@
         <v>671</v>
       </c>
       <c r="D4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>671</v>
@@ -9773,13 +9765,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>671</v>
@@ -9796,7 +9788,7 @@
         <v>671</v>
       </c>
       <c r="D6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>671</v>
@@ -9807,13 +9799,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>671</v>
@@ -9824,13 +9816,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>671</v>
@@ -9841,13 +9833,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>671</v>
@@ -9864,7 +9856,7 @@
         <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>671</v>
@@ -9875,13 +9867,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>671</v>
@@ -9892,13 +9884,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>671</v>
@@ -9909,13 +9901,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>671</v>
@@ -9926,13 +9918,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>671</v>
@@ -9949,7 +9941,7 @@
         <v>671</v>
       </c>
       <c r="D15" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>671</v>
@@ -9960,13 +9952,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>671</v>
@@ -9983,7 +9975,7 @@
         <v>671</v>
       </c>
       <c r="D17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>671</v>
@@ -9994,13 +9986,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>671</v>
@@ -10011,13 +10003,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D19" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>671</v>
@@ -10028,13 +10020,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>671</v>
@@ -10045,13 +10037,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>671</v>
@@ -10062,13 +10054,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>671</v>
@@ -10085,7 +10077,7 @@
         <v>671</v>
       </c>
       <c r="D23" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>671</v>
@@ -10102,7 +10094,7 @@
         <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>671</v>
@@ -10113,13 +10105,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D25" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>671</v>
@@ -10130,13 +10122,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>671</v>
@@ -10153,7 +10145,7 @@
         <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>671</v>
@@ -10170,7 +10162,7 @@
         <v>671</v>
       </c>
       <c r="D28" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>671</v>
@@ -10187,7 +10179,7 @@
         <v>671</v>
       </c>
       <c r="D29" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>671</v>
@@ -10204,7 +10196,7 @@
         <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>671</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4842312-D4B1-BB42-B361-8A7CE9C94CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0540D6-1BCE-8A44-9CF2-FF03E54322EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -3302,9 +3302,6 @@
     <t>https://thedailyeconomy.org/</t>
   </si>
   <si>
-    <t>The Daily Economy</t>
-  </si>
-  <si>
     <t>The Onion</t>
   </si>
   <si>
@@ -3324,6 +3321,9 @@
   </si>
   <si>
     <t>American Institute for Economic Research</t>
+  </si>
+  <si>
+    <t>Daily Economy</t>
   </si>
 </sst>
 </file>
@@ -7747,19 +7747,19 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -7805,7 +7805,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7862,7 +7862,7 @@
         <v>671</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H3" t="s">
         <v>1081</v>
@@ -7905,7 +7905,7 @@
         <v>671</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
@@ -8071,7 +8071,7 @@
         <v>671</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -8280,13 +8280,13 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="C27" t="s">
         <v>671</v>
       </c>
       <c r="D27" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>671</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0540D6-1BCE-8A44-9CF2-FF03E54322EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F053FA38-AD4B-864F-9FAE-593D1960C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -3320,10 +3320,10 @@
     <t>https://www.allsides.com/blog</t>
   </si>
   <si>
-    <t>American Institute for Economic Research</t>
-  </si>
-  <si>
     <t>Daily Economy</t>
+  </si>
+  <si>
+    <t>American Inst for Economic Research</t>
   </si>
 </sst>
 </file>
@@ -7805,7 +7805,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8280,13 +8280,13 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C27" t="s">
+        <v>671</v>
+      </c>
+      <c r="D27" t="s">
         <v>1092</v>
-      </c>
-      <c r="C27" t="s">
-        <v>671</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1091</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>671</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F053FA38-AD4B-864F-9FAE-593D1960C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE14F3-DFDE-0642-85DB-5C6020688030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -3323,7 +3323,7 @@
     <t>Daily Economy</t>
   </si>
   <si>
-    <t>American Inst for Economic Research</t>
+    <t>American Inst for Econ Research</t>
   </si>
 </sst>
 </file>
@@ -7805,7 +7805,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE14F3-DFDE-0642-85DB-5C6020688030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AD61A-08B6-1945-9045-2148A39E1F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1089">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -803,9 +803,6 @@
     <t>https://www.theeditors.com/</t>
   </si>
   <si>
-    <t>https://ourworldindata.org/</t>
-  </si>
-  <si>
     <t>https://www.visualcapitalist.com/category/politics/</t>
   </si>
   <si>
@@ -2009,9 +2006,6 @@
     <t>Open Secrets</t>
   </si>
   <si>
-    <t>https://www.opensecrets.org/</t>
-  </si>
-  <si>
     <t>Polls and Opinion</t>
   </si>
   <si>
@@ -2039,9 +2033,6 @@
     <t>https://taxfoundation.org/</t>
   </si>
   <si>
-    <t>https://worldpopulationreview.com/</t>
-  </si>
-  <si>
     <t>Analysis and Data</t>
   </si>
   <si>
@@ -2144,18 +2135,12 @@
     <t>A new political center</t>
   </si>
   <si>
-    <t>Understand the world — and each other</t>
-  </si>
-  <si>
     <t>Experts for the public good</t>
   </si>
   <si>
     <t>Congress, inside and out</t>
   </si>
   <si>
-    <t>Free-market solutions</t>
-  </si>
-  <si>
     <t>Intersection of media and politics</t>
   </si>
   <si>
@@ -2210,9 +2195,6 @@
     <t>Grounded in facts and biblical truth</t>
   </si>
   <si>
-    <t>Respect your time and intelligence</t>
-  </si>
-  <si>
     <t>Our writers are never boring</t>
   </si>
   <si>
@@ -2606,9 +2588,6 @@
     <t>Trends in American elections</t>
   </si>
   <si>
-    <t>Freedom index</t>
-  </si>
-  <si>
     <t>Serving the public interest</t>
   </si>
   <si>
@@ -3324,6 +3303,15 @@
   </si>
   <si>
     <t>American Inst for Econ Research</t>
+  </si>
+  <si>
+    <t>https://www.opensecrets.org/news/</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/data</t>
+  </si>
+  <si>
+    <t>https://worldpopulationreview.com/categories/politics-government</t>
   </si>
 </sst>
 </file>
@@ -3749,7 +3737,7 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K3" t="s">
         <v>191</v>
@@ -3757,7 +3745,7 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>192</v>
@@ -3765,7 +3753,7 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K5" t="s">
         <v>193</v>
@@ -3773,7 +3761,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K6" t="s">
         <v>194</v>
@@ -3781,27 +3769,27 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3809,24 +3797,24 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -3861,33 +3849,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D3" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>95</v>
@@ -3898,13 +3886,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>78</v>
@@ -3912,33 +3900,33 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>88</v>
@@ -3946,16 +3934,16 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -3964,16 +3952,16 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -3981,16 +3969,16 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
@@ -3999,37 +3987,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4038,13 +4026,13 @@
         <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>162</v>
@@ -4056,13 +4044,13 @@
         <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -4071,16 +4059,16 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>84</v>
@@ -4089,70 +4077,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4160,13 +4148,13 @@
         <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>101</v>
@@ -4174,16 +4162,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>62</v>
@@ -4191,33 +4179,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>59</v>
@@ -4225,16 +4213,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>64</v>
@@ -4242,33 +4230,33 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D24" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D25" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -4276,16 +4264,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D26" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
@@ -4293,16 +4281,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D27" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>60</v>
@@ -4310,67 +4298,67 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D28" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D31" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
@@ -4432,16 +4420,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -4463,13 +4451,13 @@
         <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K5" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
@@ -4494,10 +4482,10 @@
         <v>105</v>
       </c>
       <c r="K7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
@@ -4508,10 +4496,10 @@
         <v>93</v>
       </c>
       <c r="K8" t="s">
+        <v>281</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
@@ -4550,7 +4538,7 @@
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>233</v>
@@ -4564,7 +4552,7 @@
         <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>234</v>
@@ -4578,7 +4566,7 @@
         <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>188</v>
@@ -4592,10 +4580,10 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4622,16 +4610,16 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="K18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -4642,10 +4630,10 @@
         <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
@@ -4656,10 +4644,10 @@
         <v>182</v>
       </c>
       <c r="K20" t="s">
+        <v>589</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -4702,24 +4690,24 @@
         <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="K25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
@@ -4738,10 +4726,10 @@
         <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
@@ -4784,10 +4772,10 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>250</v>
@@ -4798,40 +4786,40 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -4925,1014 +4913,1014 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" t="s">
         <v>429</v>
-      </c>
-      <c r="D11" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" t="s">
         <v>431</v>
-      </c>
-      <c r="D12" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" t="s">
         <v>433</v>
-      </c>
-      <c r="D13" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" t="s">
         <v>435</v>
-      </c>
-      <c r="D14" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" t="s">
         <v>437</v>
-      </c>
-      <c r="D15" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" t="s">
         <v>439</v>
-      </c>
-      <c r="D16" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" t="s">
         <v>441</v>
-      </c>
-      <c r="D17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" t="s">
         <v>443</v>
-      </c>
-      <c r="D18" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
         <v>445</v>
-      </c>
-      <c r="D19" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" t="s">
         <v>449</v>
-      </c>
-      <c r="D21" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" t="s">
         <v>451</v>
-      </c>
-      <c r="D22" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D23" t="s">
         <v>453</v>
-      </c>
-      <c r="D23" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" t="s">
         <v>455</v>
-      </c>
-      <c r="D24" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" t="s">
         <v>457</v>
-      </c>
-      <c r="D25" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D27" t="s">
         <v>460</v>
-      </c>
-      <c r="D27" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D28" t="s">
         <v>462</v>
-      </c>
-      <c r="D28" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D29" t="s">
         <v>464</v>
-      </c>
-      <c r="D29" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D30" t="s">
         <v>466</v>
-      </c>
-      <c r="D30" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" t="s">
         <v>468</v>
-      </c>
-      <c r="D31" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" t="s">
         <v>470</v>
-      </c>
-      <c r="D32" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" t="s">
         <v>472</v>
-      </c>
-      <c r="D33" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" t="s">
         <v>474</v>
-      </c>
-      <c r="D34" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D35" t="s">
         <v>476</v>
-      </c>
-      <c r="D35" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D36" t="s">
         <v>478</v>
-      </c>
-      <c r="D36" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D37" t="s">
         <v>480</v>
-      </c>
-      <c r="D37" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D38" t="s">
         <v>482</v>
-      </c>
-      <c r="D38" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D39" t="s">
         <v>484</v>
-      </c>
-      <c r="D39" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D40" t="s">
         <v>486</v>
-      </c>
-      <c r="D40" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D42" t="s">
         <v>489</v>
-      </c>
-      <c r="D42" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" t="s">
         <v>491</v>
-      </c>
-      <c r="D43" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D44" t="s">
         <v>493</v>
-      </c>
-      <c r="D44" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" t="s">
         <v>496</v>
-      </c>
-      <c r="D46" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" t="s">
         <v>500</v>
-      </c>
-      <c r="D49" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" t="s">
         <v>503</v>
-      </c>
-      <c r="D51" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" t="s">
         <v>505</v>
-      </c>
-      <c r="D52" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D53" t="s">
         <v>507</v>
-      </c>
-      <c r="D53" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D54" t="s">
         <v>509</v>
-      </c>
-      <c r="D54" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D55" t="s">
         <v>511</v>
-      </c>
-      <c r="D55" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D56" t="s">
         <v>513</v>
-      </c>
-      <c r="D56" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D57" t="s">
         <v>515</v>
-      </c>
-      <c r="D57" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D59" t="s">
         <v>518</v>
-      </c>
-      <c r="D59" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D61" t="s">
         <v>521</v>
-      </c>
-      <c r="D61" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D62" t="s">
         <v>523</v>
-      </c>
-      <c r="D62" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D63" t="s">
         <v>525</v>
-      </c>
-      <c r="D63" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D64" t="s">
         <v>527</v>
-      </c>
-      <c r="D64" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D65" t="s">
         <v>529</v>
-      </c>
-      <c r="D65" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" t="s">
         <v>531</v>
-      </c>
-      <c r="D66" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D67" t="s">
         <v>533</v>
-      </c>
-      <c r="D67" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" t="s">
         <v>535</v>
-      </c>
-      <c r="D68" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D69" t="s">
         <v>537</v>
-      </c>
-      <c r="D69" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D70" t="s">
         <v>539</v>
-      </c>
-      <c r="D70" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D71" t="s">
         <v>541</v>
-      </c>
-      <c r="D71" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D72" t="s">
         <v>543</v>
-      </c>
-      <c r="D72" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D74" t="s">
         <v>548</v>
-      </c>
-      <c r="D74" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D75" t="s">
         <v>546</v>
-      </c>
-      <c r="D75" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D76" t="s">
         <v>550</v>
-      </c>
-      <c r="D76" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D77" t="s">
         <v>552</v>
-      </c>
-      <c r="D77" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D78" t="s">
         <v>554</v>
-      </c>
-      <c r="D78" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D79" t="s">
         <v>556</v>
-      </c>
-      <c r="D79" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D81" t="s">
         <v>559</v>
-      </c>
-      <c r="D81" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D82" t="s">
         <v>561</v>
-      </c>
-      <c r="D82" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D83" t="s">
         <v>563</v>
-      </c>
-      <c r="D83" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D84" t="s">
         <v>565</v>
-      </c>
-      <c r="D84" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D85" t="s">
         <v>567</v>
-      </c>
-      <c r="D85" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D86" t="s">
         <v>569</v>
-      </c>
-      <c r="D86" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D87" t="s">
         <v>571</v>
-      </c>
-      <c r="D87" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D88" t="s">
         <v>573</v>
-      </c>
-      <c r="D88" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D89" t="s">
         <v>575</v>
-      </c>
-      <c r="D89" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D90" t="s">
         <v>577</v>
-      </c>
-      <c r="D90" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D91" t="s">
         <v>579</v>
-      </c>
-      <c r="D91" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D92" t="s">
         <v>581</v>
-      </c>
-      <c r="D92" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D93" t="s">
         <v>583</v>
-      </c>
-      <c r="D93" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D94" t="s">
         <v>585</v>
-      </c>
-      <c r="D94" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D95" t="s">
         <v>587</v>
-      </c>
-      <c r="D95" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -6058,263 +6046,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E3" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G3" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C4" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E4" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G4" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E5" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G5" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C6" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E6" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G6" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C7" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E7" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G7" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C8" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E8" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G8" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C9" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E9" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G9" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C10" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E10" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G10" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -6335,10 +6323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
-  <dimension ref="B2:P40"/>
+  <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6358,36 +6346,36 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -6395,31 +6383,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>99</v>
@@ -6431,13 +6419,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -6446,53 +6434,53 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6507,16 +6495,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6524,57 +6512,57 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>752</v>
+      <c r="B11" t="s">
+        <v>635</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>721</v>
+        <v>821</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>636</v>
+        <v>743</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
-        <v>827</v>
+        <v>699</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="M12" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>628</v>
+        <v>1076</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>249</v>
@@ -6586,279 +6574,286 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>750</v>
+      <c r="B14" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" t="s">
-        <v>710</v>
+        <v>820</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1083</v>
+        <v>299</v>
       </c>
       <c r="M14" t="s">
+        <v>261</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>299</v>
+      <c r="B15" t="s">
+        <v>817</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>823</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>854</v>
+        <v>711</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1046</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>716</v>
+        <v>819</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>53</v>
+      <c r="B18" t="s">
+        <v>628</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>825</v>
+        <v>701</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1082</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" t="s">
+        <v>818</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>629</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D19" t="s">
-        <v>706</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>751</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
-        <v>824</v>
+        <v>780</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>630</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>309</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>816</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>6</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>822</v>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
+        <v>710</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D24" t="s">
+        <v>825</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D25" t="s">
+        <v>716</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D26" t="s">
+        <v>779</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" t="s">
         <v>712</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D24" t="s">
-        <v>715</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D25" t="s">
-        <v>831</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D26" t="s">
-        <v>722</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D27" t="s">
-        <v>785</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1047</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D28" t="s">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>595</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
-        <v>670</v>
+        <v>826</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>631</v>
@@ -6866,235 +6861,218 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>2</v>
+        <v>742</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>748</v>
+      <c r="B31" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D31" t="s">
-        <v>833</v>
+        <v>715</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>633</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>599</v>
+      <c r="B32" t="s">
+        <v>641</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D32" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>311</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>642</v>
+        <v>985</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D33" t="s">
-        <v>718</v>
+        <v>1025</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>7</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D34" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>991</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D35" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D36" t="s">
-        <v>1033</v>
+        <v>1064</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1029</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D37" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D38" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D39" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F33">
-    <sortCondition ref="B3:B33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F32">
+    <sortCondition ref="B3:B32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F24" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
+    <hyperlink ref="F23" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
     <hyperlink ref="F6" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
-    <hyperlink ref="F18" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
-    <hyperlink ref="F32" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
+    <hyperlink ref="F31" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
     <hyperlink ref="N14" r:id="rId8" xr:uid="{5C71A646-0C34-7446-BD83-87F7E8001227}"/>
-    <hyperlink ref="F25" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
-    <hyperlink ref="F21" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
-    <hyperlink ref="F11" r:id="rId12" xr:uid="{8BA99F8F-8BCD-B846-866B-66C064CD1CB4}"/>
-    <hyperlink ref="F28" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
-    <hyperlink ref="F20" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
-    <hyperlink ref="F14" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
-    <hyperlink ref="F22" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
+    <hyperlink ref="F24" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
+    <hyperlink ref="N15" r:id="rId12" xr:uid="{8BA99F8F-8BCD-B846-866B-66C064CD1CB4}"/>
+    <hyperlink ref="F27" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
     <hyperlink ref="F10" r:id="rId18" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
     <hyperlink ref="F8" r:id="rId19" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
-    <hyperlink ref="F27" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
-    <hyperlink ref="F13" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
-    <hyperlink ref="F29" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
-    <hyperlink ref="F31" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
+    <hyperlink ref="F30" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
     <hyperlink ref="F3" r:id="rId24" xr:uid="{C0AF8236-E274-D24E-B8EE-D74B81281D4F}"/>
     <hyperlink ref="F7" r:id="rId25" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
-    <hyperlink ref="F12" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
-    <hyperlink ref="F23" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
-    <hyperlink ref="F16" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
+    <hyperlink ref="F11" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
+    <hyperlink ref="F22" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
     <hyperlink ref="F4" r:id="rId29" xr:uid="{19B0417A-8CE3-744D-A35A-06E087CBA02C}"/>
-    <hyperlink ref="F33" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
+    <hyperlink ref="F32" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
     <hyperlink ref="F9" r:id="rId31" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
-    <hyperlink ref="F19" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
+    <hyperlink ref="F18" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
+    <hyperlink ref="F35" r:id="rId35" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
+    <hyperlink ref="F36" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
+    <hyperlink ref="F37" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
+    <hyperlink ref="F39" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7126,19 +7104,19 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7150,19 +7128,19 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -7171,13 +7149,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -7185,16 +7163,16 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -7205,13 +7183,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7219,16 +7197,16 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -7236,19 +7214,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7256,16 +7234,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -7273,13 +7251,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -7290,13 +7268,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7307,13 +7285,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7324,13 +7302,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -7339,36 +7317,36 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7376,30 +7354,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7407,53 +7385,53 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -7461,13 +7439,13 @@
         <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>190</v>
@@ -7475,36 +7453,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7512,13 +7490,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -7529,30 +7507,30 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>82</v>
@@ -7563,13 +7541,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7580,13 +7558,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7597,13 +7575,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7614,13 +7592,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -7628,16 +7606,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>106</v>
@@ -7645,19 +7623,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -7665,13 +7643,13 @@
         <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -7679,16 +7657,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -7699,67 +7677,67 @@
         <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D37" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D39" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -7802,10 +7780,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7828,19 +7806,19 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7849,67 +7827,67 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>74</v>
+      <c r="B3" s="4" t="s">
+        <v>752</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" t="s">
-        <v>699</v>
+        <v>668</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1072</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1090</v>
+        <v>1034</v>
       </c>
       <c r="H3" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>758</v>
+      <c r="B4" t="s">
+        <v>747</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1079</v>
+        <v>668</v>
+      </c>
+      <c r="D4" t="s">
+        <v>708</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1041</v>
+        <v>1082</v>
       </c>
       <c r="H4" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>753</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>713</v>
+        <v>1035</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1089</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -7917,22 +7895,22 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>1042</v>
+        <v>695</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -7940,399 +7918,379 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" t="s">
-        <v>698</v>
+        <v>831</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>749</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>783</v>
       </c>
       <c r="C9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>838</v>
+        <v>195</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>789</v>
+        <v>751</v>
       </c>
       <c r="C10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>833</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>649</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>757</v>
-      </c>
-      <c r="C11" t="s">
-        <v>671</v>
+        <v>784</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>839</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>671</v>
+        <v>637</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>755</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>849</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1043</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>790</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>671</v>
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>638</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>671</v>
+        <v>834</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>639</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" t="s">
-        <v>856</v>
+        <v>698</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1088</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>240</v>
+        <v>645</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>239</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>703</v>
+        <v>1073</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C17" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>1080</v>
+        <v>1033</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>643</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>842</v>
+        <v>697</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>644</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>110</v>
+        <v>837</v>
       </c>
       <c r="C20" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
-        <v>1040</v>
+        <v>709</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>111</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>843</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>645</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>750</v>
       </c>
       <c r="C23" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>700</v>
+        <v>1037</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>1059</v>
       </c>
       <c r="C24" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D24" t="s">
-        <v>697</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>671</v>
+        <v>1061</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>756</v>
+        <v>1084</v>
       </c>
       <c r="C25" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>671</v>
+        <v>1085</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>301</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C26" t="s">
-        <v>671</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C27" t="s">
-        <v>671</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H30" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F25">
-    <sortCondition ref="B3:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F23">
+    <sortCondition ref="B3:B23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{3DD5642C-C03C-104A-96E7-AE32D3932C14}"/>
-    <hyperlink ref="F20" r:id="rId3" xr:uid="{F3718FA7-6F9A-E54B-ABA3-ADAD5E633EAD}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{B98D6F15-C769-B547-8C74-2493F5F46DD2}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
-    <hyperlink ref="F23" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
-    <hyperlink ref="F24" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{3531E744-B160-7549-B699-BB8BF2A74D65}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
-    <hyperlink ref="F25" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{F26E00DE-ECA6-8043-B1DB-DB2216F23D99}"/>
-    <hyperlink ref="F5" r:id="rId14" xr:uid="{071110DE-3804-284A-9F93-25D210B3452F}"/>
-    <hyperlink ref="F22" r:id="rId15" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
-    <hyperlink ref="F4" r:id="rId16" xr:uid="{EB4339D4-1686-2C4D-BAB6-B358FA57F088}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{C38AA58C-0C3A-EE4A-9637-553CFF7AEC42}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{ABB09738-BAC9-BA45-8231-5AEB3FC90100}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
-    <hyperlink ref="F12" r:id="rId20" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
-    <hyperlink ref="F16" r:id="rId21" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
-    <hyperlink ref="F26" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{3DD5642C-C03C-104A-96E7-AE32D3932C14}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{F3718FA7-6F9A-E54B-ABA3-ADAD5E633EAD}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{B98D6F15-C769-B547-8C74-2493F5F46DD2}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
+    <hyperlink ref="F22" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{3531E744-B160-7549-B699-BB8BF2A74D65}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
+    <hyperlink ref="I8" r:id="rId13" xr:uid="{F26E00DE-ECA6-8043-B1DB-DB2216F23D99}"/>
+    <hyperlink ref="F4" r:id="rId14" xr:uid="{071110DE-3804-284A-9F93-25D210B3452F}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
+    <hyperlink ref="F3" r:id="rId16" xr:uid="{EB4339D4-1686-2C4D-BAB6-B358FA57F088}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{C38AA58C-0C3A-EE4A-9637-553CFF7AEC42}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{ABB09738-BAC9-BA45-8231-5AEB3FC90100}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
+    <hyperlink ref="I7" r:id="rId20" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
+    <hyperlink ref="F14" r:id="rId21" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
     <hyperlink ref="I5" r:id="rId23" xr:uid="{93F1E579-860B-AF4C-9E05-9DD29B6A4D6F}"/>
     <hyperlink ref="I4" r:id="rId24" xr:uid="{18242E23-68BC-1D43-9DAC-5784E2B871DD}"/>
     <hyperlink ref="I6" r:id="rId25" xr:uid="{ED3DE6B4-5A73-5A4D-81DF-B9D5205BF560}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
+    <hyperlink ref="F25" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8358,53 +8316,53 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -8412,13 +8370,13 @@
         <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>166</v>
@@ -8426,19 +8384,19 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" t="s">
+        <v>841</v>
+      </c>
+      <c r="E7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -8446,13 +8404,13 @@
         <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>167</v>
@@ -8463,13 +8421,13 @@
         <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>246</v>
@@ -8477,104 +8435,104 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C11" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E11" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E12" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E13" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -8582,33 +8540,33 @@
         <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E16" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>668</v>
+      </c>
+      <c r="D17" t="s">
+        <v>769</v>
+      </c>
+      <c r="E17" t="s">
+        <v>668</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C17" t="s">
-        <v>671</v>
-      </c>
-      <c r="D17" t="s">
-        <v>775</v>
-      </c>
-      <c r="E17" t="s">
-        <v>671</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -8616,13 +8574,13 @@
         <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E18" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>168</v>
@@ -8630,19 +8588,19 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D19" t="s">
-        <v>777</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -8674,10 +8632,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A60BEE-556A-8141-853B-FECA0E5B23E1}">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8686,277 +8644,287 @@
     <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" t="s">
+        <v>717</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D4" t="s">
-        <v>723</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>231</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D12" t="s">
+        <v>724</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D12" t="s">
-        <v>730</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D13" t="s">
+        <v>725</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D13" t="s">
-        <v>731</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D14" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D14" t="s">
-        <v>732</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" t="s">
+        <v>727</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" t="s">
-        <v>733</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>66</v>
@@ -8964,36 +8932,36 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>654</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -9001,13 +8969,13 @@
         <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>242</v>
@@ -9015,33 +8983,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>109</v>
@@ -9049,53 +9017,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>844</v>
+        <v>660</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>738</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>662</v>
+        <v>840</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D24" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D25" t="s">
-        <v>745</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>664</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -9120,9 +9071,9 @@
     <hyperlink ref="F20" r:id="rId18" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
     <hyperlink ref="F21" r:id="rId19" xr:uid="{DACFA19E-0B3F-354B-9E6B-D7FE9375F999}"/>
     <hyperlink ref="F22" r:id="rId20" xr:uid="{1C9C463C-A2BE-3D47-99DA-1F5F59991E86}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{329A46AC-9F13-8044-BA74-02364ACE46F1}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{6287F184-DE4C-0D48-8091-8929A7C0227E}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{88DD0293-2CB4-0547-A008-647D2BEC1BE7}"/>
+    <hyperlink ref="K4" r:id="rId21" xr:uid="{329A46AC-9F13-8044-BA74-02364ACE46F1}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{6287F184-DE4C-0D48-8091-8929A7C0227E}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{88DD0293-2CB4-0547-A008-647D2BEC1BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9149,19 +9100,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9169,13 +9120,13 @@
         <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>180</v>
@@ -9183,33 +9134,33 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>173</v>
@@ -9217,16 +9168,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>176</v>
@@ -9234,84 +9185,84 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>153</v>
@@ -9319,16 +9270,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>183</v>
@@ -9336,50 +9287,50 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>97</v>
@@ -9390,13 +9341,13 @@
         <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
@@ -9404,33 +9355,33 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>152</v>
@@ -9438,50 +9389,50 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>154</v>
@@ -9489,169 +9440,169 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D24" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D25" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D26" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D27" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D28" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D31" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D32" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -9659,19 +9610,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D33" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -9731,19 +9682,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9751,13 +9702,13 @@
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
@@ -9765,16 +9716,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
@@ -9785,13 +9736,13 @@
         <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>118</v>
@@ -9799,16 +9750,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D7" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>170</v>
@@ -9816,16 +9767,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D8" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -9833,16 +9784,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>144</v>
@@ -9853,13 +9804,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D10" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>125</v>
@@ -9867,16 +9818,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>145</v>
@@ -9884,16 +9835,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>146</v>
@@ -9901,16 +9852,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>127</v>
@@ -9918,16 +9869,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>147</v>
@@ -9938,13 +9889,13 @@
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D15" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>133</v>
@@ -9952,16 +9903,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>135</v>
@@ -9972,13 +9923,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -9986,16 +9937,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -10003,16 +9954,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>136</v>
@@ -10020,16 +9971,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D20" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>137</v>
@@ -10037,16 +9988,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>141</v>
@@ -10054,16 +10005,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D22" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -10074,13 +10025,13 @@
         <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>148</v>
@@ -10091,13 +10042,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D24" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
@@ -10105,16 +10056,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D25" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
@@ -10122,16 +10073,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D26" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>142</v>
@@ -10142,13 +10093,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D27" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>123</v>
@@ -10159,13 +10110,13 @@
         <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D28" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>150</v>
@@ -10176,13 +10127,13 @@
         <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D29" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -10193,13 +10144,13 @@
         <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671AD61A-08B6-1945-9045-2148A39E1F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB8A26-598D-994A-95B9-C875879ECB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="5" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1091">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -911,9 +911,6 @@
     <t>https://www.rasmussenreports.com/older_content/home/top_stories/most_recent_articles</t>
   </si>
   <si>
-    <t>Marist Poll</t>
-  </si>
-  <si>
     <t>https://maristpoll.marist.edu/latest-polls/</t>
   </si>
   <si>
@@ -2351,9 +2348,6 @@
     <t>Comparisons across different polls</t>
   </si>
   <si>
-    <t>Updated daily, online since 1997</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cultural and religious dynamics </t>
   </si>
   <si>
@@ -2366,12 +2360,6 @@
     <t>Center for Politics</t>
   </si>
   <si>
-    <t>Monmouth Poll</t>
-  </si>
-  <si>
-    <t>Emerson Poll</t>
-  </si>
-  <si>
     <t>Pew Research</t>
   </si>
   <si>
@@ -3312,6 +3300,24 @@
   </si>
   <si>
     <t>https://worldpopulationreview.com/categories/politics-government</t>
+  </si>
+  <si>
+    <t>Chronicles</t>
+  </si>
+  <si>
+    <t>https://chroniclesmagazine.org/</t>
+  </si>
+  <si>
+    <t>Marist</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Remove</t>
   </si>
 </sst>
 </file>
@@ -3737,7 +3743,7 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K3" t="s">
         <v>191</v>
@@ -3745,7 +3751,7 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>192</v>
@@ -3753,7 +3759,7 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K5" t="s">
         <v>193</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K6" t="s">
         <v>194</v>
@@ -3769,27 +3775,27 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3797,16 +3803,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3849,33 +3855,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>95</v>
@@ -3886,13 +3892,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>78</v>
@@ -3900,33 +3906,33 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>88</v>
@@ -3934,16 +3940,16 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -3952,16 +3958,16 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -3969,16 +3975,16 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
@@ -3987,37 +3993,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4026,13 +4032,13 @@
         <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>162</v>
@@ -4044,13 +4050,13 @@
         <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -4059,16 +4065,16 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D14" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>84</v>
@@ -4077,70 +4083,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D15" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4148,13 +4154,13 @@
         <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D19" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>101</v>
@@ -4162,16 +4168,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>62</v>
@@ -4179,33 +4185,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D21" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>59</v>
@@ -4213,16 +4219,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D23" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>64</v>
@@ -4230,33 +4236,33 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D24" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -4264,16 +4270,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D26" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
@@ -4281,16 +4287,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>60</v>
@@ -4298,67 +4304,67 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D28" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D29" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D31" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
@@ -4420,16 +4426,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -4451,7 +4457,7 @@
         <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K5" t="s">
         <v>267</v>
@@ -4566,7 +4572,7 @@
         <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>188</v>
@@ -4580,10 +4586,10 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4644,10 +4650,10 @@
         <v>182</v>
       </c>
       <c r="K20" t="s">
+        <v>588</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -4690,10 +4696,10 @@
         <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
@@ -4704,10 +4710,10 @@
         <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
@@ -4729,7 +4735,7 @@
         <v>260</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
@@ -4772,10 +4778,10 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>250</v>
@@ -4786,18 +4792,18 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="K34" t="s">
         <v>274</v>
@@ -4808,18 +4814,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -4913,123 +4919,123 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" t="s">
         <v>428</v>
-      </c>
-      <c r="D11" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" t="s">
         <v>430</v>
-      </c>
-      <c r="D12" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" t="s">
         <v>432</v>
-      </c>
-      <c r="D13" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" t="s">
         <v>434</v>
-      </c>
-      <c r="D14" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -5037,890 +5043,890 @@
         <v>274</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" t="s">
         <v>436</v>
-      </c>
-      <c r="D15" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D16" t="s">
         <v>438</v>
-      </c>
-      <c r="D16" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" t="s">
         <v>440</v>
-      </c>
-      <c r="D17" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" t="s">
         <v>442</v>
-      </c>
-      <c r="D18" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D19" t="s">
         <v>444</v>
-      </c>
-      <c r="D19" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D21" t="s">
         <v>448</v>
-      </c>
-      <c r="D21" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" t="s">
         <v>450</v>
-      </c>
-      <c r="D22" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" t="s">
         <v>452</v>
-      </c>
-      <c r="D23" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" t="s">
         <v>454</v>
-      </c>
-      <c r="D24" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" t="s">
         <v>456</v>
-      </c>
-      <c r="D25" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" t="s">
         <v>459</v>
-      </c>
-      <c r="D27" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28" t="s">
         <v>461</v>
-      </c>
-      <c r="D28" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D29" t="s">
         <v>463</v>
-      </c>
-      <c r="D29" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" t="s">
         <v>465</v>
-      </c>
-      <c r="D30" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D31" t="s">
         <v>467</v>
-      </c>
-      <c r="D31" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D32" t="s">
         <v>469</v>
-      </c>
-      <c r="D32" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D33" t="s">
         <v>471</v>
-      </c>
-      <c r="D33" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D34" t="s">
         <v>473</v>
-      </c>
-      <c r="D34" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D35" t="s">
         <v>475</v>
-      </c>
-      <c r="D35" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D36" t="s">
         <v>477</v>
-      </c>
-      <c r="D36" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D37" t="s">
         <v>479</v>
-      </c>
-      <c r="D37" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D38" t="s">
         <v>481</v>
-      </c>
-      <c r="D38" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D39" t="s">
         <v>483</v>
-      </c>
-      <c r="D39" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D40" t="s">
         <v>485</v>
-      </c>
-      <c r="D40" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D42" t="s">
         <v>488</v>
-      </c>
-      <c r="D42" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D43" t="s">
         <v>490</v>
-      </c>
-      <c r="D43" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" t="s">
         <v>492</v>
-      </c>
-      <c r="D44" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" t="s">
         <v>495</v>
-      </c>
-      <c r="D46" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D49" t="s">
         <v>499</v>
-      </c>
-      <c r="D49" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D51" t="s">
         <v>502</v>
-      </c>
-      <c r="D51" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D52" t="s">
         <v>504</v>
-      </c>
-      <c r="D52" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D53" t="s">
         <v>506</v>
-      </c>
-      <c r="D53" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" t="s">
         <v>508</v>
-      </c>
-      <c r="D54" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D55" t="s">
         <v>510</v>
-      </c>
-      <c r="D55" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D56" t="s">
         <v>512</v>
-      </c>
-      <c r="D56" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D57" t="s">
         <v>514</v>
-      </c>
-      <c r="D57" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D58" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" t="s">
         <v>517</v>
-      </c>
-      <c r="D59" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61" t="s">
         <v>520</v>
-      </c>
-      <c r="D61" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" t="s">
         <v>522</v>
-      </c>
-      <c r="D62" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" t="s">
         <v>524</v>
-      </c>
-      <c r="D63" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D64" t="s">
         <v>526</v>
-      </c>
-      <c r="D64" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D65" t="s">
         <v>528</v>
-      </c>
-      <c r="D65" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D66" t="s">
         <v>530</v>
-      </c>
-      <c r="D66" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D67" t="s">
         <v>532</v>
-      </c>
-      <c r="D67" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D68" t="s">
         <v>534</v>
-      </c>
-      <c r="D68" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D69" t="s">
         <v>536</v>
-      </c>
-      <c r="D69" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D70" t="s">
         <v>538</v>
-      </c>
-      <c r="D70" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D71" t="s">
         <v>540</v>
-      </c>
-      <c r="D71" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D72" t="s">
         <v>542</v>
-      </c>
-      <c r="D72" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D74" t="s">
         <v>547</v>
-      </c>
-      <c r="D74" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D75" t="s">
         <v>545</v>
-      </c>
-      <c r="D75" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D76" t="s">
         <v>549</v>
-      </c>
-      <c r="D76" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D77" t="s">
         <v>551</v>
-      </c>
-      <c r="D77" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D78" t="s">
         <v>553</v>
-      </c>
-      <c r="D78" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D79" t="s">
         <v>555</v>
-      </c>
-      <c r="D79" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" t="s">
         <v>558</v>
-      </c>
-      <c r="D81" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D82" t="s">
         <v>560</v>
-      </c>
-      <c r="D82" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D83" t="s">
         <v>562</v>
-      </c>
-      <c r="D83" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D84" t="s">
         <v>564</v>
-      </c>
-      <c r="D84" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D85" t="s">
         <v>566</v>
-      </c>
-      <c r="D85" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D86" t="s">
         <v>568</v>
-      </c>
-      <c r="D86" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D87" t="s">
         <v>570</v>
-      </c>
-      <c r="D87" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D88" t="s">
         <v>572</v>
-      </c>
-      <c r="D88" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D89" t="s">
         <v>574</v>
-      </c>
-      <c r="D89" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D90" t="s">
         <v>576</v>
-      </c>
-      <c r="D90" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D91" t="s">
         <v>578</v>
-      </c>
-      <c r="D91" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D92" t="s">
         <v>580</v>
-      </c>
-      <c r="D92" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D93" t="s">
         <v>582</v>
-      </c>
-      <c r="D93" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D94" t="s">
         <v>584</v>
-      </c>
-      <c r="D94" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D95" t="s">
         <v>586</v>
-      </c>
-      <c r="D95" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -6046,263 +6052,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E3" t="s">
+        <v>988</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G3" t="s">
+        <v>996</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E3" t="s">
-        <v>992</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G4" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C6" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E6" t="s">
+        <v>995</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G6" t="s">
         <v>999</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1003</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C7" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E7" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G7" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C8" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E8" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G8" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C9" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E9" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G9" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C10" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E10" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G10" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -6325,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6346,36 +6352,36 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -6383,31 +6389,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="N4" s="1"/>
+        <v>639</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>99</v>
@@ -6419,13 +6430,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -6434,53 +6445,53 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6495,16 +6506,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6513,56 +6524,56 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D11" t="s">
+        <v>817</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11" t="s">
-        <v>821</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M12" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>249</v>
@@ -6575,19 +6586,19 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" t="s">
+        <v>816</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D14" t="s">
-        <v>820</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="M14" t="s">
         <v>261</v>
@@ -6599,22 +6610,22 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D15" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>91</v>
@@ -6626,13 +6637,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -6643,47 +6654,47 @@
         <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D19" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>56</v>
@@ -6691,19 +6702,19 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -6711,13 +6722,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -6725,19 +6736,19 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -6745,13 +6756,13 @@
         <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>80</v>
@@ -6759,19 +6770,19 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D24" t="s">
+        <v>821</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D24" t="s">
-        <v>825</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -6779,13 +6790,13 @@
         <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>216</v>
@@ -6793,19 +6804,19 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D26" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -6813,13 +6824,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>90</v>
@@ -6827,19 +6838,19 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -6847,64 +6858,64 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D29" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -6912,121 +6923,121 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D33" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D34" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D35" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D36" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D37" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D38" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D39" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -7104,19 +7115,19 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7128,19 +7139,19 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -7149,13 +7160,13 @@
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -7163,16 +7174,16 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -7183,13 +7194,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7197,16 +7208,16 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -7214,19 +7225,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7234,13 +7245,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>284</v>
@@ -7251,13 +7262,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -7268,13 +7279,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7285,13 +7296,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7302,13 +7313,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -7317,36 +7328,36 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7354,30 +7365,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7385,53 +7396,53 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -7439,13 +7450,13 @@
         <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>190</v>
@@ -7453,36 +7464,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7490,13 +7501,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -7507,30 +7518,30 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>82</v>
@@ -7541,13 +7552,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7558,13 +7569,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7575,13 +7586,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7592,13 +7603,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -7606,16 +7617,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>106</v>
@@ -7623,16 +7634,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>280</v>
@@ -7643,13 +7654,13 @@
         <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -7657,16 +7668,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -7677,67 +7688,67 @@
         <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D39" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -7806,19 +7817,19 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7828,45 +7839,45 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="H3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H4" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7874,20 +7885,20 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -7898,19 +7909,19 @@
         <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -7921,22 +7932,22 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -7945,13 +7956,13 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -7960,39 +7971,39 @@
         <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
         <v>195</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>169</v>
@@ -8000,19 +8011,19 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -8020,16 +8031,16 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -8037,13 +8048,13 @@
         <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
@@ -8054,13 +8065,13 @@
         <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>271</v>
@@ -8068,19 +8079,19 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15" t="s">
+        <v>831</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="C15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" t="s">
-        <v>835</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -8088,13 +8099,13 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>165</v>
@@ -8102,19 +8113,19 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D17" t="s">
+        <v>832</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C17" t="s">
-        <v>668</v>
-      </c>
-      <c r="D17" t="s">
-        <v>836</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -8122,13 +8133,13 @@
         <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>111</v>
@@ -8139,13 +8150,13 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>48</v>
@@ -8153,19 +8164,19 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -8173,13 +8184,13 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>241</v>
@@ -8190,13 +8201,13 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>71</v>
@@ -8204,53 +8215,53 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D23" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D24" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -8299,10 +8310,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADF352-5B5A-244B-A5F9-4FFB164F2F83}">
-  <dimension ref="B3:F23"/>
+  <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8314,297 +8325,289 @@
     <col min="6" max="6" width="79.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D7" t="s">
+        <v>837</v>
+      </c>
+      <c r="E7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D7" t="s">
-        <v>841</v>
-      </c>
-      <c r="E7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D10" t="s">
+        <v>764</v>
+      </c>
+      <c r="E10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C11" t="s">
+        <v>667</v>
+      </c>
+      <c r="D11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E11" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C12" t="s">
+        <v>667</v>
+      </c>
+      <c r="D12" t="s">
+        <v>766</v>
+      </c>
+      <c r="E12" t="s">
+        <v>667</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D13" t="s">
+        <v>840</v>
+      </c>
+      <c r="E13" t="s">
+        <v>667</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C10" t="s">
-        <v>668</v>
-      </c>
-      <c r="D10" t="s">
-        <v>765</v>
-      </c>
-      <c r="E10" t="s">
-        <v>668</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>774</v>
-      </c>
-      <c r="C11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11" t="s">
-        <v>766</v>
-      </c>
-      <c r="E11" t="s">
-        <v>668</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>776</v>
-      </c>
-      <c r="C12" t="s">
-        <v>668</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="J13" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" t="s">
+        <v>842</v>
+      </c>
+      <c r="E14" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15" t="s">
+        <v>838</v>
+      </c>
+      <c r="E15" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" t="s">
+        <v>667</v>
+      </c>
+      <c r="D16" t="s">
         <v>767</v>
       </c>
-      <c r="E12" t="s">
-        <v>668</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C13" t="s">
-        <v>668</v>
-      </c>
-      <c r="D13" t="s">
-        <v>844</v>
-      </c>
-      <c r="E13" t="s">
-        <v>668</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C14" t="s">
-        <v>668</v>
-      </c>
-      <c r="D14" t="s">
-        <v>846</v>
-      </c>
-      <c r="E14" t="s">
-        <v>668</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" t="s">
-        <v>768</v>
-      </c>
-      <c r="E15" t="s">
-        <v>668</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" t="s">
-        <v>668</v>
-      </c>
-      <c r="D16" t="s">
-        <v>842</v>
-      </c>
       <c r="E16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>657</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
+        <v>768</v>
+      </c>
+      <c r="E17" t="s">
+        <v>667</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D18" t="s">
         <v>769</v>
       </c>
-      <c r="E17" t="s">
-        <v>668</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" t="s">
-        <v>668</v>
-      </c>
-      <c r="D18" t="s">
-        <v>770</v>
-      </c>
-      <c r="E18" t="s">
-        <v>668</v>
+      <c r="E18" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D19" t="s">
-        <v>771</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F19" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="6"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8618,12 +8621,12 @@
     <hyperlink ref="F10" r:id="rId8" xr:uid="{9DDDDFEA-5EB5-314E-827E-40E700F3B072}"/>
     <hyperlink ref="F13" r:id="rId9" xr:uid="{E2633AD9-9E08-7B4C-A69A-9F8FF0B6185A}"/>
     <hyperlink ref="F14" r:id="rId10" xr:uid="{7A139F29-74E8-D741-BFDE-C39581430059}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{E638AA2F-4AE8-784E-BFC4-D13382A70DFB}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{E638AA2F-4AE8-784E-BFC4-D13382A70DFB}"/>
     <hyperlink ref="F12" r:id="rId12" xr:uid="{0352B7BD-75F8-ED45-BFE3-3EB3FA1F016A}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{2B59CEFF-E0E3-B64A-899D-0E7BA06B5AA9}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{01204FBB-E36A-554A-ACE4-E737AE157762}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{1978F257-3EDE-E543-BDF5-497F7B4EF658}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{699D1C3B-BCA4-2B49-8136-887B8294B18C}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{2B59CEFF-E0E3-B64A-899D-0E7BA06B5AA9}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{01204FBB-E36A-554A-ACE4-E737AE157762}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{1978F257-3EDE-E543-BDF5-497F7B4EF658}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{699D1C3B-BCA4-2B49-8136-887B8294B18C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8650,19 +8653,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -8670,39 +8673,39 @@
         <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D4" t="s">
-        <v>717</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>89</v>
@@ -8714,13 +8717,13 @@
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
@@ -8731,13 +8734,13 @@
         <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
@@ -8748,13 +8751,13 @@
         <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>213</v>
@@ -8762,16 +8765,16 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>273</v>
@@ -8782,16 +8785,16 @@
         <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -8799,13 +8802,13 @@
         <v>231</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>232</v>
@@ -8816,16 +8819,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -8833,13 +8836,13 @@
         <v>253</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>252</v>
@@ -8847,67 +8850,67 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D13" t="s">
-        <v>725</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" t="s">
+        <v>725</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D14" t="s">
-        <v>726</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" t="s">
-        <v>727</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>259</v>
@@ -8915,16 +8918,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>66</v>
@@ -8932,36 +8935,36 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D19" t="s">
-        <v>731</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -8969,13 +8972,13 @@
         <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>242</v>
@@ -8983,33 +8986,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D21" t="s">
+        <v>735</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D21" t="s">
-        <v>736</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>109</v>
@@ -9017,36 +9020,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D23" t="s">
+        <v>737</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D23" t="s">
-        <v>738</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -9100,19 +9103,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9120,13 +9123,13 @@
         <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>180</v>
@@ -9137,30 +9140,30 @@
         <v>283</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>173</v>
@@ -9168,16 +9171,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>176</v>
@@ -9185,84 +9188,84 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>153</v>
@@ -9270,16 +9273,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>183</v>
@@ -9287,50 +9290,50 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D14" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D15" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>97</v>
@@ -9341,13 +9344,13 @@
         <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
@@ -9355,33 +9358,33 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D19" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>152</v>
@@ -9389,50 +9392,50 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D21" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>154</v>
@@ -9440,169 +9443,169 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D23" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D24" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D26" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D28" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D29" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D31" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D32" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -9610,19 +9613,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D33" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -9682,19 +9685,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9702,13 +9705,13 @@
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
@@ -9716,16 +9719,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
@@ -9736,13 +9739,13 @@
         <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>118</v>
@@ -9750,16 +9753,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D7" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>170</v>
@@ -9767,16 +9770,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -9784,16 +9787,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>144</v>
@@ -9804,13 +9807,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>125</v>
@@ -9818,16 +9821,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D11" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>145</v>
@@ -9835,16 +9838,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>146</v>
@@ -9852,16 +9855,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D13" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>127</v>
@@ -9869,16 +9872,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D14" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>147</v>
@@ -9889,13 +9892,13 @@
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D15" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>133</v>
@@ -9903,16 +9906,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>135</v>
@@ -9923,13 +9926,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -9937,16 +9940,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -9954,16 +9957,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D19" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>136</v>
@@ -9971,16 +9974,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>137</v>
@@ -9988,16 +9991,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D21" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>141</v>
@@ -10005,16 +10008,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -10025,13 +10028,13 @@
         <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D23" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>148</v>
@@ -10042,13 +10045,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D24" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
@@ -10056,16 +10059,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
@@ -10073,16 +10076,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D26" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>142</v>
@@ -10093,13 +10096,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D27" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>123</v>
@@ -10110,13 +10113,13 @@
         <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D28" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>150</v>
@@ -10127,13 +10130,13 @@
         <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D29" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -10144,13 +10147,13 @@
         <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB8A26-598D-994A-95B9-C875879ECB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73AA384-82DD-2C41-88B9-4DA4969AA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="5" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1093">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -908,9 +908,6 @@
     <t>https://www.pewresearch.org/</t>
   </si>
   <si>
-    <t>https://www.rasmussenreports.com/older_content/home/top_stories/most_recent_articles</t>
-  </si>
-  <si>
     <t>https://maristpoll.marist.edu/latest-polls/</t>
   </si>
   <si>
@@ -3318,6 +3315,15 @@
   </si>
   <si>
     <t>Remove</t>
+  </si>
+  <si>
+    <t>Axios</t>
+  </si>
+  <si>
+    <t>https://www.axios.com/politics-policy</t>
+  </si>
+  <si>
+    <t>https://www.rasmussenreports.com/</t>
   </si>
 </sst>
 </file>
@@ -3743,7 +3749,7 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K3" t="s">
         <v>191</v>
@@ -3751,7 +3757,7 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>192</v>
@@ -3759,7 +3765,7 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K5" t="s">
         <v>193</v>
@@ -3767,7 +3773,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K6" t="s">
         <v>194</v>
@@ -3775,27 +3781,27 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3803,16 +3809,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3855,33 +3861,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>95</v>
@@ -3892,13 +3898,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>78</v>
@@ -3906,33 +3912,33 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D5" t="s">
-        <v>911</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" t="s">
         <v>912</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D6" t="s">
-        <v>913</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>88</v>
@@ -3940,16 +3946,16 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" t="s">
         <v>914</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D7" t="s">
-        <v>915</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -3958,16 +3964,16 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" t="s">
         <v>916</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D8" t="s">
-        <v>917</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -3975,16 +3981,16 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" t="s">
         <v>918</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" t="s">
-        <v>919</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
@@ -3993,37 +3999,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>920</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D11" t="s">
-        <v>921</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4032,13 +4038,13 @@
         <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>162</v>
@@ -4050,13 +4056,13 @@
         <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -4065,16 +4071,16 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
         <v>924</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14" t="s">
-        <v>925</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>84</v>
@@ -4083,70 +4089,70 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D17" t="s">
         <v>928</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D17" t="s">
-        <v>929</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D18" t="s">
         <v>930</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D18" t="s">
-        <v>931</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4154,13 +4160,13 @@
         <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>101</v>
@@ -4168,16 +4174,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>62</v>
@@ -4185,33 +4191,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>59</v>
@@ -4219,16 +4225,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>64</v>
@@ -4236,33 +4242,33 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>65</v>
@@ -4270,16 +4276,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
@@ -4287,16 +4293,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>60</v>
@@ -4304,67 +4310,67 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
@@ -4426,16 +4432,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -4457,7 +4463,7 @@
         <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K5" t="s">
         <v>267</v>
@@ -4572,7 +4578,7 @@
         <v>98</v>
       </c>
       <c r="K14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>188</v>
@@ -4586,10 +4592,10 @@
         <v>96</v>
       </c>
       <c r="K15" t="s">
+        <v>776</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4650,10 +4656,10 @@
         <v>182</v>
       </c>
       <c r="K20" t="s">
+        <v>587</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -4696,10 +4702,10 @@
         <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
@@ -4710,10 +4716,10 @@
         <v>258</v>
       </c>
       <c r="K25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
@@ -4735,7 +4741,7 @@
         <v>260</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
@@ -4778,10 +4784,10 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>250</v>
@@ -4792,18 +4798,18 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K34" t="s">
         <v>274</v>
@@ -4814,18 +4820,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -4919,123 +4925,123 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" t="s">
         <v>427</v>
-      </c>
-      <c r="D11" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" t="s">
         <v>429</v>
-      </c>
-      <c r="D12" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" t="s">
         <v>431</v>
-      </c>
-      <c r="D13" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" t="s">
         <v>433</v>
-      </c>
-      <c r="D14" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -5043,890 +5049,890 @@
         <v>274</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" t="s">
         <v>435</v>
-      </c>
-      <c r="D15" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" t="s">
         <v>437</v>
-      </c>
-      <c r="D16" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" t="s">
         <v>439</v>
-      </c>
-      <c r="D17" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" t="s">
         <v>441</v>
-      </c>
-      <c r="D18" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" t="s">
         <v>443</v>
-      </c>
-      <c r="D19" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" t="s">
         <v>447</v>
-      </c>
-      <c r="D21" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22" t="s">
         <v>449</v>
-      </c>
-      <c r="D22" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" t="s">
         <v>451</v>
-      </c>
-      <c r="D23" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" t="s">
         <v>453</v>
-      </c>
-      <c r="D24" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" t="s">
         <v>455</v>
-      </c>
-      <c r="D25" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D27" t="s">
         <v>458</v>
-      </c>
-      <c r="D27" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" t="s">
         <v>460</v>
-      </c>
-      <c r="D28" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D29" t="s">
         <v>462</v>
-      </c>
-      <c r="D29" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D30" t="s">
         <v>464</v>
-      </c>
-      <c r="D30" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D31" t="s">
         <v>466</v>
-      </c>
-      <c r="D31" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D32" t="s">
         <v>468</v>
-      </c>
-      <c r="D32" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D33" t="s">
         <v>470</v>
-      </c>
-      <c r="D33" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D34" t="s">
         <v>472</v>
-      </c>
-      <c r="D34" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" t="s">
         <v>474</v>
-      </c>
-      <c r="D35" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D36" t="s">
         <v>476</v>
-      </c>
-      <c r="D36" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D37" t="s">
         <v>478</v>
-      </c>
-      <c r="D37" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D38" t="s">
         <v>480</v>
-      </c>
-      <c r="D38" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D39" t="s">
         <v>482</v>
-      </c>
-      <c r="D39" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D40" t="s">
         <v>484</v>
-      </c>
-      <c r="D40" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D42" t="s">
         <v>487</v>
-      </c>
-      <c r="D42" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D43" t="s">
         <v>489</v>
-      </c>
-      <c r="D43" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D44" t="s">
         <v>491</v>
-      </c>
-      <c r="D44" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D46" t="s">
         <v>494</v>
-      </c>
-      <c r="D46" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49" t="s">
         <v>498</v>
-      </c>
-      <c r="D49" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D51" t="s">
         <v>501</v>
-      </c>
-      <c r="D51" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D52" t="s">
         <v>503</v>
-      </c>
-      <c r="D52" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D53" t="s">
         <v>505</v>
-      </c>
-      <c r="D53" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D54" t="s">
         <v>507</v>
-      </c>
-      <c r="D54" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D55" t="s">
         <v>509</v>
-      </c>
-      <c r="D55" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D56" t="s">
         <v>511</v>
-      </c>
-      <c r="D56" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D57" t="s">
         <v>513</v>
-      </c>
-      <c r="D57" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D59" t="s">
         <v>516</v>
-      </c>
-      <c r="D59" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D61" t="s">
         <v>519</v>
-      </c>
-      <c r="D61" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D62" t="s">
         <v>521</v>
-      </c>
-      <c r="D62" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D63" t="s">
         <v>523</v>
-      </c>
-      <c r="D63" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D64" t="s">
         <v>525</v>
-      </c>
-      <c r="D64" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D65" t="s">
         <v>527</v>
-      </c>
-      <c r="D65" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D66" t="s">
         <v>529</v>
-      </c>
-      <c r="D66" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D67" t="s">
         <v>531</v>
-      </c>
-      <c r="D67" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68" t="s">
         <v>533</v>
-      </c>
-      <c r="D68" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D69" t="s">
         <v>535</v>
-      </c>
-      <c r="D69" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D70" t="s">
         <v>537</v>
-      </c>
-      <c r="D70" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D71" t="s">
         <v>539</v>
-      </c>
-      <c r="D71" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D72" t="s">
         <v>541</v>
-      </c>
-      <c r="D72" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D74" t="s">
         <v>546</v>
-      </c>
-      <c r="D74" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D75" t="s">
         <v>544</v>
-      </c>
-      <c r="D75" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D76" t="s">
         <v>548</v>
-      </c>
-      <c r="D76" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D77" t="s">
         <v>550</v>
-      </c>
-      <c r="D77" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D78" t="s">
         <v>552</v>
-      </c>
-      <c r="D78" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D79" t="s">
         <v>554</v>
-      </c>
-      <c r="D79" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D81" t="s">
         <v>557</v>
-      </c>
-      <c r="D81" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D82" t="s">
         <v>559</v>
-      </c>
-      <c r="D82" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D83" t="s">
         <v>561</v>
-      </c>
-      <c r="D83" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D84" t="s">
         <v>563</v>
-      </c>
-      <c r="D84" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D85" t="s">
         <v>565</v>
-      </c>
-      <c r="D85" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D86" t="s">
         <v>567</v>
-      </c>
-      <c r="D86" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D87" t="s">
         <v>569</v>
-      </c>
-      <c r="D87" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D88" t="s">
         <v>571</v>
-      </c>
-      <c r="D88" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D89" t="s">
         <v>573</v>
-      </c>
-      <c r="D89" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D90" t="s">
         <v>575</v>
-      </c>
-      <c r="D90" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D91" t="s">
         <v>577</v>
-      </c>
-      <c r="D91" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D92" t="s">
         <v>579</v>
-      </c>
-      <c r="D92" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D93" t="s">
         <v>581</v>
-      </c>
-      <c r="D93" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D94" t="s">
         <v>583</v>
-      </c>
-      <c r="D94" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D95" t="s">
         <v>585</v>
-      </c>
-      <c r="D95" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6052,263 +6058,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G3" t="s">
+        <v>995</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G3" t="s">
-        <v>996</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
         <v>985</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>996</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G4" t="s">
-        <v>997</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
+        <v>981</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G5" t="s">
+        <v>997</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G5" t="s">
-        <v>998</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>984</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
         <v>994</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C6" t="s">
-        <v>985</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E6" t="s">
-        <v>995</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G6" t="s">
+        <v>998</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G7" t="s">
         <v>1002</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C7" t="s">
-        <v>985</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" t="s">
+        <v>984</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G8" t="s">
         <v>1005</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C8" t="s">
-        <v>985</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>984</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C9" t="s">
-        <v>985</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G9" t="s">
         <v>1009</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>984</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" t="s">
         <v>1012</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C10" t="s">
-        <v>985</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G10" t="s">
         <v>1013</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -6352,36 +6358,36 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -6389,36 +6395,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>99</v>
@@ -6430,13 +6436,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -6445,53 +6451,53 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6506,16 +6512,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6524,56 +6530,56 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>816</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D11" t="s">
-        <v>817</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>249</v>
@@ -6586,19 +6592,19 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
+        <v>815</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14" t="s">
-        <v>816</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="M14" t="s">
         <v>261</v>
@@ -6610,22 +6616,22 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>91</v>
@@ -6637,13 +6643,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -6654,47 +6660,47 @@
         <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>56</v>
@@ -6702,19 +6708,19 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -6722,13 +6728,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -6736,19 +6742,19 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -6756,13 +6762,13 @@
         <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>80</v>
@@ -6770,19 +6776,19 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D24" t="s">
+        <v>820</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D24" t="s">
-        <v>821</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -6790,13 +6796,13 @@
         <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>216</v>
@@ -6804,19 +6810,19 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" t="s">
         <v>774</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D26" t="s">
-        <v>775</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -6824,13 +6830,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>90</v>
@@ -6838,19 +6844,19 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -6858,64 +6864,64 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -6923,121 +6929,121 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D33" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D34" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
         <v>1063</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1064</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -7096,7 +7102,7 @@
   <dimension ref="B3:O39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7115,19 +7121,19 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7139,51 +7145,62 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>619</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="N5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -7194,13 +7211,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7208,16 +7225,16 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -7225,19 +7242,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7245,13 +7262,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>284</v>
@@ -7262,13 +7279,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>35</v>
@@ -7279,13 +7296,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7296,13 +7313,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7313,13 +7330,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -7328,36 +7345,36 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7365,30 +7382,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7396,53 +7413,53 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -7450,13 +7467,13 @@
         <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>190</v>
@@ -7464,36 +7481,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7501,13 +7518,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -7518,30 +7535,30 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>82</v>
@@ -7552,13 +7569,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7569,13 +7586,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7586,13 +7603,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7603,13 +7620,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -7617,16 +7634,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>106</v>
@@ -7634,16 +7651,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>280</v>
@@ -7654,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>51</v>
@@ -7668,16 +7685,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
@@ -7688,67 +7705,67 @@
         <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -7783,6 +7800,7 @@
     <hyperlink ref="F16" r:id="rId28" xr:uid="{7F1731E8-6995-7D47-97C7-A595FF9F5B94}"/>
     <hyperlink ref="F17" r:id="rId29" xr:uid="{669CC7E9-2526-A54D-974D-57644945DB51}"/>
     <hyperlink ref="F39" r:id="rId30" xr:uid="{9CAB2650-37F5-7344-BB3F-5AB3A8A2B4AB}"/>
+    <hyperlink ref="O5" r:id="rId31" xr:uid="{75A30B9B-7079-5D4E-8358-F5B2B6B8E776}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7817,19 +7835,19 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7839,45 +7857,45 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7885,20 +7903,20 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -7909,19 +7927,19 @@
         <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -7932,22 +7950,22 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -7956,13 +7974,13 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -7971,39 +7989,39 @@
         <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
         <v>195</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>169</v>
@@ -8011,19 +8029,19 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -8031,16 +8049,16 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -8048,13 +8066,13 @@
         <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>239</v>
@@ -8065,13 +8083,13 @@
         <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>271</v>
@@ -8079,19 +8097,19 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="C15" t="s">
-        <v>667</v>
-      </c>
-      <c r="D15" t="s">
-        <v>831</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -8099,13 +8117,13 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>165</v>
@@ -8113,19 +8131,19 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D17" t="s">
+        <v>831</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="C17" t="s">
-        <v>667</v>
-      </c>
-      <c r="D17" t="s">
-        <v>832</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -8133,13 +8151,13 @@
         <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>111</v>
@@ -8150,13 +8168,13 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>48</v>
@@ -8164,19 +8182,19 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -8184,13 +8202,13 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>241</v>
@@ -8201,13 +8219,13 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>71</v>
@@ -8215,53 +8233,53 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C24" t="s">
+        <v>666</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="C24" t="s">
-        <v>667</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C25" t="s">
+        <v>666</v>
+      </c>
+      <c r="D25" t="s">
         <v>1080</v>
       </c>
-      <c r="C25" t="s">
-        <v>667</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1081</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -8327,33 +8345,33 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>286</v>
@@ -8361,19 +8379,19 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>287</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -8381,13 +8399,13 @@
         <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>166</v>
@@ -8395,19 +8413,19 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -8415,13 +8433,13 @@
         <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>167</v>
@@ -8432,13 +8450,13 @@
         <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>246</v>
@@ -8446,96 +8464,96 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -8543,16 +8561,16 @@
         <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -8560,13 +8578,13 @@
         <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>256</v>
@@ -8577,13 +8595,13 @@
         <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>168</v>
@@ -8594,13 +8612,13 @@
         <v>269</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>270</v>
@@ -8653,19 +8671,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -8673,39 +8691,39 @@
         <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D4" t="s">
-        <v>716</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>89</v>
@@ -8717,13 +8735,13 @@
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>113</v>
@@ -8734,13 +8752,13 @@
         <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>92</v>
@@ -8751,13 +8769,13 @@
         <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>213</v>
@@ -8765,16 +8783,16 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>273</v>
@@ -8785,16 +8803,16 @@
         <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -8802,13 +8820,13 @@
         <v>231</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>232</v>
@@ -8819,16 +8837,16 @@
         <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -8836,13 +8854,13 @@
         <v>253</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>252</v>
@@ -8850,67 +8868,67 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D13" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D13" t="s">
-        <v>724</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
+        <v>724</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14" t="s">
-        <v>725</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D15" t="s">
+        <v>725</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D15" t="s">
-        <v>726</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>259</v>
@@ -8918,16 +8936,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>66</v>
@@ -8935,36 +8953,36 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D19" t="s">
+        <v>729</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D19" t="s">
-        <v>730</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -8972,13 +8990,13 @@
         <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>242</v>
@@ -8986,33 +9004,33 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D21" t="s">
-        <v>735</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>109</v>
@@ -9020,36 +9038,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D23" t="s">
+        <v>736</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D23" t="s">
-        <v>737</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -9103,19 +9121,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9123,13 +9141,13 @@
         <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>180</v>
@@ -9140,30 +9158,30 @@
         <v>283</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>173</v>
@@ -9171,16 +9189,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>176</v>
@@ -9188,84 +9206,84 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>153</v>
@@ -9273,16 +9291,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>183</v>
@@ -9290,50 +9308,50 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
+        <v>857</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14" t="s">
-        <v>858</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>97</v>
@@ -9344,13 +9362,13 @@
         <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
@@ -9358,33 +9376,33 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>152</v>
@@ -9392,50 +9410,50 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>808</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D21" t="s">
-        <v>864</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>154</v>
@@ -9443,169 +9461,169 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D24" t="s">
+        <v>794</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>846</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D25" t="s">
+        <v>866</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D25" t="s">
-        <v>867</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D26" t="s">
+        <v>788</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>848</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D27" t="s">
+        <v>867</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D27" t="s">
-        <v>868</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>850</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D28" t="s">
+        <v>868</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D28" t="s">
-        <v>869</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D29" t="s">
+        <v>796</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" t="s">
+        <v>785</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -9613,19 +9631,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D33" t="s">
+        <v>790</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -9685,19 +9703,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9705,13 +9723,13 @@
         <v>114</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>115</v>
@@ -9719,16 +9737,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
@@ -9739,13 +9757,13 @@
         <v>117</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>118</v>
@@ -9753,16 +9771,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>170</v>
@@ -9770,16 +9788,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>121</v>
@@ -9787,16 +9805,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>144</v>
@@ -9807,13 +9825,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>125</v>
@@ -9821,16 +9839,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>145</v>
@@ -9838,16 +9856,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>146</v>
@@ -9855,16 +9873,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>127</v>
@@ -9872,16 +9890,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>147</v>
@@ -9892,13 +9910,13 @@
         <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>133</v>
@@ -9906,16 +9924,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>135</v>
@@ -9926,13 +9944,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -9940,16 +9958,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -9957,16 +9975,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>136</v>
@@ -9974,16 +9992,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>137</v>
@@ -9991,16 +10009,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>141</v>
@@ -10008,16 +10026,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>138</v>
@@ -10028,13 +10046,13 @@
         <v>116</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>148</v>
@@ -10045,13 +10063,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>120</v>
@@ -10059,16 +10077,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>149</v>
@@ -10076,16 +10094,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>142</v>
@@ -10096,13 +10114,13 @@
         <v>122</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>123</v>
@@ -10113,13 +10131,13 @@
         <v>126</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>150</v>
@@ -10130,13 +10148,13 @@
         <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -10147,13 +10165,13 @@
         <v>130</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>131</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73AA384-82DD-2C41-88B9-4DA4969AA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B5CC7-24B2-6E4A-9DC6-8E1FA3E65FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="5" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="6" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1097">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -3324,6 +3324,18 @@
   </si>
   <si>
     <t>https://www.rasmussenreports.com/</t>
+  </si>
+  <si>
+    <t>Challenge herd mentality</t>
+  </si>
+  <si>
+    <t>Merion West</t>
+  </si>
+  <si>
+    <t>https://merionwest.com/</t>
+  </si>
+  <si>
+    <t>Across the political spectrum</t>
   </si>
 </sst>
 </file>
@@ -3843,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4E983-9DDC-5C42-A8DE-575FA41D9D39}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F31"/>
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4357,23 +4369,6 @@
       </c>
       <c r="F30" s="1" t="s">
         <v>904</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D31" t="s">
-        <v>934</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4408,8 +4403,7 @@
     <hyperlink ref="F28" r:id="rId25" xr:uid="{AB4F95C0-ACA1-314A-8F94-655B04525262}"/>
     <hyperlink ref="F30" r:id="rId26" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
     <hyperlink ref="F21" r:id="rId27" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
-    <hyperlink ref="F10" r:id="rId29" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
+    <hyperlink ref="F10" r:id="rId28" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7812,7 +7806,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8283,8 +8277,55 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C27" t="s">
+        <v>666</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E27" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D28" t="s">
+        <v>731</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H29" s="1"/>
@@ -8320,6 +8361,9 @@
     <hyperlink ref="I4" r:id="rId24" xr:uid="{18242E23-68BC-1D43-9DAC-5784E2B871DD}"/>
     <hyperlink ref="I6" r:id="rId25" xr:uid="{ED3DE6B4-5A73-5A4D-81DF-B9D5205BF560}"/>
     <hyperlink ref="F25" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
+    <hyperlink ref="F26" r:id="rId27" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
+    <hyperlink ref="F28" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8330,7 +8374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADF352-5B5A-244B-A5F9-4FFB164F2F83}">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8653,10 +8697,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A60BEE-556A-8141-853B-FECA0E5B23E1}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8987,86 +9031,69 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>243</v>
+        <v>732</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>242</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>732</v>
+      <c r="B21" t="s">
+        <v>657</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>733</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>657</v>
+      <c r="B22" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>658</v>
+        <v>835</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D24" t="s">
-        <v>737</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F24" s="1" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -9089,12 +9116,11 @@
     <hyperlink ref="F17" r:id="rId15" xr:uid="{E98266A4-0DEC-6945-B398-EFF4C7303215}"/>
     <hyperlink ref="F18" r:id="rId16" xr:uid="{C794CE3A-4711-A54F-80E5-90DFA4D214C4}"/>
     <hyperlink ref="F19" r:id="rId17" xr:uid="{B9DA166F-3108-6E44-A5BE-D8B4D252E668}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{DACFA19E-0B3F-354B-9E6B-D7FE9375F999}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{1C9C463C-A2BE-3D47-99DA-1F5F59991E86}"/>
-    <hyperlink ref="K4" r:id="rId21" xr:uid="{329A46AC-9F13-8044-BA74-02364ACE46F1}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{6287F184-DE4C-0D48-8091-8929A7C0227E}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{88DD0293-2CB4-0547-A008-647D2BEC1BE7}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{DACFA19E-0B3F-354B-9E6B-D7FE9375F999}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{1C9C463C-A2BE-3D47-99DA-1F5F59991E86}"/>
+    <hyperlink ref="K4" r:id="rId20" xr:uid="{329A46AC-9F13-8044-BA74-02364ACE46F1}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{6287F184-DE4C-0D48-8091-8929A7C0227E}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{88DD0293-2CB4-0547-A008-647D2BEC1BE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B5CC7-24B2-6E4A-9DC6-8E1FA3E65FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654BCA20-EEEE-7D43-822A-8EB32D92200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="6" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="9" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1098">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -2726,9 +2726,6 @@
     <t>Columbia University</t>
   </si>
   <si>
-    <t>https://quillette.com/category/politics/</t>
-  </si>
-  <si>
     <t>China Daily</t>
   </si>
   <si>
@@ -3336,6 +3333,12 @@
   </si>
   <si>
     <t>Across the political spectrum</t>
+  </si>
+  <si>
+    <t>Long-form analysis</t>
+  </si>
+  <si>
+    <t>https://quillette.com/category/</t>
   </si>
 </sst>
 </file>
@@ -3813,7 +3816,7 @@
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3821,16 +3824,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3855,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4E983-9DDC-5C42-A8DE-575FA41D9D39}">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3890,13 +3893,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>666</v>
@@ -3913,7 +3916,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -3924,30 +3927,30 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D5" t="s">
-        <v>910</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D6" t="s">
         <v>911</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D6" t="s">
-        <v>912</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>666</v>
@@ -3958,13 +3961,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" t="s">
         <v>913</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D7" t="s">
-        <v>914</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
@@ -3976,13 +3979,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" t="s">
         <v>915</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D8" t="s">
-        <v>916</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>666</v>
@@ -3993,13 +3996,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" t="s">
         <v>917</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D9" t="s">
-        <v>918</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>666</v>
@@ -4011,37 +4014,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D11" t="s">
+        <v>919</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D11" t="s">
-        <v>920</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4053,7 +4056,7 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>666</v>
@@ -4071,7 +4074,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>666</v>
@@ -4083,13 +4086,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
         <v>923</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" t="s">
-        <v>924</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>666</v>
@@ -4101,121 +4104,121 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>929</v>
+      <c r="B18" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>897</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>102</v>
+      <c r="B19" s="2" t="s">
+        <v>966</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>967</v>
+        <v>930</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>905</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -4226,13 +4229,13 @@
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -4243,13 +4246,13 @@
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -4260,13 +4263,13 @@
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>898</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -4277,18 +4280,18 @@
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>666</v>
@@ -4300,41 +4303,41 @@
         <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>975</v>
+        <v>934</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>935</v>
+        <v>972</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -4345,65 +4348,47 @@
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D30" t="s">
-        <v>921</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C32">
-    <sortCondition ref="B3:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C31">
+    <sortCondition ref="B3:B31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" xr:uid="{FB871221-D2EE-DC4E-885A-97F7A5E466D0}"/>
-    <hyperlink ref="F20" r:id="rId2" xr:uid="{F988DF3C-D983-064B-BDEE-03A941DD92E6}"/>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{FB871221-D2EE-DC4E-885A-97F7A5E466D0}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{F988DF3C-D983-064B-BDEE-03A941DD92E6}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{DB559658-5387-2B45-AE26-D756F4FC6B4C}"/>
     <hyperlink ref="F13" r:id="rId4" xr:uid="{CE05D816-A511-EC4D-AE5A-A36A056E6362}"/>
     <hyperlink ref="F9" r:id="rId5" xr:uid="{9D9E4709-2359-6C41-B481-F95160AC508C}"/>
-    <hyperlink ref="F26" r:id="rId6" xr:uid="{090621C6-718C-0742-AA8C-D8C5B71858E0}"/>
+    <hyperlink ref="F25" r:id="rId6" xr:uid="{090621C6-718C-0742-AA8C-D8C5B71858E0}"/>
     <hyperlink ref="F3" r:id="rId7" xr:uid="{F4B912B0-8AE6-D640-8BB5-EDF4AA5A0880}"/>
-    <hyperlink ref="F19" r:id="rId8" xr:uid="{E4C5FBEE-C08A-A24A-BB76-835BF0C25FFD}"/>
-    <hyperlink ref="F22" r:id="rId9" xr:uid="{AEB1B8B7-12D6-FF4E-849D-F0BE36A98E1F}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{ED18E0B9-EB23-8B4C-9285-086F96DF6633}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{99423943-2A1B-AF4B-BEF1-06E2211BC638}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{E4C5FBEE-C08A-A24A-BB76-835BF0C25FFD}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{AEB1B8B7-12D6-FF4E-849D-F0BE36A98E1F}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{ED18E0B9-EB23-8B4C-9285-086F96DF6633}"/>
+    <hyperlink ref="F24" r:id="rId11" xr:uid="{99423943-2A1B-AF4B-BEF1-06E2211BC638}"/>
     <hyperlink ref="F4" r:id="rId12" xr:uid="{F08764AA-76C2-164C-9E6A-CD7570D5CEE8}"/>
     <hyperlink ref="F14" r:id="rId13" xr:uid="{F5CBBAB3-A1D2-914A-9E3B-3A3075F3E8F7}"/>
     <hyperlink ref="F6" r:id="rId14" xr:uid="{8D89D47F-ABF2-8743-9F4C-07F1E84783DD}"/>
     <hyperlink ref="F8" r:id="rId15" xr:uid="{EC826CD3-1A26-7240-B115-9EED90079776}"/>
     <hyperlink ref="F12" r:id="rId16" xr:uid="{FF8FCBB9-2EBF-BB41-953E-7ECD2DE15CCE}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
-    <hyperlink ref="F5" r:id="rId18" xr:uid="{EE260883-24A8-904F-9C48-183314CF8077}"/>
-    <hyperlink ref="F15" r:id="rId19" xr:uid="{1FB44300-AD01-2941-B9C6-24AAFBBC25C7}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{7E3B384F-ACEB-1346-946E-EF021356C7F5}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{67BBD83A-E330-034A-B1F1-B159A7245968}"/>
-    <hyperlink ref="F11" r:id="rId22" xr:uid="{D6D12C11-C8E7-2743-BAB4-7D0D793F8C41}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{B6796569-2AC1-8041-886E-7DBCB9439DC3}"/>
-    <hyperlink ref="F16" r:id="rId24" xr:uid="{2287B03B-CC26-924F-84B6-EC17F03FD8F8}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{AB4F95C0-ACA1-314A-8F94-655B04525262}"/>
-    <hyperlink ref="F30" r:id="rId26" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
-    <hyperlink ref="F21" r:id="rId27" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
-    <hyperlink ref="F10" r:id="rId28" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
+    <hyperlink ref="F5" r:id="rId17" xr:uid="{EE260883-24A8-904F-9C48-183314CF8077}"/>
+    <hyperlink ref="F15" r:id="rId18" xr:uid="{1FB44300-AD01-2941-B9C6-24AAFBBC25C7}"/>
+    <hyperlink ref="F17" r:id="rId19" xr:uid="{7E3B384F-ACEB-1346-946E-EF021356C7F5}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{67BBD83A-E330-034A-B1F1-B159A7245968}"/>
+    <hyperlink ref="F11" r:id="rId21" xr:uid="{D6D12C11-C8E7-2743-BAB4-7D0D793F8C41}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{B6796569-2AC1-8041-886E-7DBCB9439DC3}"/>
+    <hyperlink ref="F16" r:id="rId23" xr:uid="{2287B03B-CC26-924F-84B6-EC17F03FD8F8}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{AB4F95C0-ACA1-314A-8F94-655B04525262}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
+    <hyperlink ref="F20" r:id="rId26" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
+    <hyperlink ref="F10" r:id="rId27" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4800,10 +4785,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K34" t="s">
         <v>274</v>
@@ -4814,18 +4799,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6037,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>666</v>
@@ -6070,7 +6055,7 @@
         <v>666</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>666</v>
@@ -6081,234 +6066,234 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G3" t="s">
+        <v>994</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G3" t="s">
-        <v>995</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
         <v>984</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>995</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G4" t="s">
-        <v>996</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E5" t="s">
+        <v>980</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G5" t="s">
+        <v>996</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G5" t="s">
-        <v>997</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>992</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>983</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
         <v>993</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C6" t="s">
-        <v>984</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>994</v>
-      </c>
       <c r="F6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G6" t="s">
+        <v>997</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E7" t="s">
+        <v>999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G7" t="s">
         <v>1001</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C7" t="s">
-        <v>984</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" t="s">
+        <v>983</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G8" t="s">
         <v>1004</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C8" t="s">
-        <v>984</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>983</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
         <v>1007</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C9" t="s">
-        <v>984</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G9" t="s">
         <v>1008</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>983</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" t="s">
         <v>1011</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C10" t="s">
-        <v>984</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G10" t="s">
         <v>1012</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -6401,10 +6386,10 @@
         <v>638</v>
       </c>
       <c r="M4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -6457,7 +6442,7 @@
         <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
@@ -6515,7 +6500,7 @@
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6556,7 +6541,7 @@
         <v>625</v>
       </c>
       <c r="M12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -6573,7 +6558,7 @@
         <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>249</v>
@@ -6622,7 +6607,7 @@
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>744</v>
@@ -6663,7 +6648,7 @@
         <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -6816,7 +6801,7 @@
         <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -6923,121 +6908,121 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D33" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
         <v>1062</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1063</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -7145,7 +7130,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -7154,10 +7139,10 @@
         <v>619</v>
       </c>
       <c r="N4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7362,13 +7347,13 @@
         <v>666</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7747,19 +7732,19 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -7806,7 +7791,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7857,16 +7842,16 @@
         <v>666</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -7883,13 +7868,13 @@
         <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7900,7 +7885,7 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>666</v>
@@ -7959,7 +7944,7 @@
         <v>747</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -7983,7 +7968,7 @@
         <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -8052,7 +8037,7 @@
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -8114,7 +8099,7 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>666</v>
@@ -8148,7 +8133,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>666</v>
@@ -8233,7 +8218,7 @@
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>666</v>
@@ -8244,36 +8229,36 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C24" t="s">
+        <v>666</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="C24" t="s">
-        <v>666</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C25" t="s">
+        <v>666</v>
+      </c>
+      <c r="D25" t="s">
         <v>1079</v>
       </c>
-      <c r="C25" t="s">
-        <v>666</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1080</v>
-      </c>
       <c r="E25" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -8284,7 +8269,7 @@
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>666</v>
@@ -8295,19 +8280,19 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C27" t="s">
+        <v>666</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E27" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C27" t="s">
-        <v>666</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E27" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -8328,6 +8313,21 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1097</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
   </sheetData>
@@ -8364,6 +8364,7 @@
     <hyperlink ref="F26" r:id="rId27" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
     <hyperlink ref="F27" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
     <hyperlink ref="F28" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
+    <hyperlink ref="F29" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8423,7 +8424,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C5" t="s">
         <v>666</v>
@@ -8435,7 +8436,7 @@
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -8457,7 +8458,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C7" t="s">
         <v>666</v>
@@ -8508,7 +8509,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C10" t="s">
         <v>666</v>
@@ -8525,7 +8526,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C11" t="s">
         <v>666</v>
@@ -8557,7 +8558,7 @@
         <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -8699,8 +8700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A60BEE-556A-8141-853B-FECA0E5B23E1}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8747,7 +8748,7 @@
         <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -8890,7 +8891,7 @@
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -9009,7 +9010,7 @@
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -9094,7 +9095,7 @@
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -9198,7 +9199,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>666</v>
@@ -9215,7 +9216,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>666</v>
@@ -9232,7 +9233,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
@@ -9249,7 +9250,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>666</v>
@@ -9266,7 +9267,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>666</v>
@@ -9283,7 +9284,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>666</v>
@@ -9300,7 +9301,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>666</v>
@@ -9317,7 +9318,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>666</v>
@@ -9368,7 +9369,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>666</v>
@@ -9402,7 +9403,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>666</v>
@@ -9419,7 +9420,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>666</v>
@@ -9436,7 +9437,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>666</v>
@@ -9470,7 +9471,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>666</v>
@@ -9487,7 +9488,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>666</v>
@@ -9504,7 +9505,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>666</v>
@@ -9538,7 +9539,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>666</v>
@@ -9589,7 +9590,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>666</v>
@@ -9606,7 +9607,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>666</v>
@@ -9640,7 +9641,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>666</v>
@@ -9763,7 +9764,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>666</v>
@@ -9797,7 +9798,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>666</v>
@@ -9814,7 +9815,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
@@ -9831,7 +9832,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>666</v>
@@ -9865,7 +9866,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>666</v>
@@ -9882,7 +9883,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>666</v>
@@ -9899,7 +9900,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>666</v>
@@ -9916,7 +9917,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>666</v>
@@ -9950,7 +9951,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>666</v>
@@ -9984,7 +9985,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>666</v>
@@ -10001,7 +10002,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>666</v>
@@ -10018,7 +10019,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>666</v>
@@ -10035,7 +10036,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>666</v>
@@ -10052,7 +10053,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>666</v>
@@ -10075,7 +10076,7 @@
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>666</v>
@@ -10103,7 +10104,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>666</v>
@@ -10126,7 +10127,7 @@
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>666</v>
@@ -10160,7 +10161,7 @@
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>666</v>
@@ -10177,7 +10178,7 @@
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>666</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654BCA20-EEEE-7D43-822A-8EB32D92200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA6851-30EA-6744-ACE1-528C335E4E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="9" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Publishing" sheetId="8" r:id="rId1"/>
@@ -3338,7 +3338,7 @@
     <t>Long-form analysis</t>
   </si>
   <si>
-    <t>https://quillette.com/category/</t>
+    <t>https://quillette.com/</t>
   </si>
 </sst>
 </file>
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4E983-9DDC-5C42-A8DE-575FA41D9D39}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7790,8 +7790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA6851-30EA-6744-ACE1-528C335E4E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678ED3C2-9E17-184B-9BC4-DF7E5FF880CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1101">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -3339,6 +3339,15 @@
   </si>
   <si>
     <t>https://quillette.com/</t>
+  </si>
+  <si>
+    <t>C-SPAN</t>
+  </si>
+  <si>
+    <t>https://www.c-span.org/</t>
+  </si>
+  <si>
+    <t>Get word for word</t>
   </si>
 </sst>
 </file>
@@ -4400,7 +4409,7 @@
   <dimension ref="C3:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4569,12 +4578,6 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="K15" t="s">
-        <v>776</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
@@ -4843,33 +4846,32 @@
     <hyperlink ref="L12" r:id="rId26" xr:uid="{0DE12C35-5D8C-EC45-BC8B-2C0163FBF5D9}"/>
     <hyperlink ref="L13" r:id="rId27" xr:uid="{D0EF971F-AD1D-544D-BF1B-EEA0BE759A4E}"/>
     <hyperlink ref="L14" r:id="rId28" xr:uid="{AF177089-94D0-9C4D-A3F4-C03747C8DEAD}"/>
-    <hyperlink ref="L15" r:id="rId29" xr:uid="{14C54F5B-E126-4743-950B-1695329D31EE}"/>
-    <hyperlink ref="L10" r:id="rId30" xr:uid="{EF8A37CE-B0CF-7842-A197-37695B14A393}"/>
-    <hyperlink ref="L9" r:id="rId31" xr:uid="{8E375255-BAE2-F34D-AEF3-9409AB417209}"/>
-    <hyperlink ref="L6" r:id="rId32" xr:uid="{6ABBB237-5B88-AB46-80C1-4145D1DE24D2}"/>
-    <hyperlink ref="L7" r:id="rId33" xr:uid="{72726B07-2202-0D47-8C5D-29E3F3A12DC9}"/>
-    <hyperlink ref="L5" r:id="rId34" xr:uid="{8C77B297-4C1A-594B-BFD0-1982D0A1BF18}"/>
-    <hyperlink ref="L4" r:id="rId35" xr:uid="{77A94807-906F-FA4D-836B-10991294DB03}"/>
-    <hyperlink ref="L8" r:id="rId36" xr:uid="{EA087299-724E-244A-B0C1-FC7EAF9336AC}"/>
-    <hyperlink ref="L3" r:id="rId37" location="politics" xr:uid="{2CA39F4E-33A3-EA46-B197-AB568505919E}"/>
-    <hyperlink ref="L19" r:id="rId38" xr:uid="{25B842FC-2E94-624D-AD9A-0C3D3496DD2B}"/>
-    <hyperlink ref="L18" r:id="rId39" xr:uid="{667DFF61-129E-5245-90C4-8D83D85CC4B7}"/>
-    <hyperlink ref="L17" r:id="rId40" xr:uid="{27D81FFA-A11F-4B4D-9986-C7E06B3E5BEA}"/>
-    <hyperlink ref="L21" r:id="rId41" xr:uid="{9FD754D5-8F4B-2F45-B853-9215748265D3}"/>
-    <hyperlink ref="L24" r:id="rId42" location="politics" xr:uid="{59D55099-C26E-4348-923C-D6BE5A13C451}"/>
-    <hyperlink ref="L20" r:id="rId43" xr:uid="{05D428DE-5D28-9741-A4C8-D49D1B99A30F}"/>
-    <hyperlink ref="L25" r:id="rId44" xr:uid="{7192F838-7E75-DB4D-8E4C-22652EE645B4}"/>
-    <hyperlink ref="L27" r:id="rId45" xr:uid="{7C0A5563-5617-7646-985D-01E86954DCB0}"/>
-    <hyperlink ref="L34" r:id="rId46" xr:uid="{1E3A4E54-E0EE-2540-BC05-F73D93437115}"/>
-    <hyperlink ref="L33" r:id="rId47" location="politics" xr:uid="{3BE2DE24-DB41-C94E-8592-B6C0ACD61C09}"/>
-    <hyperlink ref="L30" r:id="rId48" xr:uid="{1DF273F4-BA09-F944-81AD-A5FC5F9ECC0F}"/>
-    <hyperlink ref="L32" r:id="rId49" xr:uid="{DFBF9D39-FFF1-7B47-A2B3-F37FF64C7622}"/>
-    <hyperlink ref="L31" r:id="rId50" xr:uid="{725D878B-1AE6-EF49-81F6-FC958B35DB11}"/>
-    <hyperlink ref="D31" r:id="rId51" xr:uid="{1FAAEDDB-FC7D-B840-93A4-828248E97345}"/>
-    <hyperlink ref="D32" r:id="rId52" xr:uid="{297D0383-1198-0B43-A3AB-00D53C1A426F}"/>
-    <hyperlink ref="D34" r:id="rId53" xr:uid="{24516360-6419-5342-8CB1-A2E2166ABAFE}"/>
-    <hyperlink ref="D35" r:id="rId54" xr:uid="{234D7995-DD2A-C841-8860-2E3A3BDCA68B}"/>
-    <hyperlink ref="D36" r:id="rId55" xr:uid="{7B8EA1B7-B39B-C448-84CC-D5E9C7F83C90}"/>
+    <hyperlink ref="L10" r:id="rId29" xr:uid="{EF8A37CE-B0CF-7842-A197-37695B14A393}"/>
+    <hyperlink ref="L9" r:id="rId30" xr:uid="{8E375255-BAE2-F34D-AEF3-9409AB417209}"/>
+    <hyperlink ref="L6" r:id="rId31" xr:uid="{6ABBB237-5B88-AB46-80C1-4145D1DE24D2}"/>
+    <hyperlink ref="L7" r:id="rId32" xr:uid="{72726B07-2202-0D47-8C5D-29E3F3A12DC9}"/>
+    <hyperlink ref="L5" r:id="rId33" xr:uid="{8C77B297-4C1A-594B-BFD0-1982D0A1BF18}"/>
+    <hyperlink ref="L4" r:id="rId34" xr:uid="{77A94807-906F-FA4D-836B-10991294DB03}"/>
+    <hyperlink ref="L8" r:id="rId35" xr:uid="{EA087299-724E-244A-B0C1-FC7EAF9336AC}"/>
+    <hyperlink ref="L3" r:id="rId36" location="politics" xr:uid="{2CA39F4E-33A3-EA46-B197-AB568505919E}"/>
+    <hyperlink ref="L19" r:id="rId37" xr:uid="{25B842FC-2E94-624D-AD9A-0C3D3496DD2B}"/>
+    <hyperlink ref="L18" r:id="rId38" xr:uid="{667DFF61-129E-5245-90C4-8D83D85CC4B7}"/>
+    <hyperlink ref="L17" r:id="rId39" xr:uid="{27D81FFA-A11F-4B4D-9986-C7E06B3E5BEA}"/>
+    <hyperlink ref="L21" r:id="rId40" xr:uid="{9FD754D5-8F4B-2F45-B853-9215748265D3}"/>
+    <hyperlink ref="L24" r:id="rId41" location="politics" xr:uid="{59D55099-C26E-4348-923C-D6BE5A13C451}"/>
+    <hyperlink ref="L20" r:id="rId42" xr:uid="{05D428DE-5D28-9741-A4C8-D49D1B99A30F}"/>
+    <hyperlink ref="L25" r:id="rId43" xr:uid="{7192F838-7E75-DB4D-8E4C-22652EE645B4}"/>
+    <hyperlink ref="L27" r:id="rId44" xr:uid="{7C0A5563-5617-7646-985D-01E86954DCB0}"/>
+    <hyperlink ref="L34" r:id="rId45" xr:uid="{1E3A4E54-E0EE-2540-BC05-F73D93437115}"/>
+    <hyperlink ref="L33" r:id="rId46" location="politics" xr:uid="{3BE2DE24-DB41-C94E-8592-B6C0ACD61C09}"/>
+    <hyperlink ref="L30" r:id="rId47" xr:uid="{1DF273F4-BA09-F944-81AD-A5FC5F9ECC0F}"/>
+    <hyperlink ref="L32" r:id="rId48" xr:uid="{DFBF9D39-FFF1-7B47-A2B3-F37FF64C7622}"/>
+    <hyperlink ref="L31" r:id="rId49" xr:uid="{725D878B-1AE6-EF49-81F6-FC958B35DB11}"/>
+    <hyperlink ref="D31" r:id="rId50" xr:uid="{1FAAEDDB-FC7D-B840-93A4-828248E97345}"/>
+    <hyperlink ref="D32" r:id="rId51" xr:uid="{297D0383-1198-0B43-A3AB-00D53C1A426F}"/>
+    <hyperlink ref="D34" r:id="rId52" xr:uid="{24516360-6419-5342-8CB1-A2E2166ABAFE}"/>
+    <hyperlink ref="D35" r:id="rId53" xr:uid="{234D7995-DD2A-C841-8860-2E3A3BDCA68B}"/>
+    <hyperlink ref="D36" r:id="rId54" xr:uid="{7B8EA1B7-B39B-C448-84CC-D5E9C7F83C90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6317,7 +6319,7 @@
   <dimension ref="B2:P39"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6408,7 +6410,12 @@
       <c r="F5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="M5" t="s">
+        <v>776</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -7070,6 +7077,8 @@
     <hyperlink ref="F38" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
     <hyperlink ref="F39" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
+    <hyperlink ref="N5" r:id="rId41" xr:uid="{14C54F5B-E126-4743-950B-1695329D31EE}"/>
+    <hyperlink ref="N4" r:id="rId42" xr:uid="{8FE7AF83-3DD7-B549-95A6-4D136A129D5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7788,10 +7797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
-  <dimension ref="B1:K29"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8329,6 +8338,23 @@
         <v>1097</v>
       </c>
       <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1099</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F23">
@@ -8365,6 +8391,7 @@
     <hyperlink ref="F27" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
     <hyperlink ref="F28" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
     <hyperlink ref="F29" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
+    <hyperlink ref="F30" r:id="rId31" xr:uid="{0AE86E5A-E933-AA40-8862-C72DBA4EB4F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678ED3C2-9E17-184B-9BC4-DF7E5FF880CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C527F3-7CDF-804B-A96C-F6CC1572387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Publishing" sheetId="8" r:id="rId1"/>
+    <sheet name="Media" sheetId="8" r:id="rId1"/>
     <sheet name="AzLinks" sheetId="36" r:id="rId2"/>
     <sheet name="Republican" sheetId="18" r:id="rId3"/>
     <sheet name="Democratic" sheetId="17" r:id="rId4"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1112">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -2255,9 +2255,6 @@
     <t>Top weekly topics</t>
   </si>
   <si>
-    <t>Improve lives through tax policies</t>
-  </si>
-  <si>
     <t>Make this data more accessible</t>
   </si>
   <si>
@@ -2582,9 +2579,6 @@
     <t>Peaceful, prosperous, free</t>
   </si>
   <si>
-    <t>Next Gen Conservatism</t>
-  </si>
-  <si>
     <t>St. Louis Post-Dispatch</t>
   </si>
   <si>
@@ -3348,6 +3342,45 @@
   </si>
   <si>
     <t>Get word for word</t>
+  </si>
+  <si>
+    <t>AllSides</t>
+  </si>
+  <si>
+    <t>https://trends.google.com/trending?geo=US&amp;category=14</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/</t>
+  </si>
+  <si>
+    <t>People, places, and economy</t>
+  </si>
+  <si>
+    <t>US Census</t>
+  </si>
+  <si>
+    <t>First Things</t>
+  </si>
+  <si>
+    <t>https://firstthings.com/</t>
+  </si>
+  <si>
+    <t>https://im1776.com/</t>
+  </si>
+  <si>
+    <t>IM-1776</t>
+  </si>
+  <si>
+    <t>Cultural and political analysis</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>https://www.palladiummag.com/</t>
+  </si>
+  <si>
+    <t>Governance Futurism</t>
   </si>
 </sst>
 </file>
@@ -3753,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239E30EE-7419-BE4E-98F9-88415CDDF3D9}">
-  <dimension ref="C3:K20"/>
+  <dimension ref="C3:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3823,26 +3856,21 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>1037</v>
-      </c>
-    </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3853,12 +3881,26 @@
         <v>271</v>
       </c>
       <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1100</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" display="https://www.feedspot.com/" xr:uid="{EB501201-7C5A-744B-AEF3-9619BA422275}"/>
     <hyperlink ref="D19" r:id="rId2" xr:uid="{E1593B7B-86E6-D74A-ABD7-AE0EFFAF69D7}"/>
     <hyperlink ref="D20" r:id="rId3" xr:uid="{9AFE801E-E646-7F40-9A52-E773BEBFB5A5}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{6FBAE403-7CAA-234F-8FEE-88A434588B58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3902,13 +3944,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>666</v>
@@ -3925,7 +3967,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -3936,30 +3978,30 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>666</v>
@@ -3970,13 +4012,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
@@ -3988,13 +4030,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>666</v>
@@ -4005,13 +4047,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>666</v>
@@ -4023,37 +4065,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4065,7 +4107,7 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>666</v>
@@ -4083,7 +4125,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>666</v>
@@ -4095,13 +4137,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>666</v>
@@ -4113,53 +4155,53 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4170,7 +4212,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
@@ -4181,13 +4223,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>666</v>
@@ -4198,30 +4240,30 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
@@ -4232,13 +4274,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
@@ -4249,30 +4291,30 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>666</v>
@@ -4283,13 +4325,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
@@ -4300,13 +4342,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>666</v>
@@ -4317,53 +4359,53 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -4788,10 +4830,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="K34" t="s">
         <v>274</v>
@@ -4802,18 +4844,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -6039,7 +6081,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>666</v>
@@ -6057,7 +6099,7 @@
         <v>666</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>666</v>
@@ -6068,234 +6110,234 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C4" t="s">
+        <v>981</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
+        <v>982</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>993</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E4" t="s">
-        <v>984</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G4" t="s">
-        <v>995</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G6" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>998</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E7" t="s">
+        <v>997</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G7" t="s">
+        <v>999</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C7" t="s">
-        <v>983</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E7" t="s">
-        <v>999</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" t="s">
+        <v>981</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C8" t="s">
-        <v>983</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>981</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G9" t="s">
         <v>1006</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C9" t="s">
-        <v>983</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>981</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G10" t="s">
         <v>1010</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C10" t="s">
-        <v>983</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -6319,7 +6361,7 @@
   <dimension ref="B2:P39"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B2" sqref="B2:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6356,13 +6398,13 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>666</v>
@@ -6373,117 +6415,122 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>738</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>845</v>
+        <v>700</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>638</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>739</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>700</v>
+        <v>842</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
+        <v>775</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>632</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>843</v>
+        <v>701</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>632</v>
+        <v>319</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D7" t="s">
-        <v>701</v>
+      <c r="D7" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>319</v>
+        <v>817</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>702</v>
+      <c r="D8" t="s">
+        <v>712</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" t="s">
         <v>818</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D9" t="s">
-        <v>712</v>
-      </c>
       <c r="E9" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>307</v>
+        <v>1033</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6495,19 +6542,19 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1035</v>
+        <v>634</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6516,19 +6563,19 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>633</v>
+        <v>740</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>816</v>
+        <v>697</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -6539,33 +6586,33 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>625</v>
+        <v>1068</v>
       </c>
       <c r="M12" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>742</v>
+      <c r="B13" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>703</v>
+        <v>814</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1070</v>
+        <v>297</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>249</v>
@@ -6577,20 +6624,20 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>296</v>
+      <c r="B14" t="s">
+        <v>811</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>1031</v>
       </c>
       <c r="M14" t="s">
         <v>261</v>
@@ -6602,22 +6649,22 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>812</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>842</v>
+        <v>709</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1033</v>
+        <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>91</v>
@@ -6625,229 +6672,236 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>9</v>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>709</v>
+        <v>813</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>53</v>
+      <c r="B17" t="s">
+        <v>626</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>814</v>
+        <v>699</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1069</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>626</v>
+      <c r="B18" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>699</v>
+        <v>812</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>698</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>743</v>
+      <c r="B19" t="s">
+        <v>627</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>813</v>
+        <v>774</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>627</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>775</v>
+        <v>704</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>306</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>810</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>6</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>811</v>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>637</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>79</v>
+      <c r="B23" t="s">
+        <v>299</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>299</v>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>820</v>
+        <v>714</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>300</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>81</v>
+      <c r="B25" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>714</v>
+        <v>773</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>216</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>773</v>
+      <c r="B26" t="s">
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1034</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>592</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>820</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>2</v>
+        <v>739</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
@@ -6859,75 +6913,75 @@
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>740</v>
+      <c r="B30" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>822</v>
+        <v>713</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>630</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>596</v>
+      <c r="B31" t="s">
+        <v>639</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>308</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>639</v>
+        <v>977</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>711</v>
+        <v>1017</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>7</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D33" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -6949,36 +7003,36 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1017</v>
+        <v>1054</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D35" t="s">
-        <v>1020</v>
+        <v>1056</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1016</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D36" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -6989,7 +7043,7 @@
         <v>666</v>
       </c>
       <c r="D37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>666</v>
@@ -7000,7 +7054,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>666</v>
@@ -7012,24 +7066,24 @@
         <v>666</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1061</v>
+        <v>1107</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D39" t="s">
-        <v>1062</v>
+        <v>1108</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1044</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -7037,48 +7091,50 @@
     <sortCondition ref="B3:B32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
-    <hyperlink ref="F29" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
-    <hyperlink ref="F17" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
-    <hyperlink ref="F25" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
-    <hyperlink ref="F31" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
+    <hyperlink ref="F22" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
+    <hyperlink ref="F24" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
+    <hyperlink ref="F30" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
     <hyperlink ref="N14" r:id="rId8" xr:uid="{5C71A646-0C34-7446-BD83-87F7E8001227}"/>
-    <hyperlink ref="F24" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
-    <hyperlink ref="F20" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
+    <hyperlink ref="F23" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
     <hyperlink ref="N15" r:id="rId12" xr:uid="{8BA99F8F-8BCD-B846-866B-66C064CD1CB4}"/>
-    <hyperlink ref="F27" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
-    <hyperlink ref="F19" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
-    <hyperlink ref="F13" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
-    <hyperlink ref="F21" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
-    <hyperlink ref="F10" r:id="rId18" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
-    <hyperlink ref="F8" r:id="rId19" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
-    <hyperlink ref="F26" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
-    <hyperlink ref="F12" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
-    <hyperlink ref="F28" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
-    <hyperlink ref="F30" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
+    <hyperlink ref="F26" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
+    <hyperlink ref="F9" r:id="rId18" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
+    <hyperlink ref="F25" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
+    <hyperlink ref="F11" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
+    <hyperlink ref="F27" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
     <hyperlink ref="F3" r:id="rId24" xr:uid="{C0AF8236-E274-D24E-B8EE-D74B81281D4F}"/>
-    <hyperlink ref="F7" r:id="rId25" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
-    <hyperlink ref="F11" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
-    <hyperlink ref="F22" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
-    <hyperlink ref="F4" r:id="rId29" xr:uid="{19B0417A-8CE3-744D-A35A-06E087CBA02C}"/>
-    <hyperlink ref="F32" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
-    <hyperlink ref="F9" r:id="rId31" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
-    <hyperlink ref="F18" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
-    <hyperlink ref="F33" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
-    <hyperlink ref="F34" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
-    <hyperlink ref="F35" r:id="rId35" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
-    <hyperlink ref="F36" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
-    <hyperlink ref="F37" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
-    <hyperlink ref="F38" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
-    <hyperlink ref="F39" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
+    <hyperlink ref="F6" r:id="rId25" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
+    <hyperlink ref="F10" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
+    <hyperlink ref="F14" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
+    <hyperlink ref="N16" r:id="rId29" xr:uid="{19B0417A-8CE3-744D-A35A-06E087CBA02C}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
+    <hyperlink ref="F8" r:id="rId31" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
+    <hyperlink ref="F17" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
+    <hyperlink ref="F32" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
+    <hyperlink ref="F33" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
+    <hyperlink ref="F34" r:id="rId35" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
+    <hyperlink ref="F35" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
+    <hyperlink ref="F36" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
+    <hyperlink ref="F37" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
+    <hyperlink ref="F38" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
     <hyperlink ref="N5" r:id="rId41" xr:uid="{14C54F5B-E126-4743-950B-1695329D31EE}"/>
     <hyperlink ref="N4" r:id="rId42" xr:uid="{8FE7AF83-3DD7-B549-95A6-4D136A129D5E}"/>
+    <hyperlink ref="N6" r:id="rId43" xr:uid="{88BE8912-8F64-6945-A2FF-38034DCC3B2A}"/>
+    <hyperlink ref="F39" r:id="rId44" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7139,7 +7195,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -7148,10 +7204,10 @@
         <v>619</v>
       </c>
       <c r="N4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7333,7 +7389,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>666</v>
@@ -7350,19 +7406,19 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7486,7 +7542,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>666</v>
@@ -7509,7 +7565,7 @@
         <v>666</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
@@ -7594,7 +7650,7 @@
         <v>666</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
@@ -7622,7 +7678,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>666</v>
@@ -7639,13 +7695,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>666</v>
@@ -7673,7 +7729,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>666</v>
@@ -7707,7 +7763,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>666</v>
@@ -7741,19 +7797,19 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
         <v>1072</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1074</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -7797,10 +7853,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7845,27 +7901,27 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C3" t="s">
         <v>666</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H3" t="s">
         <v>1066</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C4" t="s">
         <v>666</v>
@@ -7877,13 +7933,13 @@
         <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7894,7 +7950,7 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>666</v>
@@ -7904,7 +7960,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -7941,7 +7997,7 @@
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>666</v>
@@ -7950,10 +8006,10 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -7965,7 +8021,7 @@
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>666</v>
@@ -7977,13 +8033,13 @@
         <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C9" t="s">
         <v>666</v>
@@ -8000,13 +8056,13 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>666</v>
@@ -8017,7 +8073,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>666</v>
@@ -8040,13 +8096,13 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -8057,7 +8113,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>666</v>
@@ -8091,7 +8147,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>666</v>
@@ -8108,7 +8164,7 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>666</v>
@@ -8125,7 +8181,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>666</v>
@@ -8142,7 +8198,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>666</v>
@@ -8170,7 +8226,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C20" t="s">
         <v>666</v>
@@ -8221,13 +8277,13 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C23" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>666</v>
@@ -8238,36 +8294,36 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C24" t="s">
+        <v>666</v>
+      </c>
+      <c r="D24" t="s">
         <v>1053</v>
       </c>
-      <c r="C24" t="s">
-        <v>666</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1055</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C25" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -8278,7 +8334,7 @@
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>666</v>
@@ -8289,19 +8345,19 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C27" t="s">
+        <v>666</v>
+      </c>
+      <c r="D27" t="s">
         <v>1093</v>
       </c>
-      <c r="C27" t="s">
-        <v>666</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1095</v>
-      </c>
       <c r="E27" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -8323,37 +8379,54 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D30" t="s">
         <v>1098</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1100</v>
-      </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -8392,6 +8465,7 @@
     <hyperlink ref="F28" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
     <hyperlink ref="F29" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
     <hyperlink ref="F30" r:id="rId31" xr:uid="{0AE86E5A-E933-AA40-8862-C72DBA4EB4F1}"/>
+    <hyperlink ref="F31" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8434,13 +8508,13 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C4" t="s">
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E4" t="s">
         <v>666</v>
@@ -8451,19 +8525,19 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C5" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E5" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -8474,7 +8548,7 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E6" t="s">
         <v>666</v>
@@ -8485,13 +8559,13 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C7" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E7" t="s">
         <v>666</v>
@@ -8508,7 +8582,7 @@
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E8" t="s">
         <v>666</v>
@@ -8525,7 +8599,7 @@
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E9" t="s">
         <v>666</v>
@@ -8536,13 +8610,13 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C10" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E10" t="s">
         <v>666</v>
@@ -8553,13 +8627,13 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C11" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E11" t="s">
         <v>666</v>
@@ -8570,13 +8644,13 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C12" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E12" t="s">
         <v>666</v>
@@ -8585,18 +8659,18 @@
         <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C13" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E13" t="s">
         <v>666</v>
@@ -8605,7 +8679,7 @@
         <v>303</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>310</v>
@@ -8613,13 +8687,13 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C14" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E14" t="s">
         <v>666</v>
@@ -8636,7 +8710,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E15" t="s">
         <v>666</v>
@@ -8653,7 +8727,7 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E16" t="s">
         <v>666</v>
@@ -8670,7 +8744,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E17" t="s">
         <v>666</v>
@@ -8687,7 +8761,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
@@ -8728,7 +8802,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B2" sqref="B2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8738,6 +8812,7 @@
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8774,9 +8849,6 @@
       <c r="F3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J3" t="s">
-        <v>1068</v>
-      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -8794,12 +8866,6 @@
       <c r="F4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -8818,6 +8884,7 @@
       <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -8844,7 +8911,7 @@
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
@@ -8918,7 +8985,7 @@
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -8971,6 +9038,9 @@
       <c r="F14" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="J14" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -8988,10 +9058,16 @@
       <c r="F15" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
@@ -9004,6 +9080,12 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>259</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -9037,7 +9119,7 @@
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -9093,7 +9175,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>658</v>
+        <v>834</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>666</v>
@@ -9105,24 +9187,24 @@
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>659</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>835</v>
+        <v>1103</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>1102</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -9146,9 +9228,10 @@
     <hyperlink ref="F19" r:id="rId17" xr:uid="{B9DA166F-3108-6E44-A5BE-D8B4D252E668}"/>
     <hyperlink ref="F20" r:id="rId18" xr:uid="{DACFA19E-0B3F-354B-9E6B-D7FE9375F999}"/>
     <hyperlink ref="F21" r:id="rId19" xr:uid="{1C9C463C-A2BE-3D47-99DA-1F5F59991E86}"/>
-    <hyperlink ref="K4" r:id="rId20" xr:uid="{329A46AC-9F13-8044-BA74-02364ACE46F1}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{6287F184-DE4C-0D48-8091-8929A7C0227E}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{88DD0293-2CB4-0547-A008-647D2BEC1BE7}"/>
+    <hyperlink ref="K15" r:id="rId20" xr:uid="{329A46AC-9F13-8044-BA74-02364ACE46F1}"/>
+    <hyperlink ref="K16" r:id="rId21" xr:uid="{6287F184-DE4C-0D48-8091-8929A7C0227E}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{88DD0293-2CB4-0547-A008-647D2BEC1BE7}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{BD79B19C-A82F-1140-BFCC-6AE451A79456}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9198,7 +9281,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>666</v>
@@ -9215,24 +9298,24 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>666</v>
@@ -9243,13 +9326,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>666</v>
@@ -9260,81 +9343,81 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D9" t="s">
+        <v>782</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>666</v>
@@ -9345,13 +9428,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>666</v>
@@ -9362,47 +9445,47 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>803</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
+        <v>855</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" t="s">
-        <v>857</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>666</v>
@@ -9419,7 +9502,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>666</v>
@@ -9430,30 +9513,30 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>666</v>
@@ -9464,47 +9547,47 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D21" t="s">
+        <v>861</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D21" t="s">
-        <v>863</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>666</v>
@@ -9515,166 +9598,166 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
+        <v>793</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
+        <v>787</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
+        <v>795</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D31" t="s">
+        <v>784</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>666</v>
@@ -9685,19 +9768,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D33" t="s">
+        <v>789</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -9780,7 +9863,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>666</v>
@@ -9791,13 +9874,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>666</v>
@@ -9814,7 +9897,7 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>666</v>
@@ -9825,13 +9908,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>666</v>
@@ -9842,13 +9925,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>666</v>
@@ -9859,13 +9942,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>666</v>
@@ -9882,7 +9965,7 @@
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>666</v>
@@ -9893,13 +9976,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>666</v>
@@ -9910,13 +9993,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>666</v>
@@ -9927,13 +10010,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>666</v>
@@ -9944,13 +10027,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>666</v>
@@ -9967,7 +10050,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>666</v>
@@ -9978,13 +10061,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>666</v>
@@ -10001,7 +10084,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>666</v>
@@ -10012,13 +10095,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>666</v>
@@ -10029,13 +10112,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>666</v>
@@ -10046,13 +10129,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>666</v>
@@ -10063,13 +10146,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>666</v>
@@ -10080,13 +10163,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>666</v>
@@ -10103,7 +10186,7 @@
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>666</v>
@@ -10120,7 +10203,7 @@
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>666</v>
@@ -10131,13 +10214,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>666</v>
@@ -10148,13 +10231,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>666</v>
@@ -10171,7 +10254,7 @@
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>666</v>
@@ -10188,7 +10271,7 @@
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>666</v>
@@ -10205,7 +10288,7 @@
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>666</v>
@@ -10222,7 +10305,7 @@
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>666</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C527F3-7CDF-804B-A96C-F6CC1572387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6090CCD2-22A7-9A48-B170-4B37B234673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1117">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -3341,9 +3341,6 @@
     <t>https://www.c-span.org/</t>
   </si>
   <si>
-    <t>Get word for word</t>
-  </si>
-  <si>
     <t>AllSides</t>
   </si>
   <si>
@@ -3380,7 +3377,25 @@
     <t>https://www.palladiummag.com/</t>
   </si>
   <si>
-    <t>Governance Futurism</t>
+    <t>Issues and Insights</t>
+  </si>
+  <si>
+    <t>https://issuesinsights.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unapologetically pro free market </t>
+  </si>
+  <si>
+    <t>Commonplace</t>
+  </si>
+  <si>
+    <t>Home for the New Right</t>
+  </si>
+  <si>
+    <t>https://commonplace.org/</t>
+  </si>
+  <si>
+    <t>Governance futurism</t>
   </si>
 </sst>
 </file>
@@ -3884,7 +3899,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
@@ -3892,7 +3907,7 @@
         <v>1035</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -6358,10 +6373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
-  <dimension ref="B2:P39"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F39"/>
+      <selection activeCell="B2" sqref="B2:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6476,10 +6491,10 @@
         <v>1030</v>
       </c>
       <c r="M6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
@@ -7071,19 +7086,36 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
         <v>1107</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1108</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -7135,6 +7167,7 @@
     <hyperlink ref="N4" r:id="rId42" xr:uid="{8FE7AF83-3DD7-B549-95A6-4D136A129D5E}"/>
     <hyperlink ref="N6" r:id="rId43" xr:uid="{88BE8912-8F64-6945-A2FF-38034DCC3B2A}"/>
     <hyperlink ref="F39" r:id="rId44" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
+    <hyperlink ref="F40" r:id="rId45" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8053,6 +8086,13 @@
       <c r="F9" s="1" t="s">
         <v>646</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -8397,36 +8437,36 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>1109</v>
+      <c r="B31" t="s">
+        <v>1110</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D31" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -8464,8 +8504,9 @@
     <hyperlink ref="F27" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
     <hyperlink ref="F28" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
     <hyperlink ref="F29" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
-    <hyperlink ref="F30" r:id="rId31" xr:uid="{0AE86E5A-E933-AA40-8862-C72DBA4EB4F1}"/>
-    <hyperlink ref="F31" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
+    <hyperlink ref="I9" r:id="rId31" xr:uid="{0AE86E5A-E933-AA40-8862-C72DBA4EB4F1}"/>
+    <hyperlink ref="F30" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
+    <hyperlink ref="F31" r:id="rId33" xr:uid="{4884AF3A-FFED-EA49-AD80-6537E0E013FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9192,19 +9233,19 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6090CCD2-22A7-9A48-B170-4B37B234673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888BDFE-89E0-3E49-A998-0D6D27D87841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -3377,9 +3377,6 @@
     <t>https://www.palladiummag.com/</t>
   </si>
   <si>
-    <t>Issues and Insights</t>
-  </si>
-  <si>
     <t>https://issuesinsights.com/</t>
   </si>
   <si>
@@ -3396,6 +3393,9 @@
   </si>
   <si>
     <t>Governance futurism</t>
+  </si>
+  <si>
+    <t>Issues &amp;amp; Insights</t>
   </si>
 </sst>
 </file>
@@ -7103,19 +7103,19 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" t="s">
         <v>1113</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -7889,7 +7889,7 @@
   <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8443,7 +8443,7 @@
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
@@ -8454,19 +8454,19 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888BDFE-89E0-3E49-A998-0D6D27D87841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC136F9-9219-F64C-95B8-53E45152731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1117">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -2123,9 +2123,6 @@
     <t>Seek truth, understand the world</t>
   </si>
   <si>
-    <t>Comprehensive Congressional news</t>
-  </si>
-  <si>
     <t>A new political center</t>
   </si>
   <si>
@@ -2240,9 +2237,6 @@
     <t>Political Science</t>
   </si>
   <si>
-    <t>Essays by serious and creative thinkers</t>
-  </si>
-  <si>
     <t>Data.gov</t>
   </si>
   <si>
@@ -3380,9 +3374,6 @@
     <t>https://issuesinsights.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Unapologetically pro free market </t>
-  </si>
-  <si>
     <t>Commonplace</t>
   </si>
   <si>
@@ -3396,6 +3387,15 @@
   </si>
   <si>
     <t>Issues &amp;amp; Insights</t>
+  </si>
+  <si>
+    <t>LOOK at these</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unapologetically free market </t>
+  </si>
+  <si>
+    <t>Serious and creative thinkers</t>
   </si>
 </sst>
 </file>
@@ -3876,16 +3876,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3899,15 +3899,15 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -3959,13 +3959,13 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>666</v>
@@ -3982,7 +3982,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -3993,30 +3993,30 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>666</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>666</v>
@@ -4062,13 +4062,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>666</v>
@@ -4080,37 +4080,37 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -4122,7 +4122,7 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>666</v>
@@ -4140,7 +4140,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>666</v>
@@ -4152,13 +4152,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>666</v>
@@ -4170,53 +4170,53 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4227,7 +4227,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
@@ -4238,13 +4238,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>666</v>
@@ -4255,30 +4255,30 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
@@ -4289,13 +4289,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
@@ -4306,30 +4306,30 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>666</v>
@@ -4340,13 +4340,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>666</v>
@@ -4374,53 +4374,53 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K34" t="s">
         <v>274</v>
@@ -4859,18 +4859,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6096,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>666</v>
@@ -6114,7 +6114,7 @@
         <v>666</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>666</v>
@@ -6125,234 +6125,234 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G4" t="s">
+        <v>991</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E4" t="s">
-        <v>982</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G4" t="s">
-        <v>993</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="E6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G6" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>979</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E7" t="s">
+        <v>995</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G7" t="s">
+        <v>997</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C7" t="s">
-        <v>981</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E7" t="s">
-        <v>997</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G7" t="s">
-        <v>999</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" t="s">
+        <v>979</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C8" t="s">
-        <v>981</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>979</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G9" t="s">
         <v>1004</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C9" t="s">
-        <v>981</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>979</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G10" t="s">
         <v>1008</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C10" t="s">
-        <v>981</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -6376,7 +6376,7 @@
   <dimension ref="B2:P40"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F40"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6413,13 +6413,13 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>666</v>
@@ -6427,16 +6427,19 @@
       <c r="F3" s="1" t="s">
         <v>631</v>
       </c>
+      <c r="M3" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -6445,10 +6448,10 @@
         <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -6459,7 +6462,7 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>666</v>
@@ -6468,10 +6471,10 @@
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -6482,19 +6485,19 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M6" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
@@ -6505,7 +6508,7 @@
         <v>666</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
@@ -6516,13 +6519,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>666</v>
@@ -6539,13 +6542,13 @@
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6563,7 +6566,7 @@
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>666</v>
@@ -6578,13 +6581,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>666</v>
@@ -6595,22 +6598,22 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -6621,7 +6624,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>666</v>
@@ -6640,19 +6643,19 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M14" t="s">
         <v>261</v>
@@ -6670,7 +6673,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>666</v>
@@ -6679,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>91</v>
@@ -6694,13 +6697,13 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
@@ -6718,24 +6721,24 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
@@ -6752,7 +6755,7 @@
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>666</v>
@@ -6769,7 +6772,7 @@
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
@@ -6780,13 +6783,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
@@ -6803,7 +6806,7 @@
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
@@ -6820,7 +6823,7 @@
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
@@ -6837,7 +6840,7 @@
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>666</v>
@@ -6848,19 +6851,19 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -6871,7 +6874,7 @@
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>666</v>
@@ -6905,7 +6908,7 @@
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
@@ -6916,13 +6919,13 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
@@ -6939,7 +6942,7 @@
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
@@ -6956,7 +6959,7 @@
         <v>666</v>
       </c>
       <c r="D31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>666</v>
@@ -6967,155 +6970,155 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D33" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D34" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D35" t="s">
         <v>1054</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1056</v>
-      </c>
       <c r="E35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D36" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D37" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D38" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D39" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D40" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -7228,7 +7231,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -7237,10 +7240,10 @@
         <v>619</v>
       </c>
       <c r="N4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7422,7 +7425,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>666</v>
@@ -7439,19 +7442,19 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7575,7 +7578,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>666</v>
@@ -7598,7 +7601,7 @@
         <v>666</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
@@ -7683,7 +7686,7 @@
         <v>666</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
@@ -7711,7 +7714,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>666</v>
@@ -7728,13 +7731,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>666</v>
@@ -7762,7 +7765,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>666</v>
@@ -7796,7 +7799,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>666</v>
@@ -7830,19 +7833,19 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D39" t="s">
         <v>1070</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1072</v>
-      </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -7886,10 +7889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7934,45 +7937,45 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C3" t="s">
         <v>666</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H3" t="s">
         <v>1064</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C4" t="s">
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7983,7 +7986,7 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>666</v>
@@ -7993,7 +7996,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -8007,7 +8010,7 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>666</v>
@@ -8030,7 +8033,7 @@
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>666</v>
@@ -8039,10 +8042,10 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -8054,7 +8057,7 @@
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>666</v>
@@ -8066,13 +8069,13 @@
         <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C9" t="s">
         <v>666</v>
@@ -8087,22 +8090,22 @@
         <v>646</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C10" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>666</v>
@@ -8110,10 +8113,17 @@
       <c r="F10" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>666</v>
@@ -8136,13 +8146,13 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -8153,7 +8163,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>666</v>
@@ -8170,7 +8180,7 @@
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>666</v>
@@ -8187,7 +8197,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>666</v>
@@ -8204,7 +8214,7 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>666</v>
@@ -8221,7 +8231,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>666</v>
@@ -8238,7 +8248,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>666</v>
@@ -8255,7 +8265,7 @@
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>666</v>
@@ -8266,13 +8276,13 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C20" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>666</v>
@@ -8289,7 +8299,7 @@
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>666</v>
@@ -8300,144 +8310,144 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>745</v>
       </c>
       <c r="C22" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>692</v>
+        <v>1027</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>747</v>
+        <v>1049</v>
       </c>
       <c r="C23" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>298</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1051</v>
+        <v>1074</v>
       </c>
       <c r="C24" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>1053</v>
+        <v>1075</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1069</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C26" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E26" t="s">
+        <v>666</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1092</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>243</v>
+        <v>922</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>731</v>
+        <v>1092</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>924</v>
+        <v>1106</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>1107</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>1108</v>
+      <c r="B30" t="s">
+        <v>1113</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>666</v>
@@ -8449,29 +8459,12 @@
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F23">
-    <sortCondition ref="B3:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F22">
+    <sortCondition ref="B3:B22"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
@@ -8480,12 +8473,12 @@
     <hyperlink ref="F6" r:id="rId4" xr:uid="{B98D6F15-C769-B547-8C74-2493F5F46DD2}"/>
     <hyperlink ref="F10" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
     <hyperlink ref="F21" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
-    <hyperlink ref="F22" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
     <hyperlink ref="F8" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
     <hyperlink ref="F5" r:id="rId9" xr:uid="{3531E744-B160-7549-B699-BB8BF2A74D65}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
     <hyperlink ref="F13" r:id="rId11" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
     <hyperlink ref="I8" r:id="rId13" xr:uid="{F26E00DE-ECA6-8043-B1DB-DB2216F23D99}"/>
     <hyperlink ref="F4" r:id="rId14" xr:uid="{071110DE-3804-284A-9F93-25D210B3452F}"/>
     <hyperlink ref="F20" r:id="rId15" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
@@ -8495,18 +8488,18 @@
     <hyperlink ref="F19" r:id="rId19" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
     <hyperlink ref="I7" r:id="rId20" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
     <hyperlink ref="F14" r:id="rId21" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
     <hyperlink ref="I5" r:id="rId23" xr:uid="{93F1E579-860B-AF4C-9E05-9DD29B6A4D6F}"/>
     <hyperlink ref="I4" r:id="rId24" xr:uid="{18242E23-68BC-1D43-9DAC-5784E2B871DD}"/>
     <hyperlink ref="I6" r:id="rId25" xr:uid="{ED3DE6B4-5A73-5A4D-81DF-B9D5205BF560}"/>
-    <hyperlink ref="F25" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
-    <hyperlink ref="F26" r:id="rId27" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
-    <hyperlink ref="F27" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
-    <hyperlink ref="F28" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
-    <hyperlink ref="F29" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
+    <hyperlink ref="F24" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
+    <hyperlink ref="F25" r:id="rId27" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
+    <hyperlink ref="F26" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
+    <hyperlink ref="F27" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
+    <hyperlink ref="F28" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
     <hyperlink ref="I9" r:id="rId31" xr:uid="{0AE86E5A-E933-AA40-8862-C72DBA4EB4F1}"/>
-    <hyperlink ref="F30" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
-    <hyperlink ref="F31" r:id="rId33" xr:uid="{4884AF3A-FFED-EA49-AD80-6537E0E013FC}"/>
+    <hyperlink ref="F29" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
+    <hyperlink ref="F30" r:id="rId33" xr:uid="{4884AF3A-FFED-EA49-AD80-6537E0E013FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8549,13 +8542,13 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C4" t="s">
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E4" t="s">
         <v>666</v>
@@ -8566,19 +8559,19 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C5" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E5" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -8589,7 +8582,7 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E6" t="s">
         <v>666</v>
@@ -8600,13 +8593,13 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C7" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E7" t="s">
         <v>666</v>
@@ -8623,7 +8616,7 @@
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E8" t="s">
         <v>666</v>
@@ -8640,7 +8633,7 @@
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E9" t="s">
         <v>666</v>
@@ -8651,13 +8644,13 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C10" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E10" t="s">
         <v>666</v>
@@ -8668,13 +8661,13 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C11" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E11" t="s">
         <v>666</v>
@@ -8685,13 +8678,13 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C12" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E12" t="s">
         <v>666</v>
@@ -8700,18 +8693,18 @@
         <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C13" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E13" t="s">
         <v>666</v>
@@ -8720,7 +8713,7 @@
         <v>303</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>310</v>
@@ -8728,13 +8721,13 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C14" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E14" t="s">
         <v>666</v>
@@ -8751,7 +8744,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E15" t="s">
         <v>666</v>
@@ -8768,7 +8761,7 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E16" t="s">
         <v>666</v>
@@ -8785,7 +8778,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E17" t="s">
         <v>666</v>
@@ -8802,7 +8795,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
@@ -8882,7 +8875,7 @@
         <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>666</v>
@@ -8899,7 +8892,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -8917,7 +8910,7 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>666</v>
@@ -8935,7 +8928,7 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>666</v>
@@ -8952,7 +8945,7 @@
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>666</v>
@@ -8963,7 +8956,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>666</v>
@@ -8986,7 +8979,7 @@
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>666</v>
@@ -9003,7 +8996,7 @@
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>666</v>
@@ -9020,13 +9013,13 @@
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -9037,7 +9030,7 @@
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>666</v>
@@ -9054,7 +9047,7 @@
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>666</v>
@@ -9071,7 +9064,7 @@
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>666</v>
@@ -9080,7 +9073,7 @@
         <v>312</v>
       </c>
       <c r="J14" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -9091,7 +9084,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>666</v>
@@ -9100,7 +9093,7 @@
         <v>314</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>89</v>
@@ -9108,13 +9101,13 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
@@ -9137,7 +9130,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>666</v>
@@ -9154,13 +9147,13 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -9171,7 +9164,7 @@
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>666</v>
@@ -9182,19 +9175,19 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D20" t="s">
         <v>732</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D20" t="s">
-        <v>734</v>
-      </c>
       <c r="E20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -9205,7 +9198,7 @@
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>666</v>
@@ -9216,36 +9209,36 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -9322,7 +9315,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>666</v>
@@ -9339,24 +9332,24 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>666</v>
@@ -9367,13 +9360,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>666</v>
@@ -9384,81 +9377,81 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>666</v>
@@ -9469,13 +9462,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>666</v>
@@ -9486,47 +9479,47 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>666</v>
@@ -9543,7 +9536,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>666</v>
@@ -9554,30 +9547,30 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>666</v>
@@ -9588,47 +9581,47 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>666</v>
@@ -9639,166 +9632,166 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D31" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>666</v>
@@ -9809,19 +9802,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D33" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -9904,7 +9897,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>666</v>
@@ -9915,13 +9908,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>666</v>
@@ -9938,7 +9931,7 @@
         <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>666</v>
@@ -9949,13 +9942,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>666</v>
@@ -9966,13 +9959,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>666</v>
@@ -9983,13 +9976,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>666</v>
@@ -10006,7 +9999,7 @@
         <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>666</v>
@@ -10017,13 +10010,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>666</v>
@@ -10034,13 +10027,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>666</v>
@@ -10051,13 +10044,13 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>666</v>
@@ -10068,13 +10061,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>666</v>
@@ -10091,7 +10084,7 @@
         <v>666</v>
       </c>
       <c r="D15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>666</v>
@@ -10102,13 +10095,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>666</v>
@@ -10125,7 +10118,7 @@
         <v>666</v>
       </c>
       <c r="D17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>666</v>
@@ -10136,13 +10129,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>666</v>
@@ -10153,13 +10146,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>666</v>
@@ -10170,13 +10163,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D20" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>666</v>
@@ -10187,13 +10180,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>666</v>
@@ -10204,13 +10197,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>666</v>
@@ -10227,7 +10220,7 @@
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>666</v>
@@ -10244,7 +10237,7 @@
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>666</v>
@@ -10255,13 +10248,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>666</v>
@@ -10272,13 +10265,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>666</v>
@@ -10295,7 +10288,7 @@
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>666</v>
@@ -10312,7 +10305,7 @@
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>666</v>
@@ -10329,7 +10322,7 @@
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>666</v>
@@ -10346,7 +10339,7 @@
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>666</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC136F9-9219-F64C-95B8-53E45152731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F17B1-01C3-E248-8068-FB1F5C995FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="4" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="1" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Media" sheetId="8" r:id="rId1"/>
@@ -3032,18 +3032,9 @@
     <t>https://amzn.to/3E29Mi5</t>
   </si>
   <si>
-    <t>All or Nothing: How Trump Recaptured America</t>
-  </si>
-  <si>
     <t>PollsOpinion</t>
   </si>
   <si>
-    <t>Michael Wolff</t>
-  </si>
-  <si>
-    <t>https://amzn.to/4hNiXkd</t>
-  </si>
-  <si>
     <t>RegionLocal</t>
   </si>
   <si>
@@ -3396,6 +3387,15 @@
   </si>
   <si>
     <t>Serious and creative thinkers</t>
+  </si>
+  <si>
+    <t>Califailure: Reversing the Ruin of America's Worst-Run State</t>
+  </si>
+  <si>
+    <t>Steve Hilton</t>
+  </si>
+  <si>
+    <t>https://amzn.to/4iQl1JR</t>
   </si>
 </sst>
 </file>
@@ -3876,16 +3876,16 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -3899,15 +3899,15 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="K34" t="s">
         <v>274</v>
@@ -4859,18 +4859,18 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -6078,8 +6078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42335FE5-EDE1-D149-93FE-A9683AFC9CDA}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>666</v>
@@ -6253,24 +6253,24 @@
         <v>666</v>
       </c>
       <c r="E7" t="s">
-        <v>995</v>
+        <v>1114</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G7" t="s">
-        <v>997</v>
+        <v>1115</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>998</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>666</v>
@@ -6282,24 +6282,24 @@
         <v>666</v>
       </c>
       <c r="E8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G8" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>666</v>
@@ -6311,24 +6311,24 @@
         <v>666</v>
       </c>
       <c r="E9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G9" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>666</v>
@@ -6340,19 +6340,19 @@
         <v>666</v>
       </c>
       <c r="E10" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G10" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>666</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -6428,7 +6428,7 @@
         <v>631</v>
       </c>
       <c r="M3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -6448,10 +6448,10 @@
         <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -6491,13 +6491,13 @@
         <v>666</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M6" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
@@ -6548,7 +6548,7 @@
         <v>666</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6610,10 +6610,10 @@
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M12" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>666</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M14" t="s">
         <v>261</v>
@@ -6703,7 +6703,7 @@
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
@@ -6863,7 +6863,7 @@
         <v>666</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
         <v>666</v>
       </c>
       <c r="D32" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>666</v>
@@ -6987,138 +6987,138 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D33" t="s">
         <v>1011</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1014</v>
-      </c>
       <c r="E33" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D34" t="s">
         <v>1013</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1016</v>
-      </c>
       <c r="E34" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D35" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D36" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D37" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D38" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D39" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D40" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -7231,7 +7231,7 @@
         <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>666</v>
@@ -7240,10 +7240,10 @@
         <v>619</v>
       </c>
       <c r="N4" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7448,13 +7448,13 @@
         <v>666</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7833,19 +7833,19 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D39" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -7891,7 +7891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7943,16 +7943,16 @@
         <v>666</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -7969,13 +7969,13 @@
         <v>666</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7986,7 +7986,7 @@
         <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>666</v>
@@ -8045,7 +8045,7 @@
         <v>744</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -8069,7 +8069,7 @@
         <v>74</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -8090,10 +8090,10 @@
         <v>646</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -8152,7 +8152,7 @@
         <v>666</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -8214,7 +8214,7 @@
         <v>666</v>
       </c>
       <c r="D16" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>666</v>
@@ -8248,7 +8248,7 @@
         <v>666</v>
       </c>
       <c r="D18" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>666</v>
@@ -8316,7 +8316,7 @@
         <v>666</v>
       </c>
       <c r="D22" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>666</v>
@@ -8327,36 +8327,36 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C23" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C24" t="s">
         <v>666</v>
       </c>
       <c r="D24" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>666</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -8367,7 +8367,7 @@
         <v>666</v>
       </c>
       <c r="D25" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>666</v>
@@ -8378,19 +8378,19 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C26" t="s">
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E26" t="s">
         <v>666</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -8401,7 +8401,7 @@
         <v>666</v>
       </c>
       <c r="D27" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>666</v>
@@ -8418,48 +8418,48 @@
         <v>666</v>
       </c>
       <c r="D28" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D29" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D30" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C5" t="s">
         <v>666</v>
@@ -8571,7 +8571,7 @@
         <v>666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -8593,7 +8593,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C7" t="s">
         <v>666</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C10" t="s">
         <v>666</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C11" t="s">
         <v>666</v>
@@ -8693,7 +8693,7 @@
         <v>648</v>
       </c>
       <c r="I12" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -9019,7 +9019,7 @@
         <v>666</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -9073,7 +9073,7 @@
         <v>312</v>
       </c>
       <c r="J14" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -9153,7 +9153,7 @@
         <v>666</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -9221,24 +9221,24 @@
         <v>666</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D23" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>666</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>666</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>666</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>666</v>
@@ -10271,7 +10271,7 @@
         <v>666</v>
       </c>
       <c r="D26" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>666</v>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278F17B1-01C3-E248-8068-FB1F5C995FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33E308-BC48-B946-B6CB-F6933B97F322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="1" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Media" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1117">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Independent Institute</t>
   </si>
   <si>
-    <t>Discovery Institute</t>
-  </si>
-  <si>
     <t>https://www.discovery.org/</t>
   </si>
   <si>
@@ -2153,18 +2150,12 @@
     <t>Free and open exchange of ideas</t>
   </si>
   <si>
-    <t>A deep appreciation for America</t>
-  </si>
-  <si>
     <t>Champions of free press</t>
   </si>
   <si>
     <t>High quality, independent coverage</t>
   </si>
   <si>
-    <t>Independent thinkers</t>
-  </si>
-  <si>
     <t>Balanced for differing opinions</t>
   </si>
   <si>
@@ -2486,9 +2477,6 @@
     <t>Diversity of thought</t>
   </si>
   <si>
-    <t>We’re noisy, we’re having a good time</t>
-  </si>
-  <si>
     <t>Main Street conservative</t>
   </si>
   <si>
@@ -2516,9 +2504,6 @@
     <t>Progressive perspective</t>
   </si>
   <si>
-    <t>Challenge and illuminate</t>
-  </si>
-  <si>
     <t>Creativity and innovation</t>
   </si>
   <si>
@@ -3113,9 +3098,6 @@
     <t>https://www.thecentersquare.com/</t>
   </si>
   <si>
-    <t>Bible of the new urbanism</t>
-  </si>
-  <si>
     <t>https://heartland.org/opinion/</t>
   </si>
   <si>
@@ -3125,9 +3107,6 @@
     <t>https://www.theblaze.com/</t>
   </si>
   <si>
-    <t>https://freebeacon.com/arts-culture-opinion/</t>
-  </si>
-  <si>
     <t>https://thedispatch.com/</t>
   </si>
   <si>
@@ -3212,9 +3191,6 @@
     <t>National Pulse</t>
   </si>
   <si>
-    <t>Radically independent</t>
-  </si>
-  <si>
     <t>https://www.newyorker.com/</t>
   </si>
   <si>
@@ -3396,6 +3372,30 @@
   </si>
   <si>
     <t>https://amzn.to/4iQl1JR</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>Bible of new urbanism</t>
+  </si>
+  <si>
+    <t>American Mind</t>
+  </si>
+  <si>
+    <t>https://americanmind.org/features/</t>
+  </si>
+  <si>
+    <t>We’re noisy, having a good time</t>
+  </si>
+  <si>
+    <t>Deep appreciation for America</t>
+  </si>
+  <si>
+    <t>https://freebeacon.com/</t>
   </si>
 </sst>
 </file>
@@ -3821,54 +3821,54 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3876,38 +3876,38 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -3942,485 +3942,485 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>904</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D13" t="s">
+        <v>912</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D13" t="s">
-        <v>917</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D14" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D23" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D24" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D25" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D26" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D29" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -4477,400 +4477,400 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="K7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
+        <v>280</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="K18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="K20" t="s">
+        <v>586</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="K21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="K24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="K25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="K32" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
@@ -4951,10 +4951,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -4963,1014 +4963,1014 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" t="s">
         <v>426</v>
-      </c>
-      <c r="D11" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" t="s">
         <v>428</v>
-      </c>
-      <c r="D12" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" t="s">
         <v>430</v>
-      </c>
-      <c r="D13" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" t="s">
         <v>432</v>
-      </c>
-      <c r="D14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" t="s">
         <v>434</v>
-      </c>
-      <c r="D15" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" t="s">
         <v>436</v>
-      </c>
-      <c r="D16" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" t="s">
         <v>438</v>
-      </c>
-      <c r="D17" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" t="s">
         <v>440</v>
-      </c>
-      <c r="D18" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D19" t="s">
         <v>442</v>
-      </c>
-      <c r="D19" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D21" t="s">
         <v>446</v>
-      </c>
-      <c r="D21" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" t="s">
         <v>448</v>
-      </c>
-      <c r="D22" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" t="s">
         <v>450</v>
-      </c>
-      <c r="D23" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D24" t="s">
         <v>452</v>
-      </c>
-      <c r="D24" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" t="s">
         <v>454</v>
-      </c>
-      <c r="D25" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D27" t="s">
         <v>457</v>
-      </c>
-      <c r="D27" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" t="s">
         <v>459</v>
-      </c>
-      <c r="D28" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" t="s">
         <v>461</v>
-      </c>
-      <c r="D29" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D30" t="s">
         <v>463</v>
-      </c>
-      <c r="D30" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D31" t="s">
         <v>465</v>
-      </c>
-      <c r="D31" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D32" t="s">
         <v>467</v>
-      </c>
-      <c r="D32" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D33" t="s">
         <v>469</v>
-      </c>
-      <c r="D33" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" t="s">
         <v>471</v>
-      </c>
-      <c r="D34" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D35" t="s">
         <v>473</v>
-      </c>
-      <c r="D35" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D36" t="s">
         <v>475</v>
-      </c>
-      <c r="D36" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D37" t="s">
         <v>477</v>
-      </c>
-      <c r="D37" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D38" t="s">
         <v>479</v>
-      </c>
-      <c r="D38" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D39" t="s">
         <v>481</v>
-      </c>
-      <c r="D39" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D40" t="s">
         <v>483</v>
-      </c>
-      <c r="D40" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D42" t="s">
         <v>486</v>
-      </c>
-      <c r="D42" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D43" t="s">
         <v>488</v>
-      </c>
-      <c r="D43" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D44" t="s">
         <v>490</v>
-      </c>
-      <c r="D44" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D46" t="s">
         <v>493</v>
-      </c>
-      <c r="D46" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" t="s">
         <v>497</v>
-      </c>
-      <c r="D49" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" t="s">
         <v>500</v>
-      </c>
-      <c r="D51" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D52" t="s">
         <v>502</v>
-      </c>
-      <c r="D52" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D53" t="s">
         <v>504</v>
-      </c>
-      <c r="D53" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D54" t="s">
         <v>506</v>
-      </c>
-      <c r="D54" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D55" t="s">
         <v>508</v>
-      </c>
-      <c r="D55" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D56" t="s">
         <v>510</v>
-      </c>
-      <c r="D56" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D57" t="s">
         <v>512</v>
-      </c>
-      <c r="D57" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D59" t="s">
         <v>515</v>
-      </c>
-      <c r="D59" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D61" t="s">
         <v>518</v>
-      </c>
-      <c r="D61" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" t="s">
         <v>520</v>
-      </c>
-      <c r="D62" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63" t="s">
         <v>522</v>
-      </c>
-      <c r="D63" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D64" t="s">
         <v>524</v>
-      </c>
-      <c r="D64" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D65" t="s">
         <v>526</v>
-      </c>
-      <c r="D65" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D66" t="s">
         <v>528</v>
-      </c>
-      <c r="D66" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D67" t="s">
         <v>530</v>
-      </c>
-      <c r="D67" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D68" t="s">
         <v>532</v>
-      </c>
-      <c r="D68" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D69" t="s">
         <v>534</v>
-      </c>
-      <c r="D69" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D70" t="s">
         <v>536</v>
-      </c>
-      <c r="D70" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D71" t="s">
         <v>538</v>
-      </c>
-      <c r="D71" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D72" t="s">
         <v>540</v>
-      </c>
-      <c r="D72" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" t="s">
         <v>545</v>
-      </c>
-      <c r="D74" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D75" t="s">
         <v>543</v>
-      </c>
-      <c r="D75" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D76" t="s">
         <v>547</v>
-      </c>
-      <c r="D76" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D77" t="s">
         <v>549</v>
-      </c>
-      <c r="D77" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D78" t="s">
         <v>551</v>
-      </c>
-      <c r="D78" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D79" t="s">
         <v>553</v>
-      </c>
-      <c r="D79" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D81" t="s">
         <v>556</v>
-      </c>
-      <c r="D81" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D82" t="s">
         <v>558</v>
-      </c>
-      <c r="D82" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D83" t="s">
         <v>560</v>
-      </c>
-      <c r="D83" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D84" t="s">
         <v>562</v>
-      </c>
-      <c r="D84" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D85" t="s">
         <v>564</v>
-      </c>
-      <c r="D85" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D86" t="s">
         <v>566</v>
-      </c>
-      <c r="D86" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D87" t="s">
         <v>568</v>
-      </c>
-      <c r="D87" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D88" t="s">
         <v>570</v>
-      </c>
-      <c r="D88" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D89" t="s">
         <v>572</v>
-      </c>
-      <c r="D89" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D90" t="s">
         <v>574</v>
-      </c>
-      <c r="D90" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D91" t="s">
         <v>576</v>
-      </c>
-      <c r="D91" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D92" t="s">
         <v>578</v>
-      </c>
-      <c r="D92" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" t="s">
         <v>580</v>
-      </c>
-      <c r="D93" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D94" t="s">
         <v>582</v>
-      </c>
-      <c r="D94" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D95" t="s">
         <v>584</v>
-      </c>
-      <c r="D95" t="s">
-        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6078,7 +6078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42335FE5-EDE1-D149-93FE-A9683AFC9CDA}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -6096,263 +6096,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G3" t="s">
         <v>985</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C3" t="s">
-        <v>979</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E3" t="s">
-        <v>982</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G3" t="s">
-        <v>990</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" t="s">
+        <v>974</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E4" t="s">
+        <v>975</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G4" t="s">
         <v>986</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C4" t="s">
-        <v>979</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E4" t="s">
-        <v>980</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G4" t="s">
-        <v>991</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C5" t="s">
+        <v>974</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E5" t="s">
+        <v>971</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G5" t="s">
         <v>987</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C5" t="s">
-        <v>979</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E5" t="s">
-        <v>976</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G5" t="s">
-        <v>992</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>983</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C6" t="s">
+        <v>974</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E6" t="s">
+        <v>984</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G6" t="s">
         <v>988</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C6" t="s">
-        <v>979</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="G6" t="s">
-        <v>993</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C7" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E7" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G7" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C8" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E8" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G8" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C9" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G9" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C10" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E10" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G10" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -6373,10 +6373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
-  <dimension ref="B2:P40"/>
+  <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6396,62 +6396,62 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M3" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -6459,96 +6459,109 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="M6" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>320</v>
+      <c r="M7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6560,19 +6573,19 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" t="s">
-        <v>813</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6581,87 +6594,87 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>1115</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="M12" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D13" t="s">
+        <v>809</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D13" t="s">
-        <v>812</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D14" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1026</v>
+        <v>1116</v>
       </c>
       <c r="M14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="P14" s="3"/>
     </row>
@@ -6670,98 +6683,98 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -6769,13 +6782,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -6783,87 +6796,87 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D22" t="s">
+        <v>704</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D22" t="s">
-        <v>707</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D23" t="s">
+        <v>813</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D23" t="s">
-        <v>817</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D25" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -6871,33 +6884,33 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D26" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -6905,64 +6918,64 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D29" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D30" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D31" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
@@ -6970,155 +6983,138 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D32" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D33" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D34" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D35" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D36" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D37" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1054</v>
+        <v>1093</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D38" t="s">
-        <v>1055</v>
+        <v>1094</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1037</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D39" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -7164,13 +7160,14 @@
     <hyperlink ref="F35" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
     <hyperlink ref="F36" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
     <hyperlink ref="F37" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
-    <hyperlink ref="F38" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
+    <hyperlink ref="N8" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
     <hyperlink ref="N5" r:id="rId41" xr:uid="{14C54F5B-E126-4743-950B-1695329D31EE}"/>
     <hyperlink ref="N4" r:id="rId42" xr:uid="{8FE7AF83-3DD7-B549-95A6-4D136A129D5E}"/>
     <hyperlink ref="N6" r:id="rId43" xr:uid="{88BE8912-8F64-6945-A2FF-38034DCC3B2A}"/>
-    <hyperlink ref="F39" r:id="rId44" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
-    <hyperlink ref="F40" r:id="rId45" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
+    <hyperlink ref="F38" r:id="rId44" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
+    <hyperlink ref="F39" r:id="rId45" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
+    <hyperlink ref="N7" r:id="rId46" xr:uid="{44C17794-EACA-6147-AB87-7596FBAE41C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7201,19 +7198,19 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7225,65 +7222,65 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D4" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N4" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
+        <v>280</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>667</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -7291,13 +7288,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7305,36 +7302,36 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7342,33 +7339,33 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -7376,13 +7373,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7393,13 +7390,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7407,54 +7404,54 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7462,30 +7459,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7493,155 +7490,155 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -7649,13 +7646,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7666,13 +7663,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7683,13 +7680,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7697,155 +7694,155 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D34" t="s">
+        <v>684</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D34" t="s">
-        <v>685</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D39" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -7889,10 +7886,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F5559A-FBEB-0B4E-90F5-C9177253465C}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7915,19 +7912,19 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7937,45 +7934,45 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="H3" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>742</v>
+        <v>1110</v>
       </c>
       <c r="C4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D4" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="H4" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7983,20 +7980,20 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>1022</v>
+        <v>1111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -8004,22 +8001,22 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -8027,479 +8024,469 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>1109</v>
       </c>
       <c r="C7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>772</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>824</v>
+        <v>194</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>645</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>820</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>646</v>
+        <v>168</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>746</v>
-      </c>
-      <c r="C10" t="s">
-        <v>666</v>
+        <v>773</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>825</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>666</v>
+        <v>634</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>169</v>
+        <v>635</v>
       </c>
       <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>776</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>666</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>666</v>
+        <v>836</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>636</v>
-      </c>
+        <v>1060</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1068</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D13" t="s">
-        <v>826</v>
+        <v>694</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>272</v>
+        <v>642</v>
       </c>
       <c r="C14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D14" t="s">
-        <v>695</v>
+        <v>822</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>271</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>643</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" t="s">
-        <v>827</v>
+        <v>1052</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>644</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>639</v>
       </c>
       <c r="C16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
-        <v>1060</v>
+        <v>823</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>165</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>640</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" t="s">
-        <v>828</v>
+        <v>1015</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>641</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>1020</v>
+        <v>693</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>824</v>
       </c>
       <c r="C19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>829</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>642</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>742</v>
       </c>
       <c r="C21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>693</v>
+        <v>1018</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>745</v>
+        <v>1039</v>
       </c>
       <c r="C22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>666</v>
+        <v>1041</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>298</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
       <c r="C23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D23" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C24" t="s">
-        <v>666</v>
+      <c r="B24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="D24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>666</v>
+        <v>1077</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1064</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>666</v>
+      <c r="B25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C25" t="s">
+        <v>665</v>
       </c>
       <c r="D25" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>666</v>
+        <v>1080</v>
+      </c>
+      <c r="E25" t="s">
+        <v>665</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>41</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C26" t="s">
-        <v>666</v>
+      <c r="B26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="D26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E26" t="s">
-        <v>666</v>
+        <v>1105</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1087</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>243</v>
+        <v>917</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" t="s">
-        <v>1113</v>
+        <v>1081</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>242</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>922</v>
+        <v>1095</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>1103</v>
+      <c r="B29" t="s">
+        <v>1102</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D29" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F22">
-    <sortCondition ref="B3:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F21">
+    <sortCondition ref="B3:B21"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{3DD5642C-C03C-104A-96E7-AE32D3932C14}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{F3718FA7-6F9A-E54B-ABA3-ADAD5E633EAD}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{BB8AA834-4B0D-D844-8145-9E61F5BEC2E6}"/>
+    <hyperlink ref="I11" r:id="rId2" xr:uid="{3DD5642C-C03C-104A-96E7-AE32D3932C14}"/>
+    <hyperlink ref="F17" r:id="rId3" xr:uid="{F3718FA7-6F9A-E54B-ABA3-ADAD5E633EAD}"/>
     <hyperlink ref="F6" r:id="rId4" xr:uid="{B98D6F15-C769-B547-8C74-2493F5F46DD2}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
-    <hyperlink ref="F21" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{9884121D-C9A0-5647-BBC6-243D9058EC76}"/>
+    <hyperlink ref="F20" r:id="rId6" xr:uid="{1419CD1B-7BC9-8D4F-9F00-1AEF37B31403}"/>
     <hyperlink ref="I10" r:id="rId7" xr:uid="{A4277E90-01B8-A54F-9F96-A8667A9517D0}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{9C2A53AF-61D8-1845-BE85-0D04E93D4635}"/>
     <hyperlink ref="F5" r:id="rId9" xr:uid="{3531E744-B160-7549-B699-BB8BF2A74D65}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{D7CB8916-EDD8-354E-B241-F18578EECADE}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{469451E5-D9C4-4E4D-8FB0-B22091ECB29D}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{BC9FC887-B4AD-2F43-805E-18E0D9A63CC7}"/>
     <hyperlink ref="I8" r:id="rId13" xr:uid="{F26E00DE-ECA6-8043-B1DB-DB2216F23D99}"/>
     <hyperlink ref="F4" r:id="rId14" xr:uid="{071110DE-3804-284A-9F93-25D210B3452F}"/>
-    <hyperlink ref="F20" r:id="rId15" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{189F888C-24D6-A64A-860C-28FF785A701C}"/>
     <hyperlink ref="F3" r:id="rId16" xr:uid="{EB4339D4-1686-2C4D-BAB6-B358FA57F088}"/>
-    <hyperlink ref="F15" r:id="rId17" xr:uid="{C38AA58C-0C3A-EE4A-9637-553CFF7AEC42}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{ABB09738-BAC9-BA45-8231-5AEB3FC90100}"/>
-    <hyperlink ref="F19" r:id="rId19" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{C38AA58C-0C3A-EE4A-9637-553CFF7AEC42}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{ABB09738-BAC9-BA45-8231-5AEB3FC90100}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{0B049EB1-A355-A848-A94D-C4D1DD2B896B}"/>
     <hyperlink ref="I7" r:id="rId20" xr:uid="{EA95C1A0-1244-B243-A0C9-DB9E4DD5AFF9}"/>
-    <hyperlink ref="F14" r:id="rId21" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
+    <hyperlink ref="F13" r:id="rId21" xr:uid="{F4158B30-8DB8-6746-B1C0-D6F6F645B10E}"/>
+    <hyperlink ref="F22" r:id="rId22" xr:uid="{9B049C21-FA32-CE40-8BD7-F5829C93F7C1}"/>
     <hyperlink ref="I5" r:id="rId23" xr:uid="{93F1E579-860B-AF4C-9E05-9DD29B6A4D6F}"/>
     <hyperlink ref="I4" r:id="rId24" xr:uid="{18242E23-68BC-1D43-9DAC-5784E2B871DD}"/>
     <hyperlink ref="I6" r:id="rId25" xr:uid="{ED3DE6B4-5A73-5A4D-81DF-B9D5205BF560}"/>
-    <hyperlink ref="F24" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
-    <hyperlink ref="F25" r:id="rId27" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
-    <hyperlink ref="F26" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
-    <hyperlink ref="F27" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
-    <hyperlink ref="F28" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
+    <hyperlink ref="F23" r:id="rId26" xr:uid="{CCF375A9-5033-334B-8915-01445A028DA4}"/>
+    <hyperlink ref="F24" r:id="rId27" xr:uid="{5708F5D8-00C5-B141-804B-0BE479DA708F}"/>
+    <hyperlink ref="F25" r:id="rId28" xr:uid="{FA620C91-BCDE-8342-A254-7478067225E7}"/>
+    <hyperlink ref="F26" r:id="rId29" xr:uid="{B0EB5074-F333-4945-B86F-79CDEFA10099}"/>
+    <hyperlink ref="F27" r:id="rId30" xr:uid="{E5F3D437-95C0-DF4C-BE9F-6B1C7DB444AD}"/>
     <hyperlink ref="I9" r:id="rId31" xr:uid="{0AE86E5A-E933-AA40-8862-C72DBA4EB4F1}"/>
-    <hyperlink ref="F29" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
-    <hyperlink ref="F30" r:id="rId33" xr:uid="{4884AF3A-FFED-EA49-AD80-6537E0E013FC}"/>
+    <hyperlink ref="F28" r:id="rId32" xr:uid="{D22A7B88-4FF0-6D4A-9791-C38D108E3038}"/>
+    <hyperlink ref="F29" r:id="rId33" xr:uid="{4884AF3A-FFED-EA49-AD80-6537E0E013FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8525,283 +8512,283 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" t="s">
+        <v>756</v>
+      </c>
+      <c r="E9" t="s">
+        <v>665</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C9" t="s">
-        <v>666</v>
-      </c>
-      <c r="D9" t="s">
-        <v>759</v>
-      </c>
-      <c r="E9" t="s">
-        <v>666</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="C11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I12" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D13" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D14" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" t="s">
+        <v>665</v>
+      </c>
+      <c r="D16" t="s">
+        <v>760</v>
+      </c>
+      <c r="E16" t="s">
+        <v>665</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C16" t="s">
-        <v>666</v>
-      </c>
-      <c r="D16" t="s">
-        <v>763</v>
-      </c>
-      <c r="E16" t="s">
-        <v>666</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D18" t="s">
+        <v>762</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D18" t="s">
-        <v>765</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -8852,393 +8839,393 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>714</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D7" t="s">
+        <v>826</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D7" t="s">
-        <v>831</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" t="s">
+        <v>716</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" t="s">
-        <v>719</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D13" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D13" t="s">
-        <v>722</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D14" t="s">
-        <v>723</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="J14" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D15" t="s">
-        <v>724</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" t="s">
+        <v>725</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D19" t="s">
-        <v>728</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D23" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -9292,529 +9279,529 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>850</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D13" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D14" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D17" t="s">
+        <v>850</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D17" t="s">
-        <v>855</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D23" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D24" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D25" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D26" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D31" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D32" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D33" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -9874,478 +9861,478 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>866</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D6" t="s">
-        <v>868</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" t="s">
+        <v>867</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" t="s">
-        <v>872</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D13" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D14" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D15" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D16" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D17" t="s">
+        <v>874</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D17" t="s">
-        <v>879</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D19" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D21" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D23" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D24" t="s">
+        <v>880</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D24" t="s">
-        <v>885</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D25" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D26" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D27" t="s">
+        <v>882</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D27" t="s">
-        <v>887</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D29" t="s">
+        <v>966</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D29" t="s">
-        <v>971</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D30" t="s">
+        <v>883</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D30" t="s">
-        <v>888</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33E308-BC48-B946-B6CB-F6933B97F322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDE0CF-85FE-C546-9B31-BE1FE6914CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1124">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Asia Times</t>
   </si>
   <si>
-    <t>https://asiatimes.com/opinion/</t>
-  </si>
-  <si>
     <t>PJ Media</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>https://www.alligator.org/section/opinion</t>
   </si>
   <si>
-    <t>https://cornellsun.com/category/opinion/</t>
-  </si>
-  <si>
     <t>https://dailyiowan.com/category/opinions/</t>
   </si>
   <si>
@@ -2903,9 +2897,6 @@
     <t>Harvard Crimson</t>
   </si>
   <si>
-    <t>Red and Black</t>
-  </si>
-  <si>
     <t>Argonaut</t>
   </si>
   <si>
@@ -3254,9 +3245,6 @@
     <t>Chronicles</t>
   </si>
   <si>
-    <t>https://chroniclesmagazine.org/</t>
-  </si>
-  <si>
     <t>Marist</t>
   </si>
   <si>
@@ -3386,9 +3374,6 @@
     <t>American Mind</t>
   </si>
   <si>
-    <t>https://americanmind.org/features/</t>
-  </si>
-  <si>
     <t>We’re noisy, having a good time</t>
   </si>
   <si>
@@ -3396,6 +3381,42 @@
   </si>
   <si>
     <t>https://freebeacon.com/</t>
+  </si>
+  <si>
+    <t>https://www.cornellsun.com/section/opinion</t>
+  </si>
+  <si>
+    <t>The College Fix</t>
+  </si>
+  <si>
+    <t>https://www.thecollegefix.com/</t>
+  </si>
+  <si>
+    <t>Student Free Press Association</t>
+  </si>
+  <si>
+    <t>Red&amp;amp;Black</t>
+  </si>
+  <si>
+    <t>https://asiatimes.com/category/opinion/</t>
+  </si>
+  <si>
+    <t>https://chroniclesmagazine.org/online/</t>
+  </si>
+  <si>
+    <t>Defending traditions and history</t>
+  </si>
+  <si>
+    <t>The forefront of what is best</t>
+  </si>
+  <si>
+    <t>Putting first things first</t>
+  </si>
+  <si>
+    <t>https://americanmind.org/</t>
+  </si>
+  <si>
+    <t>Principles of the American founding</t>
   </si>
 </sst>
 </file>
@@ -3821,54 +3842,54 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3876,38 +3897,38 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -3924,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4E983-9DDC-5C42-A8DE-575FA41D9D39}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F29"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3940,520 +3961,513 @@
     <col min="8" max="8" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>895</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D6" t="s">
         <v>898</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" t="s">
-        <v>897</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>900</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D9" t="s">
+        <v>906</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>908</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D5" t="s">
-        <v>900</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D6" t="s">
-        <v>902</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D7" t="s">
-        <v>904</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D8" t="s">
-        <v>906</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D9" t="s">
-        <v>908</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D12" t="s">
         <v>909</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D10" t="s">
-        <v>900</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D11" t="s">
-        <v>910</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D12" t="s">
-        <v>911</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>916</v>
+        <v>956</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>892</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>887</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>101</v>
+      <c r="B18" s="2" t="s">
+        <v>957</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D20" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>959</v>
+        <v>917</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>960</v>
+      <c r="B23" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D23" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>888</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D24" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D25" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>965</v>
+        <v>919</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D26" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D29" t="s">
-        <v>911</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C31">
-    <sortCondition ref="B3:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F28">
+    <sortCondition ref="B3:B28"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{FB871221-D2EE-DC4E-885A-97F7A5E466D0}"/>
-    <hyperlink ref="F19" r:id="rId2" xr:uid="{F988DF3C-D983-064B-BDEE-03A941DD92E6}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{DB559658-5387-2B45-AE26-D756F4FC6B4C}"/>
+    <hyperlink ref="F24" r:id="rId1" xr:uid="{FB871221-D2EE-DC4E-885A-97F7A5E466D0}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{F988DF3C-D983-064B-BDEE-03A941DD92E6}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{DB559658-5387-2B45-AE26-D756F4FC6B4C}"/>
     <hyperlink ref="F13" r:id="rId4" xr:uid="{CE05D816-A511-EC4D-AE5A-A36A056E6362}"/>
     <hyperlink ref="F9" r:id="rId5" xr:uid="{9D9E4709-2359-6C41-B481-F95160AC508C}"/>
-    <hyperlink ref="F25" r:id="rId6" xr:uid="{090621C6-718C-0742-AA8C-D8C5B71858E0}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{090621C6-718C-0742-AA8C-D8C5B71858E0}"/>
     <hyperlink ref="F3" r:id="rId7" xr:uid="{F4B912B0-8AE6-D640-8BB5-EDF4AA5A0880}"/>
-    <hyperlink ref="F18" r:id="rId8" xr:uid="{E4C5FBEE-C08A-A24A-BB76-835BF0C25FFD}"/>
-    <hyperlink ref="F21" r:id="rId9" xr:uid="{AEB1B8B7-12D6-FF4E-849D-F0BE36A98E1F}"/>
-    <hyperlink ref="F22" r:id="rId10" xr:uid="{ED18E0B9-EB23-8B4C-9285-086F96DF6633}"/>
-    <hyperlink ref="F24" r:id="rId11" xr:uid="{99423943-2A1B-AF4B-BEF1-06E2211BC638}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{F08764AA-76C2-164C-9E6A-CD7570D5CEE8}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{F5CBBAB3-A1D2-914A-9E3B-3A3075F3E8F7}"/>
-    <hyperlink ref="F6" r:id="rId14" xr:uid="{8D89D47F-ABF2-8743-9F4C-07F1E84783DD}"/>
-    <hyperlink ref="F8" r:id="rId15" xr:uid="{EC826CD3-1A26-7240-B115-9EED90079776}"/>
+    <hyperlink ref="F23" r:id="rId8" xr:uid="{E4C5FBEE-C08A-A24A-BB76-835BF0C25FFD}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{AEB1B8B7-12D6-FF4E-849D-F0BE36A98E1F}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{ED18E0B9-EB23-8B4C-9285-086F96DF6633}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{99423943-2A1B-AF4B-BEF1-06E2211BC638}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{F08764AA-76C2-164C-9E6A-CD7570D5CEE8}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{F5CBBAB3-A1D2-914A-9E3B-3A3075F3E8F7}"/>
+    <hyperlink ref="F7" r:id="rId14" xr:uid="{8D89D47F-ABF2-8743-9F4C-07F1E84783DD}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{EC826CD3-1A26-7240-B115-9EED90079776}"/>
     <hyperlink ref="F12" r:id="rId16" xr:uid="{FF8FCBB9-2EBF-BB41-953E-7ECD2DE15CCE}"/>
-    <hyperlink ref="F5" r:id="rId17" xr:uid="{EE260883-24A8-904F-9C48-183314CF8077}"/>
-    <hyperlink ref="F15" r:id="rId18" xr:uid="{1FB44300-AD01-2941-B9C6-24AAFBBC25C7}"/>
-    <hyperlink ref="F17" r:id="rId19" xr:uid="{7E3B384F-ACEB-1346-946E-EF021356C7F5}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{67BBD83A-E330-034A-B1F1-B159A7245968}"/>
+    <hyperlink ref="F6" r:id="rId17" xr:uid="{EE260883-24A8-904F-9C48-183314CF8077}"/>
+    <hyperlink ref="K11" r:id="rId18" xr:uid="{1FB44300-AD01-2941-B9C6-24AAFBBC25C7}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{7E3B384F-ACEB-1346-946E-EF021356C7F5}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{67BBD83A-E330-034A-B1F1-B159A7245968}"/>
     <hyperlink ref="F11" r:id="rId21" xr:uid="{D6D12C11-C8E7-2743-BAB4-7D0D793F8C41}"/>
-    <hyperlink ref="F28" r:id="rId22" xr:uid="{B6796569-2AC1-8041-886E-7DBCB9439DC3}"/>
-    <hyperlink ref="F16" r:id="rId23" xr:uid="{2287B03B-CC26-924F-84B6-EC17F03FD8F8}"/>
+    <hyperlink ref="F25" r:id="rId22" xr:uid="{B6796569-2AC1-8041-886E-7DBCB9439DC3}"/>
+    <hyperlink ref="F20" r:id="rId23" xr:uid="{2287B03B-CC26-924F-84B6-EC17F03FD8F8}"/>
     <hyperlink ref="F27" r:id="rId24" xr:uid="{AB4F95C0-ACA1-314A-8F94-655B04525262}"/>
-    <hyperlink ref="F29" r:id="rId25" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
-    <hyperlink ref="F20" r:id="rId26" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{15395111-1DB3-7348-A2EF-FC42443B8883}"/>
+    <hyperlink ref="F26" r:id="rId26" xr:uid="{6121D8F5-EED8-224D-BAF6-F1CFC5940541}"/>
     <hyperlink ref="F10" r:id="rId27" xr:uid="{052EF48B-695D-2040-A48D-5677C0FF8B7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4477,16 +4491,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -4497,24 +4511,24 @@
         <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
@@ -4525,286 +4539,286 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
@@ -4823,54 +4837,54 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -4951,10 +4965,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -4963,1014 +4977,1014 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D33" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D35" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D40" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D42" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D43" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D50" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D51" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D53" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D55" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D56" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D57" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D58" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D59" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D61" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D63" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D64" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D65" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D66" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D68" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D69" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D72" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D73" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D74" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D75" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D76" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D77" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D78" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D79" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D80" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D81" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D82" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D83" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D84" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D85" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D86" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D87" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D89" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D90" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D91" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D92" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D93" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D94" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D95" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6096,263 +6110,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C3" t="s">
+        <v>971</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E3" t="s">
         <v>974</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E3" t="s">
-        <v>977</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C4" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E4" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G4" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G5" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C6" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E6" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G6" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C7" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E7" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G7" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C8" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E8" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G8" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" t="s">
+        <v>971</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E9" t="s">
+        <v>992</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G9" t="s">
+        <v>993</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C9" t="s">
-        <v>974</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E9" t="s">
-        <v>995</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="G9" t="s">
-        <v>996</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>995</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C10" t="s">
+        <v>971</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E10" t="s">
+        <v>996</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G10" t="s">
+        <v>997</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C10" t="s">
-        <v>974</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E10" t="s">
-        <v>999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -6373,10 +6387,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
-  <dimension ref="B2:P39"/>
+  <dimension ref="B2:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6396,154 +6410,128 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1069</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" t="s">
-        <v>770</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>771</v>
-      </c>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1091</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1112</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>1113</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>1030</v>
+        <v>304</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -6552,16 +6540,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6573,19 +6561,19 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6594,87 +6582,87 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M12" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="M14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P14" s="3"/>
     </row>
@@ -6683,22 +6671,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -6707,414 +6695,488 @@
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D22" t="s">
         <v>702</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D22" t="s">
-        <v>704</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F22" s="1" t="s">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D23" t="s">
+        <v>811</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D23" t="s">
-        <v>813</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D25" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D26" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D31" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D32" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D33" t="s">
         <v>1003</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1006</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D34" t="s">
         <v>1005</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1008</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D35" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D36" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D37" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D38" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D39" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>768</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -7160,14 +7222,14 @@
     <hyperlink ref="F35" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
     <hyperlink ref="F36" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
     <hyperlink ref="F37" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
-    <hyperlink ref="N8" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
+    <hyperlink ref="N17" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
-    <hyperlink ref="N5" r:id="rId41" xr:uid="{14C54F5B-E126-4743-950B-1695329D31EE}"/>
-    <hyperlink ref="N4" r:id="rId42" xr:uid="{8FE7AF83-3DD7-B549-95A6-4D136A129D5E}"/>
-    <hyperlink ref="N6" r:id="rId43" xr:uid="{88BE8912-8F64-6945-A2FF-38034DCC3B2A}"/>
-    <hyperlink ref="F38" r:id="rId44" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
-    <hyperlink ref="F39" r:id="rId45" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
-    <hyperlink ref="N7" r:id="rId46" xr:uid="{44C17794-EACA-6147-AB87-7596FBAE41C4}"/>
+    <hyperlink ref="F38" r:id="rId41" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
+    <hyperlink ref="F39" r:id="rId42" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
+    <hyperlink ref="F40" r:id="rId43" xr:uid="{1A8EBAE1-3E7B-F540-A52E-61829512A815}"/>
+    <hyperlink ref="F41" r:id="rId44" xr:uid="{F570D8B6-DE6B-1E4F-AD82-4F7356F22DDC}"/>
+    <hyperlink ref="F42" r:id="rId45" xr:uid="{593669D8-2597-9047-94EE-8E7109B72C1A}"/>
+    <hyperlink ref="F43" r:id="rId46" xr:uid="{008F604C-B70D-E44B-84F8-F04A91CDB90E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7198,19 +7260,19 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7222,25 +7284,25 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N4" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7248,36 +7310,36 @@
         <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>66</v>
@@ -7288,13 +7350,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7302,16 +7364,16 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>62</v>
@@ -7319,19 +7381,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>667</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7339,16 +7401,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -7356,13 +7418,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -7373,13 +7435,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7390,13 +7452,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7407,13 +7469,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>37</v>
@@ -7422,36 +7484,36 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7459,30 +7521,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7490,104 +7552,104 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7595,13 +7657,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>45</v>
@@ -7612,33 +7674,33 @@
         <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -7646,13 +7708,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7663,13 +7725,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7680,13 +7742,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7697,13 +7759,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>54</v>
@@ -7711,36 +7773,36 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -7748,13 +7810,13 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D34" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>50</v>
@@ -7762,16 +7824,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>56</v>
@@ -7779,70 +7841,70 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D37" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D39" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -7912,19 +7974,19 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7934,45 +7996,45 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="H3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="H4" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7980,20 +8042,20 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D5" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -8001,22 +8063,22 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -8024,91 +8086,91 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
@@ -8123,16 +8185,16 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -8144,104 +8206,104 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>665</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -8249,13 +8311,13 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
@@ -8263,19 +8325,19 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -8283,81 +8345,81 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C21" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D23" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D24" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>40</v>
@@ -8365,88 +8427,88 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D25" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D26" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D29" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -8512,283 +8574,283 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I12" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -8839,288 +8901,288 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>65</v>
@@ -9128,104 +9190,104 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D20" t="s">
         <v>727</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D20" t="s">
-        <v>729</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D23" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -9279,529 +9341,529 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D26" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D31" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D33" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -9844,10 +9906,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C72759F-4821-214E-8EDE-D2ED0F5B49AA}">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B3" sqref="B3:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9861,271 +9923,271 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>113</v>
+        <v>950</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D5" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>945</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>943</v>
+        <v>128</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>945</v>
+        <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>866</v>
+        <v>965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>872</v>
+        <v>964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
         <v>873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>872</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="D17" t="s">
-        <v>874</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>951</v>
+        <v>132</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>131</v>
@@ -10133,33 +10195,33 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D20" t="s">
         <v>877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>136</v>
@@ -10167,203 +10229,224 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>955</v>
+        <v>1116</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>946</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D23" t="s">
-        <v>968</v>
+        <v>868</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D24" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>956</v>
+        <v>1113</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D25" t="s">
-        <v>881</v>
+        <v>1115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>860</v>
+        <v>120</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D26" t="s">
-        <v>1014</v>
+        <v>880</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>858</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>882</v>
+        <v>1011</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
-        <v>967</v>
+        <v>861</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D29" t="s">
+        <v>963</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="D29" t="s">
-        <v>966</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>941</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D30" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D31" t="s">
+        <v>859</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F31">
+    <sortCondition ref="B4:B31"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{D8C9A25F-E731-FC47-BAAE-A302D52BA274}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{2480B04B-EC7B-C248-BBB9-4FF5C183F882}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{02FA871B-F3B6-0E42-AB94-5BB43570ED66}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{C20874BF-E8C1-DA4F-8785-A895D7558A10}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{7B7FF042-73C7-7142-8D96-3A89F9D45492}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{5AD70E6F-01C0-304E-BDC0-274F35F35C24}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{D7B4972D-5415-804F-AA08-7A8AF29441C6}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{69C40A48-2666-0E45-9AEF-8141B834F804}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{56C65E48-5E36-2348-B8EE-0B915094BA94}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{9416DC5A-E415-2E4F-A2AD-6073FCA1BF02}"/>
-    <hyperlink ref="F15" r:id="rId11" xr:uid="{CA4192C2-5DE4-A047-B589-E611A7E53FD6}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{AA034EC8-AA89-204D-83DA-5BAA086CA4F7}"/>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{D8C9A25F-E731-FC47-BAAE-A302D52BA274}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{2480B04B-EC7B-C248-BBB9-4FF5C183F882}"/>
+    <hyperlink ref="F28" r:id="rId3" xr:uid="{02FA871B-F3B6-0E42-AB94-5BB43570ED66}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{C20874BF-E8C1-DA4F-8785-A895D7558A10}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{7B7FF042-73C7-7142-8D96-3A89F9D45492}"/>
+    <hyperlink ref="F24" r:id="rId6" xr:uid="{5AD70E6F-01C0-304E-BDC0-274F35F35C24}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{D7B4972D-5415-804F-AA08-7A8AF29441C6}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{69C40A48-2666-0E45-9AEF-8141B834F804}"/>
+    <hyperlink ref="F23" r:id="rId9" xr:uid="{56C65E48-5E36-2348-B8EE-0B915094BA94}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{9416DC5A-E415-2E4F-A2AD-6073FCA1BF02}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{CA4192C2-5DE4-A047-B589-E611A7E53FD6}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{AA034EC8-AA89-204D-83DA-5BAA086CA4F7}"/>
     <hyperlink ref="F17" r:id="rId13" xr:uid="{B9DD81E2-33E1-0344-BFBF-277AD6C89780}"/>
-    <hyperlink ref="F7" r:id="rId14" xr:uid="{C7E6C0EF-7DC3-2F4E-A151-DAF6E863E445}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{C99A764E-893F-8542-B134-579E94674F42}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{00969093-D223-CF42-BD26-57E002301C35}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{124D26B4-6DD8-724B-8D52-4AC93180A323}"/>
+    <hyperlink ref="F30" r:id="rId14" xr:uid="{C7E6C0EF-7DC3-2F4E-A151-DAF6E863E445}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{C99A764E-893F-8542-B134-579E94674F42}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{00969093-D223-CF42-BD26-57E002301C35}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{124D26B4-6DD8-724B-8D52-4AC93180A323}"/>
     <hyperlink ref="F21" r:id="rId18" xr:uid="{3101BA5F-C2B8-0446-9A83-2145D84D85CE}"/>
-    <hyperlink ref="F22" r:id="rId19" xr:uid="{9E86AB7D-574C-A74C-A992-9A20AE5DAE91}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{800C56FC-CAF0-C148-8416-9660BAE8C539}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{4E5E7BF3-CE42-0249-85CE-D7F0FE69672B}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{16876FF2-B205-AD4A-920A-3F8D76507171}"/>
-    <hyperlink ref="F26" r:id="rId23" xr:uid="{ECB66FDA-8BD5-C348-9026-BDA2BF008C15}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{85FAB6F4-1411-5546-84CF-467FFC6D2C0B}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{8F05780C-8056-8541-B97C-8C57F50DAF12}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{9E86AB7D-574C-A74C-A992-9A20AE5DAE91}"/>
+    <hyperlink ref="F9" r:id="rId20" xr:uid="{800C56FC-CAF0-C148-8416-9660BAE8C539}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{4E5E7BF3-CE42-0249-85CE-D7F0FE69672B}"/>
+    <hyperlink ref="F5" r:id="rId22" xr:uid="{16876FF2-B205-AD4A-920A-3F8D76507171}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{ECB66FDA-8BD5-C348-9026-BDA2BF008C15}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{85FAB6F4-1411-5546-84CF-467FFC6D2C0B}"/>
+    <hyperlink ref="F15" r:id="rId25" xr:uid="{8F05780C-8056-8541-B97C-8C57F50DAF12}"/>
     <hyperlink ref="F29" r:id="rId26" xr:uid="{1CA65B40-BCAA-A347-8F12-829F7750E33D}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{6D3F7BE2-91D1-AC43-858B-D76B89098DB9}"/>
+    <hyperlink ref="F7" r:id="rId27" xr:uid="{6D3F7BE2-91D1-AC43-858B-D76B89098DB9}"/>
+    <hyperlink ref="F25" r:id="rId28" xr:uid="{79A81AFF-2B11-E349-8167-0E40B3DA59E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDE0CF-85FE-C546-9B31-BE1FE6914CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0800638-348A-6145-BAF5-2F065C545AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
@@ -3416,7 +3416,7 @@
     <t>https://americanmind.org/</t>
   </si>
   <si>
-    <t>Principles of the American founding</t>
+    <t>The American founding</t>
   </si>
 </sst>
 </file>
@@ -6390,7 +6390,7 @@
   <dimension ref="B2:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6447,109 +6447,109 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>731</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>696</v>
+        <v>1123</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>97</v>
+        <v>1122</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>731</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D5" t="s">
-        <v>833</v>
+        <v>696</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>629</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
+        <v>833</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1016</v>
+        <v>8</v>
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>316</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>698</v>
+      <c r="D7" t="s">
+        <v>1003</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>317</v>
+        <v>999</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>809</v>
+        <v>629</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>304</v>
+        <v>1016</v>
       </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D9" t="s">
-        <v>810</v>
+        <v>1041</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6559,21 +6559,21 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>630</v>
+        <v>316</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D10" t="s">
-        <v>1109</v>
+      <c r="D10" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>631</v>
+        <v>317</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6582,56 +6582,56 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>733</v>
+        <v>1065</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
+        <v>1119</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>622</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>734</v>
+        <v>809</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D12" t="s">
-        <v>1110</v>
+        <v>706</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1052</v>
+        <v>304</v>
       </c>
       <c r="M12" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>293</v>
+      <c r="B13" t="s">
+        <v>1094</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D13" t="s">
-        <v>807</v>
+        <v>1095</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>294</v>
+        <v>1096</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>246</v>
@@ -6644,19 +6644,19 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>804</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D14" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1111</v>
+        <v>1018</v>
       </c>
       <c r="M14" t="s">
         <v>258</v>
@@ -6668,19 +6668,19 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>630</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D15" t="s">
-        <v>703</v>
+        <v>1109</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>631</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>736</v>
@@ -6691,20 +6691,20 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>52</v>
+      <c r="B16" t="s">
+        <v>733</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>693</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1051</v>
+        <v>622</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
@@ -6716,19 +6716,19 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>623</v>
+        <v>734</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D17" t="s">
-        <v>695</v>
+        <v>1110</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>694</v>
+        <v>1052</v>
       </c>
       <c r="M17" t="s">
         <v>1044</v>
@@ -6738,275 +6738,275 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>735</v>
+      <c r="B18" t="s">
+        <v>1086</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>805</v>
+        <v>1121</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>624</v>
+      <c r="B19" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D19" t="s">
-        <v>767</v>
+        <v>807</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>804</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>832</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>6</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>803</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D21" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>634</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>77</v>
+      <c r="B22" t="s">
+        <v>967</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D22" t="s">
-        <v>702</v>
+        <v>1004</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>296</v>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D23" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>297</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>79</v>
+      <c r="B24" t="s">
+        <v>1089</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D24" t="s">
-        <v>708</v>
+        <v>1090</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>213</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>765</v>
+      <c r="B25" t="s">
+        <v>1023</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D25" t="s">
-        <v>766</v>
+        <v>1043</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>623</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D26" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>589</v>
+      <c r="B27" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D27" t="s">
-        <v>662</v>
+        <v>805</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>625</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>768</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D28" t="s">
-        <v>812</v>
+        <v>1120</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>626</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>732</v>
+        <v>624</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D29" t="s">
-        <v>813</v>
+        <v>767</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>627</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>593</v>
+      <c r="B30" t="s">
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D30" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>305</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>636</v>
+        <v>803</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D31" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>7</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>967</v>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D32" t="s">
-        <v>1004</v>
+        <v>702</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>966</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>1000</v>
+        <v>296</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D33" t="s">
-        <v>1003</v>
+        <v>811</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>999</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -7027,209 +7027,209 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>1039</v>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D35" t="s">
-        <v>1041</v>
+        <v>708</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1040</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>1021</v>
+      <c r="B36" s="4" t="s">
+        <v>765</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D36" t="s">
-        <v>1042</v>
+        <v>766</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>1023</v>
+        <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D37" t="s">
-        <v>1043</v>
+        <v>704</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1024</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>1089</v>
+        <v>589</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D38" t="s">
-        <v>1090</v>
+        <v>662</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1088</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1094</v>
+        <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D39" t="s">
-        <v>1095</v>
+        <v>812</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1096</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1065</v>
+        <v>732</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D40" t="s">
-        <v>1119</v>
+        <v>813</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1118</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>768</v>
+        <v>1021</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D41" t="s">
-        <v>1120</v>
+        <v>1042</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>769</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>1086</v>
+      <c r="B42" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D42" t="s">
-        <v>1121</v>
+        <v>707</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1087</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>1108</v>
+        <v>636</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>663</v>
       </c>
       <c r="D43" t="s">
-        <v>1123</v>
+        <v>705</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>663</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1122</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F32">
-    <sortCondition ref="B3:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F43">
+    <sortCondition ref="B3:B43"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
-    <hyperlink ref="F24" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
-    <hyperlink ref="F30" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{0CCE55BE-6EA5-2A4F-AABC-9CE752AED041}"/>
+    <hyperlink ref="F39" r:id="rId2" xr:uid="{BBA5465C-FB54-A845-B362-A70925D86E01}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{6CC845C4-4D45-D845-B0A5-3E7E94410CA7}"/>
+    <hyperlink ref="F23" r:id="rId4" xr:uid="{5F2A6697-B395-314A-8E6A-9AB1F86FCBDD}"/>
+    <hyperlink ref="F35" r:id="rId5" xr:uid="{8A0E1F96-8C30-5D4B-B53F-52E31299ED3B}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{B9DDADD4-8BF0-894B-B2FC-DE177A803F04}"/>
+    <hyperlink ref="F42" r:id="rId7" xr:uid="{DBF00332-2E7B-0543-849F-5690F1C57A5C}"/>
     <hyperlink ref="N14" r:id="rId8" xr:uid="{5C71A646-0C34-7446-BD83-87F7E8001227}"/>
-    <hyperlink ref="F23" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
-    <hyperlink ref="F19" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
+    <hyperlink ref="F33" r:id="rId9" xr:uid="{23A9C7AB-5F2B-8F4A-92CE-C0E9268F1252}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{1104C60B-DFE4-9041-A336-B30DDF8FB7D4}"/>
+    <hyperlink ref="F29" r:id="rId11" xr:uid="{6193360E-7995-264B-BD3A-1F2202AE0959}"/>
     <hyperlink ref="N15" r:id="rId12" xr:uid="{8BA99F8F-8BCD-B846-866B-66C064CD1CB4}"/>
-    <hyperlink ref="F26" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
-    <hyperlink ref="F15" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
-    <hyperlink ref="F7" r:id="rId19" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
-    <hyperlink ref="F25" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
-    <hyperlink ref="F11" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
-    <hyperlink ref="F27" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
+    <hyperlink ref="F37" r:id="rId13" xr:uid="{1EF92600-F9ED-0540-A0C4-F931BDECB71F}"/>
+    <hyperlink ref="F27" r:id="rId14" xr:uid="{BD829879-2410-DF44-BDEB-870E4072600E}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{2B6A8F80-E940-BC43-8FD0-0E5DC86451D4}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{ECDC1097-4885-1442-94CC-A7CCAF1D4991}"/>
+    <hyperlink ref="F30" r:id="rId17" xr:uid="{22B3D503-055B-B24A-B4A3-D7B96FF22F57}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{0EC08BE4-CA89-B342-8ADA-35C41289E81E}"/>
+    <hyperlink ref="F10" r:id="rId19" xr:uid="{7FD59729-97D3-2849-B077-BF176E5BD819}"/>
+    <hyperlink ref="F36" r:id="rId20" xr:uid="{6E699036-B816-E94C-ABCF-E72494682AD7}"/>
+    <hyperlink ref="F16" r:id="rId21" xr:uid="{DB13B550-AE08-4542-AD25-41D56F3981D4}"/>
+    <hyperlink ref="F38" r:id="rId22" xr:uid="{A9462712-9A2C-A241-869D-2F0BDFABB707}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{43436F4A-5A3D-E843-84DC-676202FA406E}"/>
     <hyperlink ref="F3" r:id="rId24" xr:uid="{C0AF8236-E274-D24E-B8EE-D74B81281D4F}"/>
-    <hyperlink ref="F6" r:id="rId25" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
-    <hyperlink ref="F10" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
-    <hyperlink ref="F21" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
-    <hyperlink ref="F14" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
+    <hyperlink ref="F8" r:id="rId25" xr:uid="{4C25DB22-2922-DE4E-BC9A-7B661D886465}"/>
+    <hyperlink ref="F15" r:id="rId26" xr:uid="{740EE623-2E3C-2247-8E25-27D1A4E5FEFC}"/>
+    <hyperlink ref="F31" r:id="rId27" xr:uid="{B87C8C3F-1802-8045-B0DC-BAA74F8BFF33}"/>
+    <hyperlink ref="F20" r:id="rId28" xr:uid="{21759814-7D83-4346-8D2C-39633840C209}"/>
     <hyperlink ref="N16" r:id="rId29" xr:uid="{19B0417A-8CE3-744D-A35A-06E087CBA02C}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
-    <hyperlink ref="F8" r:id="rId31" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
-    <hyperlink ref="F17" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
-    <hyperlink ref="F32" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
-    <hyperlink ref="F33" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
+    <hyperlink ref="F43" r:id="rId30" xr:uid="{BDB433ED-E87C-1D47-9A05-D54D9396900A}"/>
+    <hyperlink ref="F12" r:id="rId31" xr:uid="{532DD605-1194-2C43-8061-627096F43480}"/>
+    <hyperlink ref="F26" r:id="rId32" xr:uid="{4565116F-AF1B-224B-A7E0-5CF477BBC3F2}"/>
+    <hyperlink ref="F22" r:id="rId33" xr:uid="{939FD7EC-9D11-D945-A543-AAFE54F452B4}"/>
+    <hyperlink ref="F7" r:id="rId34" xr:uid="{80DE5A24-AAB9-064C-AA81-5A9ABA907483}"/>
     <hyperlink ref="F34" r:id="rId35" xr:uid="{24A2E0BA-A641-B24B-B255-A252102423AF}"/>
-    <hyperlink ref="F35" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
-    <hyperlink ref="F36" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
-    <hyperlink ref="F37" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
+    <hyperlink ref="F9" r:id="rId36" xr:uid="{CA6A90B7-1C5A-B745-B308-FA74F8110B52}"/>
+    <hyperlink ref="F41" r:id="rId37" xr:uid="{9DF24F46-7854-6541-9F00-C71EC08BB4E2}"/>
+    <hyperlink ref="F25" r:id="rId38" xr:uid="{A400EC72-3822-DB43-9121-6BD887C9B51D}"/>
     <hyperlink ref="N17" r:id="rId39" xr:uid="{64EE9865-3F92-D84B-81C7-7A0E6F772830}"/>
     <hyperlink ref="N13" r:id="rId40" display="https://imprimis.hillsdale.edu/" xr:uid="{6E2E1374-0029-814C-8481-AD2C4B8CED9E}"/>
-    <hyperlink ref="F38" r:id="rId41" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
-    <hyperlink ref="F39" r:id="rId42" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
-    <hyperlink ref="F40" r:id="rId43" xr:uid="{1A8EBAE1-3E7B-F540-A52E-61829512A815}"/>
-    <hyperlink ref="F41" r:id="rId44" xr:uid="{F570D8B6-DE6B-1E4F-AD82-4F7356F22DDC}"/>
-    <hyperlink ref="F42" r:id="rId45" xr:uid="{593669D8-2597-9047-94EE-8E7109B72C1A}"/>
-    <hyperlink ref="F43" r:id="rId46" xr:uid="{008F604C-B70D-E44B-84F8-F04A91CDB90E}"/>
+    <hyperlink ref="F24" r:id="rId41" xr:uid="{F13B5829-E720-AB4F-AE1F-65930BBA8C7D}"/>
+    <hyperlink ref="F13" r:id="rId42" xr:uid="{E958FD2E-9984-7A4D-8459-06E8207EF359}"/>
+    <hyperlink ref="F11" r:id="rId43" xr:uid="{1A8EBAE1-3E7B-F540-A52E-61829512A815}"/>
+    <hyperlink ref="F28" r:id="rId44" xr:uid="{F570D8B6-DE6B-1E4F-AD82-4F7356F22DDC}"/>
+    <hyperlink ref="F18" r:id="rId45" xr:uid="{593669D8-2597-9047-94EE-8E7109B72C1A}"/>
+    <hyperlink ref="F4" r:id="rId46" xr:uid="{008F604C-B70D-E44B-84F8-F04A91CDB90E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/content/ContentResources.xlsx
+++ b/content/ContentResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian.mcgrath/serialpolitics/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0800638-348A-6145-BAF5-2F065C545AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8109F420-95D8-B842-B0A2-06F64DCF6C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="2" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32500" windowHeight="18480" activeTab="3" xr2:uid="{4983F2A0-0714-B741-B9D1-591429B1031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Media" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1125">
   <si>
     <t>Daily Caller</t>
   </si>
@@ -737,12 +737,6 @@
     <t>https://www.statista.com/chartoftheday/</t>
   </si>
   <si>
-    <t>https://www.theonion.com/politics</t>
-  </si>
-  <si>
-    <t>https://babylonbee.com/news?sort=buzzing</t>
-  </si>
-  <si>
     <t>Bill O'Rielly</t>
   </si>
   <si>
@@ -893,9 +887,6 @@
     <t>https://theintercept.com/politics/</t>
   </si>
   <si>
-    <t xml:space="preserve">Trending Political Satire </t>
-  </si>
-  <si>
     <t>https://www.pewresearch.org/</t>
   </si>
   <si>
@@ -3417,6 +3408,18 @@
   </si>
   <si>
     <t>The American founding</t>
+  </si>
+  <si>
+    <t>Lawfare</t>
+  </si>
+  <si>
+    <t>Coda Story</t>
+  </si>
+  <si>
+    <t>Make complexity accessible</t>
+  </si>
+  <si>
+    <t>https://www.codastory.com/</t>
   </si>
 </sst>
 </file>
@@ -3842,7 +3845,7 @@
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K3" t="s">
         <v>188</v>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
@@ -3858,7 +3861,7 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K5" t="s">
         <v>190</v>
@@ -3866,7 +3869,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K6" t="s">
         <v>191</v>
@@ -3874,22 +3877,22 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
@@ -3897,38 +3900,38 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -3963,33 +3966,33 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>93</v>
@@ -3997,16 +4000,16 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
@@ -4017,47 +4020,47 @@
         <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>86</v>
@@ -4066,16 +4069,16 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>60</v>
@@ -4083,16 +4086,16 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
@@ -4101,47 +4104,47 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -4150,13 +4153,13 @@
         <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>159</v>
@@ -4168,13 +4171,13 @@
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>72</v>
@@ -4183,16 +4186,16 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>58</v>
@@ -4201,16 +4204,16 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>154</v>
@@ -4218,16 +4221,16 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>63</v>
@@ -4235,16 +4238,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>82</v>
@@ -4252,33 +4255,33 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>64</v>
@@ -4286,33 +4289,33 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D20" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D21" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>81</v>
@@ -4320,19 +4323,19 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D22" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -4340,13 +4343,13 @@
         <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D23" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>99</v>
@@ -4354,16 +4357,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D24" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>59</v>
@@ -4371,70 +4374,70 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D25" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D26" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D27" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D28" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4483,7 @@
   <dimension ref="C3:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4491,16 +4494,16 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
@@ -4522,13 +4525,13 @@
         <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="K5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
@@ -4553,10 +4556,10 @@
         <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
@@ -4567,10 +4570,10 @@
         <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
@@ -4601,6 +4604,11 @@
         <v>152</v>
       </c>
     </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>1121</v>
+      </c>
+    </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>196</v>
@@ -4608,12 +4616,7 @@
       <c r="D12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K12" t="s">
-        <v>282</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
@@ -4622,12 +4625,7 @@
       <c r="D13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K13" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -4637,7 +4635,7 @@
         <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>185</v>
@@ -4675,16 +4673,16 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -4695,10 +4693,10 @@
         <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
@@ -4709,10 +4707,10 @@
         <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
@@ -4723,10 +4721,10 @@
         <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
@@ -4755,24 +4753,24 @@
         <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
@@ -4791,10 +4789,10 @@
         <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
@@ -4815,10 +4813,10 @@
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
@@ -4837,54 +4835,54 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -4914,35 +4912,33 @@
     <hyperlink ref="D28" r:id="rId23" xr:uid="{B7118DD7-F425-E14D-84E1-FE8AC7F5D029}"/>
     <hyperlink ref="D29" r:id="rId24" xr:uid="{5689D549-B90A-524D-98D0-14CB2F873A7E}"/>
     <hyperlink ref="D25" r:id="rId25" xr:uid="{6C6E8E2A-1FA3-004A-A967-A3FF92C10F2A}"/>
-    <hyperlink ref="L12" r:id="rId26" xr:uid="{0DE12C35-5D8C-EC45-BC8B-2C0163FBF5D9}"/>
-    <hyperlink ref="L13" r:id="rId27" xr:uid="{D0EF971F-AD1D-544D-BF1B-EEA0BE759A4E}"/>
-    <hyperlink ref="L14" r:id="rId28" xr:uid="{AF177089-94D0-9C4D-A3F4-C03747C8DEAD}"/>
-    <hyperlink ref="L10" r:id="rId29" xr:uid="{EF8A37CE-B0CF-7842-A197-37695B14A393}"/>
-    <hyperlink ref="L9" r:id="rId30" xr:uid="{8E375255-BAE2-F34D-AEF3-9409AB417209}"/>
-    <hyperlink ref="L6" r:id="rId31" xr:uid="{6ABBB237-5B88-AB46-80C1-4145D1DE24D2}"/>
-    <hyperlink ref="L7" r:id="rId32" xr:uid="{72726B07-2202-0D47-8C5D-29E3F3A12DC9}"/>
-    <hyperlink ref="L5" r:id="rId33" xr:uid="{8C77B297-4C1A-594B-BFD0-1982D0A1BF18}"/>
-    <hyperlink ref="L4" r:id="rId34" xr:uid="{77A94807-906F-FA4D-836B-10991294DB03}"/>
-    <hyperlink ref="L8" r:id="rId35" xr:uid="{EA087299-724E-244A-B0C1-FC7EAF9336AC}"/>
-    <hyperlink ref="L3" r:id="rId36" location="politics" xr:uid="{2CA39F4E-33A3-EA46-B197-AB568505919E}"/>
-    <hyperlink ref="L19" r:id="rId37" xr:uid="{25B842FC-2E94-624D-AD9A-0C3D3496DD2B}"/>
-    <hyperlink ref="L18" r:id="rId38" xr:uid="{667DFF61-129E-5245-90C4-8D83D85CC4B7}"/>
-    <hyperlink ref="L17" r:id="rId39" xr:uid="{27D81FFA-A11F-4B4D-9986-C7E06B3E5BEA}"/>
-    <hyperlink ref="L21" r:id="rId40" xr:uid="{9FD754D5-8F4B-2F45-B853-9215748265D3}"/>
-    <hyperlink ref="L24" r:id="rId41" location="politics" xr:uid="{59D55099-C26E-4348-923C-D6BE5A13C451}"/>
-    <hyperlink ref="L20" r:id="rId42" xr:uid="{05D428DE-5D28-9741-A4C8-D49D1B99A30F}"/>
-    <hyperlink ref="L25" r:id="rId43" xr:uid="{7192F838-7E75-DB4D-8E4C-22652EE645B4}"/>
-    <hyperlink ref="L27" r:id="rId44" xr:uid="{7C0A5563-5617-7646-985D-01E86954DCB0}"/>
-    <hyperlink ref="L34" r:id="rId45" xr:uid="{1E3A4E54-E0EE-2540-BC05-F73D93437115}"/>
-    <hyperlink ref="L33" r:id="rId46" location="politics" xr:uid="{3BE2DE24-DB41-C94E-8592-B6C0ACD61C09}"/>
-    <hyperlink ref="L30" r:id="rId47" xr:uid="{1DF273F4-BA09-F944-81AD-A5FC5F9ECC0F}"/>
-    <hyperlink ref="L32" r:id="rId48" xr:uid="{DFBF9D39-FFF1-7B47-A2B3-F37FF64C7622}"/>
-    <hyperlink ref="L31" r:id="rId49" xr:uid="{725D878B-1AE6-EF49-81F6-FC958B35DB11}"/>
-    <hyperlink ref="D31" r:id="rId50" xr:uid="{1FAAEDDB-FC7D-B840-93A4-828248E97345}"/>
-    <hyperlink ref="D32" r:id="rId51" xr:uid="{297D0383-1198-0B43-A3AB-00D53C1A426F}"/>
-    <hyperlink ref="D34" r:id="rId52" xr:uid="{24516360-6419-5342-8CB1-A2E2166ABAFE}"/>
-    <hyperlink ref="D35" r:id="rId53" xr:uid="{234D7995-DD2A-C841-8860-2E3A3BDCA68B}"/>
-    <hyperlink ref="D36" r:id="rId54" xr:uid="{7B8EA1B7-B39B-C448-84CC-D5E9C7F83C90}"/>
+    <hyperlink ref="L14" r:id="rId26" xr:uid="{AF177089-94D0-9C4D-A3F4-C03747C8DEAD}"/>
+    <hyperlink ref="L10" r:id="rId27" xr:uid="{EF8A37CE-B0CF-7842-A197-37695B14A393}"/>
+    <hyperlink ref="L9" r:id="rId28" xr:uid="{8E375255-BAE2-F34D-AEF3-9409AB417209}"/>
+    <hyperlink ref="L6" r:id="rId29" xr:uid="{6ABBB237-5B88-AB46-80C1-4145D1DE24D2}"/>
+    <hyperlink ref="L7" r:id="rId30" xr:uid="{72726B07-2202-0D47-8C5D-29E3F3A12DC9}"/>
+    <hyperlink ref="L5" r:id="rId31" xr:uid="{8C77B297-4C1A-594B-BFD0-1982D0A1BF18}"/>
+    <hyperlink ref="L4" r:id="rId32" xr:uid="{77A94807-906F-FA4D-836B-10991294DB03}"/>
+    <hyperlink ref="L8" r:id="rId33" xr:uid="{EA087299-724E-244A-B0C1-FC7EAF9336AC}"/>
+    <hyperlink ref="L3" r:id="rId34" location="politics" xr:uid="{2CA39F4E-33A3-EA46-B197-AB568505919E}"/>
+    <hyperlink ref="L19" r:id="rId35" xr:uid="{25B842FC-2E94-624D-AD9A-0C3D3496DD2B}"/>
+    <hyperlink ref="L18" r:id="rId36" xr:uid="{667DFF61-129E-5245-90C4-8D83D85CC4B7}"/>
+    <hyperlink ref="L17" r:id="rId37" xr:uid="{27D81FFA-A11F-4B4D-9986-C7E06B3E5BEA}"/>
+    <hyperlink ref="L21" r:id="rId38" xr:uid="{9FD754D5-8F4B-2F45-B853-9215748265D3}"/>
+    <hyperlink ref="L24" r:id="rId39" location="politics" xr:uid="{59D55099-C26E-4348-923C-D6BE5A13C451}"/>
+    <hyperlink ref="L20" r:id="rId40" xr:uid="{05D428DE-5D28-9741-A4C8-D49D1B99A30F}"/>
+    <hyperlink ref="L25" r:id="rId41" xr:uid="{7192F838-7E75-DB4D-8E4C-22652EE645B4}"/>
+    <hyperlink ref="L27" r:id="rId42" xr:uid="{7C0A5563-5617-7646-985D-01E86954DCB0}"/>
+    <hyperlink ref="L34" r:id="rId43" xr:uid="{1E3A4E54-E0EE-2540-BC05-F73D93437115}"/>
+    <hyperlink ref="L33" r:id="rId44" location="politics" xr:uid="{3BE2DE24-DB41-C94E-8592-B6C0ACD61C09}"/>
+    <hyperlink ref="L30" r:id="rId45" xr:uid="{1DF273F4-BA09-F944-81AD-A5FC5F9ECC0F}"/>
+    <hyperlink ref="L32" r:id="rId46" xr:uid="{DFBF9D39-FFF1-7B47-A2B3-F37FF64C7622}"/>
+    <hyperlink ref="L31" r:id="rId47" xr:uid="{725D878B-1AE6-EF49-81F6-FC958B35DB11}"/>
+    <hyperlink ref="D31" r:id="rId48" xr:uid="{1FAAEDDB-FC7D-B840-93A4-828248E97345}"/>
+    <hyperlink ref="D32" r:id="rId49" xr:uid="{297D0383-1198-0B43-A3AB-00D53C1A426F}"/>
+    <hyperlink ref="D34" r:id="rId50" xr:uid="{24516360-6419-5342-8CB1-A2E2166ABAFE}"/>
+    <hyperlink ref="D35" r:id="rId51" xr:uid="{234D7995-DD2A-C841-8860-2E3A3BDCA68B}"/>
+    <hyperlink ref="D36" r:id="rId52" xr:uid="{7B8EA1B7-B39B-C448-84CC-D5E9C7F83C90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4965,10 +4961,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -4977,1014 +4973,1014 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D18" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D30" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D34" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D36" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D40" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D43" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D44" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D46" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D48" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D49" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D50" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D51" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D54" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D55" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D56" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D58" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D59" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D60" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D61" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D62" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D63" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D64" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D65" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D66" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D68" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D69" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D71" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D72" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D73" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D74" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D75" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D76" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D77" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D78" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D79" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D80" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D81" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D82" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D83" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D84" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D85" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D86" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D87" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D88" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D89" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D90" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D91" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D92" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D93" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D94" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D95" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -6110,263 +6106,263 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E3" t="s">
         <v>971</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E3" t="s">
-        <v>974</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G4" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C6" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E6" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G6" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E7" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G7" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G8" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>988</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" t="s">
+        <v>968</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E9" t="s">
+        <v>989</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="G9" t="s">
+        <v>990</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C9" t="s">
-        <v>971</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E9" t="s">
-        <v>992</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="G9" t="s">
-        <v>993</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C10" t="s">
+        <v>968</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E10" t="s">
+        <v>993</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="G10" t="s">
+        <v>994</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C10" t="s">
-        <v>971</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E10" t="s">
-        <v>996</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="G10" t="s">
-        <v>997</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -6389,8 +6385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54786396-D0B8-BF41-AB68-AB7C22C5A5E1}">
   <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6410,71 +6406,71 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>97</v>
@@ -6486,13 +6482,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -6501,55 +6497,55 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>997</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D7" t="s">
         <v>1000</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1003</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6561,19 +6557,19 @@
     </row>
     <row r="10" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
@@ -6582,62 +6578,62 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M12" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="7"/>
@@ -6647,43 +6643,43 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="M14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>89</v>
@@ -6692,100 +6688,100 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M16" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M17" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D20" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
@@ -6793,13 +6789,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -6807,19 +6803,19 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D22" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -6827,81 +6823,81 @@
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D23" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D24" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D25" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D26" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>55</v>
@@ -6909,36 +6905,36 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D28" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D29" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -6946,13 +6942,13 @@
         <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D30" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
@@ -6960,19 +6956,19 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D31" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -6980,13 +6976,13 @@
         <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D32" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>78</v>
@@ -6994,36 +6990,36 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D33" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>999</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D34" t="s">
         <v>1002</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1005</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -7031,13 +7027,13 @@
         <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D35" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>213</v>
@@ -7045,19 +7041,19 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D36" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -7065,13 +7061,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D37" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>88</v>
@@ -7079,19 +7075,19 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D38" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -7099,81 +7095,81 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D39" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D40" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D41" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D42" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D43" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -7238,10 +7234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC6CD6C-C8F2-604B-A7CA-49475F859081}">
-  <dimension ref="B3:O39"/>
+  <dimension ref="B3:O40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7260,19 +7256,19 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7284,25 +7280,25 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7310,36 +7306,36 @@
         <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>66</v>
@@ -7350,13 +7346,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -7364,16 +7360,16 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>62</v>
@@ -7381,19 +7377,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7401,16 +7397,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -7418,13 +7414,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -7435,13 +7431,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -7452,13 +7448,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -7469,13 +7465,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>37</v>
@@ -7484,36 +7480,36 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -7521,30 +7517,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -7552,53 +7548,53 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -7606,13 +7602,13 @@
         <v>186</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>187</v>
@@ -7620,36 +7616,36 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -7657,13 +7653,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>45</v>
@@ -7674,30 +7670,30 @@
         <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>80</v>
@@ -7708,13 +7704,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -7725,13 +7721,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -7742,13 +7738,13 @@
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -7759,13 +7755,13 @@
         <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>54</v>
@@ -7773,16 +7769,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>104</v>
@@ -7790,19 +7786,19 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -7810,13 +7806,13 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D34" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>50</v>
@@ -7824,16 +7820,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>56</v>
@@ -7844,67 +7840,84 @@
         <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D37" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D39" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -7940,6 +7953,7 @@
     <hyperlink ref="F17" r:id="rId29" xr:uid="{669CC7E9-2526-A54D-974D-57644945DB51}"/>
     <hyperlink ref="F39" r:id="rId30" xr:uid="{9CAB2650-37F5-7344-BB3F-5AB3A8A2B4AB}"/>
     <hyperlink ref="O5" r:id="rId31" xr:uid="{75A30B9B-7079-5D4E-8358-F5B2B6B8E776}"/>
+    <hyperlink ref="F40" r:id="rId32" xr:uid="{A41A48AD-B742-3344-841D-553F0959568D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7974,19 +7988,19 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -7996,45 +8010,45 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="H3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -8042,20 +8056,20 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -8066,19 +8080,19 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -8086,91 +8100,91 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
         <v>192</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
@@ -8185,16 +8199,16 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -8206,53 +8220,53 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -8260,13 +8274,13 @@
         <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>162</v>
@@ -8274,19 +8288,19 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -8294,13 +8308,13 @@
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>109</v>
@@ -8311,13 +8325,13 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
@@ -8325,19 +8339,19 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C19" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -8345,81 +8359,81 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D20" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D21" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D22" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D23" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D24" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>40</v>
@@ -8427,88 +8441,88 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D25" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E25" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D26" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D27" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D28" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D29" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -8574,53 +8588,53 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -8628,13 +8642,13 @@
         <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>163</v>
@@ -8642,19 +8656,19 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -8662,13 +8676,13 @@
         <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E8" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>164</v>
@@ -8676,113 +8690,113 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C12" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E12" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
@@ -8790,33 +8804,33 @@
         <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -8824,13 +8838,13 @@
         <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E17" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>165</v>
@@ -8838,19 +8852,19 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -8901,19 +8915,19 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -8921,13 +8935,13 @@
         <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>194</v>
@@ -8935,19 +8949,19 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -8956,13 +8970,13 @@
         <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>111</v>
@@ -8974,13 +8988,13 @@
         <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>90</v>
@@ -8991,13 +9005,13 @@
         <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>210</v>
@@ -9005,36 +9019,36 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -9042,13 +9056,13 @@
         <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>229</v>
@@ -9059,90 +9073,90 @@
         <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J14" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>87</v>
@@ -9150,39 +9164,39 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D16" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D17" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>65</v>
@@ -9190,67 +9204,67 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D20" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>107</v>
@@ -9258,36 +9272,36 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D23" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -9341,19 +9355,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>619</v>
+ 